--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\www\vue-project\il\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\work\tc\lagrange\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A1BE1A-3400-4749-8941-BE6B2F95A955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10410"/>
+    <workbookView xWindow="12266" yWindow="1423" windowWidth="19594" windowHeight="15908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保底" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">保底!$A$1:$M$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">保底!$A$1:$O$108</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="159">
   <si>
     <t>SC002</t>
   </si>
@@ -618,13 +619,48 @@
   </si>
   <si>
     <t>直射武器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援舰</t>
+  </si>
+  <si>
+    <t>FSV830</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海氏追随者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海雷丁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-列维9号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -677,7 +713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +725,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,25 +1011,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P76" sqref="P76"/>
+      <selection pane="bottomRight" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.61328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3828125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3828125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3828125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -997,38 +1040,44 @@
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1036,20 +1085,23 @@
         <v>39</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1057,14 +1109,17 @@
         <v>40</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1072,14 +1127,17 @@
         <v>19</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1087,20 +1145,23 @@
         <v>41</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1108,17 +1169,20 @@
         <v>42</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1126,20 +1190,23 @@
         <v>43</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D7" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1147,114 +1214,130 @@
         <v>44</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D13" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1262,16 +1345,19 @@
         <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1279,39 +1365,39 @@
         <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1319,22 +1405,25 @@
         <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,56 +1431,68 @@
         <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="D19" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D20" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1399,39 +1500,45 @@
         <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
+        <v>63</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1439,19 +1546,22 @@
         <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1459,108 +1569,120 @@
         <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -1568,19 +1690,25 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="D29" s="5">
+        <v>5</v>
       </c>
       <c r="H29" s="1">
         <v>1</v>
       </c>
-      <c r="M29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -1588,56 +1716,65 @@
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="5">
+        <v>5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+      <c r="D31" s="5">
+        <v>5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1</v>
-      </c>
-      <c r="L31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="D32" s="5">
+        <v>5</v>
       </c>
       <c r="H32" s="1">
         <v>1</v>
       </c>
-      <c r="M32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -1645,133 +1782,157 @@
         <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="M33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+      <c r="D33" s="5">
+        <v>5</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="5">
+        <v>5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
+      <c r="D35" s="5">
+        <v>5</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
       </c>
-      <c r="I35" s="1">
-        <v>1</v>
-      </c>
-      <c r="M35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1</v>
-      </c>
-      <c r="M36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1</v>
-      </c>
-      <c r="M37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1</v>
-      </c>
-      <c r="L38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="D38" s="5">
+        <v>5</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="L39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="D39" s="5">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -1779,19 +1940,19 @@
         <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1">
-        <v>1</v>
-      </c>
-      <c r="L40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -1799,42 +1960,48 @@
         <v>27</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="H41" s="1">
-        <v>1</v>
-      </c>
-      <c r="I41" s="1">
-        <v>1</v>
-      </c>
-      <c r="M41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1</v>
-      </c>
-      <c r="L42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -1842,19 +2009,22 @@
         <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1</v>
-      </c>
-      <c r="L43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+      <c r="D43" s="5">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -1862,39 +2032,48 @@
         <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="5">
+        <v>5</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1">
-        <v>1</v>
-      </c>
-      <c r="J44" s="1">
-        <v>1</v>
-      </c>
-      <c r="L44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="J45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D45" s="5">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -1902,39 +2081,39 @@
         <v>90</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="5">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="J46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="H47" s="1">
-        <v>1</v>
-      </c>
-      <c r="I47" s="1">
-        <v>1</v>
-      </c>
-      <c r="M47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D47" s="5">
+        <v>5</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -1942,22 +2121,25 @@
         <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1</v>
-      </c>
-      <c r="I48" s="1">
-        <v>1</v>
-      </c>
-      <c r="M48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+      <c r="D48" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
@@ -1965,39 +2147,51 @@
         <v>93</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="I49" s="1">
+        <v>95</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F49" s="1">
         <v>1</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
       </c>
-      <c r="M49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="J50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
@@ -2005,16 +2199,19 @@
         <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="J51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="D51" s="5">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
@@ -2022,36 +2219,39 @@
         <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="J52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+      <c r="D52" s="5">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="J53" s="1">
-        <v>1</v>
-      </c>
-      <c r="M53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+      <c r="D53" s="5">
+        <v>5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
@@ -2059,22 +2259,22 @@
         <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1</v>
-      </c>
-      <c r="M54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="D54" s="5">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
@@ -2082,59 +2282,71 @@
         <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="5">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="I55" s="1">
-        <v>1</v>
-      </c>
-      <c r="M55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
+      <c r="D56" s="5">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1</v>
-      </c>
-      <c r="J56" s="1">
-        <v>1</v>
-      </c>
-      <c r="M56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1</v>
-      </c>
-      <c r="J57" s="1">
+        <v>62</v>
+      </c>
+      <c r="D57" s="5">
+        <v>5</v>
+      </c>
+      <c r="H57" s="1">
         <v>1</v>
       </c>
       <c r="L57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="O57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
@@ -2142,27 +2354,33 @@
         <v>28</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="5">
+        <v>5</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G58" s="1">
-        <v>1</v>
-      </c>
-      <c r="J58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1</v>
+      <c r="D59" s="5">
+        <v>5</v>
       </c>
       <c r="H59" s="1">
         <v>1</v>
@@ -2171,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
@@ -2179,148 +2397,169 @@
         <v>105</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-      <c r="H60" s="1">
-        <v>1</v>
-      </c>
-      <c r="L60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+      <c r="D60" s="5">
+        <v>5</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="5">
+        <v>5</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
-      <c r="H61" s="1">
-        <v>1</v>
-      </c>
-      <c r="I61" s="1">
-        <v>1</v>
-      </c>
-      <c r="L61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="H62" s="1">
-        <v>1</v>
-      </c>
-      <c r="I62" s="1">
-        <v>1</v>
-      </c>
-      <c r="L62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D62" s="5">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="5">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+      <c r="N63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="I63" s="1">
-        <v>1</v>
-      </c>
-      <c r="L63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-      <c r="I64" s="1">
-        <v>1</v>
-      </c>
-      <c r="L64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D64" s="5">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1</v>
+      </c>
+      <c r="N64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="I65" s="1">
-        <v>1</v>
-      </c>
-      <c r="J65" s="1">
-        <v>1</v>
-      </c>
-      <c r="M65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="D65" s="5">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="N65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1</v>
-      </c>
-      <c r="J66" s="1">
-        <v>1</v>
-      </c>
-      <c r="M66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1</v>
+      </c>
+      <c r="O66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
@@ -2328,36 +2567,45 @@
         <v>112</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1</v>
-      </c>
-      <c r="I67" s="1">
-        <v>1</v>
-      </c>
-      <c r="M67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1">
+        <v>1</v>
+      </c>
+      <c r="O67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E68" s="1">
-        <v>1</v>
-      </c>
-      <c r="H68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+      <c r="O68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
@@ -2365,16 +2613,19 @@
         <v>116</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E69" s="1">
+        <v>117</v>
+      </c>
+      <c r="D69" s="5">
+        <v>5</v>
+      </c>
+      <c r="F69" s="1">
         <v>1</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>11</v>
       </c>
@@ -2382,36 +2633,39 @@
         <v>116</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1</v>
-      </c>
-      <c r="J70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+      <c r="D70" s="5">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1</v>
-      </c>
-      <c r="H71" s="1">
-        <v>1</v>
-      </c>
-      <c r="M71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="D71" s="5">
+        <v>5</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -2419,56 +2673,68 @@
         <v>119</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="H72" s="1">
-        <v>1</v>
-      </c>
-      <c r="M72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E73" s="1">
-        <v>1</v>
-      </c>
-      <c r="I73" s="1">
-        <v>1</v>
-      </c>
-      <c r="L73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E74" s="1">
-        <v>1</v>
-      </c>
-      <c r="H74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D74" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1</v>
+      </c>
+      <c r="N74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -2476,30 +2742,36 @@
         <v>122</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E75" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D76" s="1">
-        <v>1</v>
-      </c>
-      <c r="H76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -2507,30 +2779,36 @@
         <v>126</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D77" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+      <c r="D77" s="5">
+        <v>5</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" s="1">
-        <v>1</v>
-      </c>
-      <c r="L78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="D78" s="5">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -2538,16 +2816,19 @@
         <v>127</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D79" s="1">
-        <v>1</v>
-      </c>
-      <c r="M79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="D79" s="5">
+        <v>5</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="N79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -2555,33 +2836,39 @@
         <v>127</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D80" s="1">
-        <v>1</v>
-      </c>
-      <c r="L80" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+      <c r="D80" s="5">
+        <v>5</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="O80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G81" s="1">
-        <v>1</v>
-      </c>
-      <c r="M81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="D81" s="5">
+        <v>5</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="N81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -2589,19 +2876,19 @@
         <v>29</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G82" s="1">
-        <v>1</v>
-      </c>
-      <c r="I82" s="1">
-        <v>1</v>
-      </c>
-      <c r="M82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="D82" s="5">
+        <v>5</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1</v>
+      </c>
+      <c r="O82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
@@ -2609,126 +2896,138 @@
         <v>29</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83" s="5">
+        <v>5</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1</v>
+      </c>
+      <c r="O83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G83" s="1">
-        <v>1</v>
-      </c>
-      <c r="M83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="G84" s="1">
-        <v>1</v>
+      <c r="D84" s="5">
+        <v>5</v>
       </c>
       <c r="H84" s="1">
         <v>1</v>
       </c>
-      <c r="J84" s="1">
-        <v>1</v>
-      </c>
-      <c r="K84" s="1">
-        <v>1</v>
-      </c>
-      <c r="M84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="O84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="J85" s="1">
+        <v>1</v>
+      </c>
+      <c r="L85" s="1">
+        <v>1</v>
+      </c>
+      <c r="M85" s="1">
+        <v>1</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G85" s="1">
-        <v>1</v>
-      </c>
-      <c r="H85" s="1">
-        <v>1</v>
-      </c>
-      <c r="I85" s="1">
-        <v>1</v>
-      </c>
-      <c r="J85" s="1">
-        <v>1</v>
-      </c>
-      <c r="K85" s="1">
-        <v>1</v>
-      </c>
-      <c r="L85" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
+      <c r="D86" s="5">
+        <v>5</v>
+      </c>
+      <c r="H86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1</v>
+      </c>
+      <c r="K86" s="1">
+        <v>1</v>
+      </c>
+      <c r="L86" s="1">
+        <v>1</v>
+      </c>
+      <c r="M86" s="1">
+        <v>1</v>
+      </c>
+      <c r="N86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G86" s="1">
-        <v>1</v>
-      </c>
-      <c r="K86" s="1">
-        <v>1</v>
-      </c>
-      <c r="M86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="F87" s="1">
-        <v>1</v>
+      <c r="D87" s="5">
+        <v>5</v>
       </c>
       <c r="H87" s="1">
         <v>1</v>
       </c>
-      <c r="I87" s="1">
-        <v>1</v>
-      </c>
-      <c r="K87" s="1">
-        <v>1</v>
-      </c>
-      <c r="L87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M87" s="1">
+        <v>1</v>
+      </c>
+      <c r="O87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1</v>
-      </c>
-      <c r="H88" s="1">
+        <v>9</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="5">
+        <v>5</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+      <c r="J88" s="1">
         <v>1</v>
       </c>
       <c r="K88" s="1">
@@ -2737,365 +3036,502 @@
       <c r="M88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1</v>
-      </c>
-      <c r="H89" s="1">
-        <v>1</v>
-      </c>
-      <c r="K89" s="1">
+        <v>137</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89" s="1">
         <v>1</v>
       </c>
       <c r="M89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="O89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="F90" s="1">
-        <v>1</v>
-      </c>
-      <c r="H90" s="1">
-        <v>1</v>
-      </c>
-      <c r="K90" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1">
+        <v>1</v>
+      </c>
+      <c r="O90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="E91" s="1">
-        <v>1</v>
-      </c>
-      <c r="I91" s="1">
+      <c r="D91" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G91" s="1">
         <v>1</v>
       </c>
       <c r="J91" s="1">
         <v>1</v>
       </c>
-      <c r="K91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M91" s="1">
+        <v>1</v>
+      </c>
+      <c r="N91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="G92" s="1">
-        <v>1</v>
-      </c>
-      <c r="J92" s="1">
+      <c r="D92" s="5">
+        <v>5</v>
+      </c>
+      <c r="F92" s="1">
         <v>1</v>
       </c>
       <c r="K92" s="1">
         <v>1</v>
       </c>
+      <c r="L92" s="1">
+        <v>1</v>
+      </c>
       <c r="M92" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="5">
+        <v>5</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1</v>
+      </c>
+      <c r="L93" s="1">
+        <v>1</v>
+      </c>
+      <c r="M93" s="1">
+        <v>1</v>
+      </c>
+      <c r="O93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="E93" s="1">
-        <v>1</v>
-      </c>
-      <c r="K93" s="1">
-        <v>1</v>
-      </c>
-      <c r="M93" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2"/>
+      <c r="D94" s="5">
+        <v>5</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="M94" s="1">
+        <v>1</v>
+      </c>
+      <c r="O94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="J95" s="1">
+        <v>1</v>
+      </c>
+      <c r="K95" s="1">
+        <v>1</v>
+      </c>
+      <c r="M95" s="1">
+        <v>1</v>
+      </c>
+      <c r="N95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="F94" s="1">
-        <v>1</v>
-      </c>
-      <c r="K94" s="1">
-        <v>1</v>
-      </c>
-      <c r="M94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B95" s="2" t="s">
+      <c r="C96" s="2"/>
+      <c r="D96" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="M96" s="1">
+        <v>1</v>
+      </c>
+      <c r="O96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="1">
-        <v>1</v>
-      </c>
-      <c r="J95" s="1">
-        <v>1</v>
-      </c>
-      <c r="K95" s="1">
-        <v>1</v>
-      </c>
-      <c r="L95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A96" s="1" t="s">
+      <c r="C97" s="2"/>
+      <c r="D97" s="5">
+        <v>5</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="L97" s="1">
+        <v>1</v>
+      </c>
+      <c r="M97" s="1">
+        <v>1</v>
+      </c>
+      <c r="N97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="1">
-        <v>1</v>
-      </c>
-      <c r="H96" s="1">
-        <v>1</v>
-      </c>
-      <c r="I96" s="1">
-        <v>1</v>
-      </c>
-      <c r="K96" s="1">
-        <v>1</v>
-      </c>
-      <c r="L96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
+      <c r="B98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="5">
+        <v>5</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1</v>
+      </c>
+      <c r="K98" s="1">
+        <v>1</v>
+      </c>
+      <c r="M98" s="1">
+        <v>1</v>
+      </c>
+      <c r="N98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="1">
-        <v>1</v>
-      </c>
-      <c r="J97" s="1">
-        <v>1</v>
-      </c>
-      <c r="K97" s="1">
-        <v>1</v>
-      </c>
-      <c r="M97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="2" t="s">
+      <c r="C99" s="2"/>
+      <c r="D99" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="L99" s="1">
+        <v>1</v>
+      </c>
+      <c r="M99" s="1">
+        <v>1</v>
+      </c>
+      <c r="O99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="1">
-        <v>1</v>
-      </c>
-      <c r="J98" s="1">
-        <v>1</v>
-      </c>
-      <c r="K98" s="1">
-        <v>1</v>
-      </c>
-      <c r="M98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B99" s="2" t="s">
+      <c r="C100" s="2"/>
+      <c r="D100" s="5">
+        <v>5</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1">
+        <v>1</v>
+      </c>
+      <c r="M100" s="1">
+        <v>1</v>
+      </c>
+      <c r="O100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="F99" s="1">
-        <v>1</v>
-      </c>
-      <c r="H99" s="1">
-        <v>1</v>
-      </c>
-      <c r="I99" s="1">
-        <v>1</v>
-      </c>
-      <c r="K99" s="1">
-        <v>1</v>
-      </c>
-      <c r="M99" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" s="2" t="s">
+      <c r="C101" s="2"/>
+      <c r="D101" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="J101" s="1">
+        <v>1</v>
+      </c>
+      <c r="K101" s="1">
+        <v>1</v>
+      </c>
+      <c r="M101" s="1">
+        <v>1</v>
+      </c>
+      <c r="O101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="F100" s="1">
-        <v>1</v>
-      </c>
-      <c r="H100" s="1">
-        <v>1</v>
-      </c>
-      <c r="K100" s="1">
-        <v>1</v>
-      </c>
-      <c r="L100" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="2" t="s">
+      <c r="C102" s="2"/>
+      <c r="D102" s="5">
+        <v>5</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="J102" s="1">
+        <v>1</v>
+      </c>
+      <c r="M102" s="1">
+        <v>1</v>
+      </c>
+      <c r="N102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="F101" s="1">
-        <v>1</v>
-      </c>
-      <c r="I101" s="1">
-        <v>1</v>
-      </c>
-      <c r="K101" s="1">
-        <v>1</v>
-      </c>
-      <c r="M101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B102" s="2" t="s">
+      <c r="C103" s="2"/>
+      <c r="D103" s="5">
+        <v>5</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
+        <v>1</v>
+      </c>
+      <c r="M103" s="1">
+        <v>1</v>
+      </c>
+      <c r="O103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1</v>
+      </c>
+      <c r="J104" s="1">
+        <v>1</v>
+      </c>
+      <c r="K104" s="1">
+        <v>1</v>
+      </c>
+      <c r="M104" s="1">
+        <v>1</v>
+      </c>
+      <c r="O104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="E102" s="1">
-        <v>1</v>
-      </c>
-      <c r="K102" s="1">
-        <v>1</v>
-      </c>
-      <c r="M102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103" s="2" t="s">
+      <c r="C105" s="2"/>
+      <c r="D105" s="5">
+        <v>5</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+      <c r="M105" s="1">
+        <v>1</v>
+      </c>
+      <c r="O105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="E103" s="1">
-        <v>1</v>
-      </c>
-      <c r="H103" s="1">
-        <v>1</v>
-      </c>
-      <c r="K103" s="1">
-        <v>1</v>
-      </c>
-      <c r="L103" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B104" s="2" t="s">
+      <c r="C106" s="2"/>
+      <c r="D106" s="5">
+        <v>5</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1</v>
+      </c>
+      <c r="J106" s="1">
+        <v>1</v>
+      </c>
+      <c r="M106" s="1">
+        <v>1</v>
+      </c>
+      <c r="N106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="E104" s="1">
-        <v>1</v>
-      </c>
-      <c r="J104" s="1">
-        <v>1</v>
-      </c>
-      <c r="K104" s="1">
-        <v>1</v>
-      </c>
-      <c r="M104" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B105" s="2" t="s">
+      <c r="C107" s="2"/>
+      <c r="D107" s="5">
+        <v>5</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="L107" s="1">
+        <v>1</v>
+      </c>
+      <c r="M107" s="1">
+        <v>1</v>
+      </c>
+      <c r="O107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="G105" s="1">
-        <v>1</v>
-      </c>
-      <c r="I105" s="1">
-        <v>1</v>
-      </c>
-      <c r="J105" s="1">
-        <v>1</v>
-      </c>
-      <c r="K105" s="1">
-        <v>1</v>
-      </c>
-      <c r="M105" s="1">
+      <c r="C108" s="2"/>
+      <c r="D108" s="5">
+        <v>5</v>
+      </c>
+      <c r="H108" s="1">
+        <v>1</v>
+      </c>
+      <c r="K108" s="1">
+        <v>1</v>
+      </c>
+      <c r="L108" s="1">
+        <v>1</v>
+      </c>
+      <c r="M108" s="1">
+        <v>1</v>
+      </c>
+      <c r="O108" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M105"/>
+  <autoFilter ref="A1:O108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\work\tc\lagrange\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A1BE1A-3400-4749-8941-BE6B2F95A955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D624BE21-126D-4E84-AA8E-A732F84A0EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12266" yWindow="1423" windowWidth="19594" windowHeight="15908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3394" yWindow="2606" windowWidth="21977" windowHeight="15908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保底" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">保底!$A$1:$O$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">保底!$A$1:$O$115</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="171">
   <si>
     <t>SC002</t>
   </si>
@@ -654,6 +654,54 @@
   </si>
   <si>
     <t>2.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷火之星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃迪卡拉级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉冲型(A)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">干扰型(B) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多功能型(C)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援型(D)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速型(C)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1012,13 +1060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O108"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D105" sqref="D105"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
@@ -1139,22 +1187,22 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D5" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>1</v>
       </c>
       <c r="O5" s="1">
@@ -1166,16 +1214,19 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
         <v>1</v>
       </c>
       <c r="O6" s="1">
@@ -1187,19 +1238,16 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
         <v>1</v>
       </c>
       <c r="O7" s="1">
@@ -1208,19 +1256,22 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="D8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
         <v>1</v>
       </c>
       <c r="O8" s="1">
@@ -1229,108 +1280,107 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="E10" s="1">
+        <v>162</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
         <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1">
+        <v>152</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5">
         <v>2.5</v>
       </c>
-      <c r="G12" s="1">
+      <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D13" s="5">
         <v>2.5</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
         <v>1</v>
       </c>
       <c r="O13" s="1">
@@ -1342,13 +1392,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1359,21 +1409,24 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1385,7 +1438,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="5">
         <v>5</v>
@@ -1402,24 +1455,18 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D17" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1428,24 +1475,18 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1457,7 +1498,7 @@
         <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="5">
         <v>2.5</v>
@@ -1465,6 +1506,9 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
       <c r="K19" s="1">
         <v>1</v>
       </c>
@@ -1474,13 +1518,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" s="5">
         <v>2.5</v>
@@ -1488,7 +1532,13 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="N20" s="1">
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1497,10 +1547,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D21" s="5">
         <v>2.5</v>
@@ -1508,30 +1558,27 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" s="5">
         <v>2.5</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
         <v>1</v>
       </c>
       <c r="N22" s="1">
@@ -1543,18 +1590,18 @@
         <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D23" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
         <v>1</v>
       </c>
       <c r="N23" s="1">
@@ -1566,15 +1613,15 @@
         <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="J24" s="1">
@@ -1592,12 +1639,15 @@
         <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="5">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
         <v>1</v>
       </c>
       <c r="N25" s="1">
@@ -1609,13 +1659,13 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D26" s="5">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1623,36 +1673,27 @@
       <c r="J26" s="1">
         <v>1</v>
       </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="O26" s="1">
+      <c r="N26" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D27" s="5">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="O27" s="1">
+      <c r="N27" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1664,7 +1705,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="5">
         <v>2.5</v>
@@ -1684,18 +1725,18 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D29" s="5">
-        <v>5</v>
-      </c>
-      <c r="H29" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="J29" s="1">
@@ -1704,7 +1745,7 @@
       <c r="K29" s="1">
         <v>1</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1713,18 +1754,21 @@
         <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D30" s="5">
-        <v>5</v>
-      </c>
-      <c r="H30" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
         <v>1</v>
       </c>
       <c r="O30" s="1">
@@ -1739,24 +1783,33 @@
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" s="5">
         <v>5</v>
       </c>
       <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" s="5">
         <v>5</v>
@@ -1767,10 +1820,7 @@
       <c r="J32" s="1">
         <v>1</v>
       </c>
-      <c r="L32" s="1">
-        <v>1</v>
-      </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1779,41 +1829,35 @@
         <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="5">
         <v>5</v>
       </c>
       <c r="H33" s="1">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="O33" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="5">
-        <v>5</v>
+        <v>167</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
       </c>
-      <c r="O34" s="1">
+      <c r="L34" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1825,35 +1869,41 @@
         <v>26</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D35" s="5">
         <v>5</v>
       </c>
       <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D36" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1">
         <v>1</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
-      </c>
-      <c r="K36" s="1">
         <v>1</v>
       </c>
       <c r="O36" s="1">
@@ -1862,24 +1912,18 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D37" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1">
+        <v>5</v>
+      </c>
+      <c r="H37" s="1">
         <v>1</v>
       </c>
       <c r="O37" s="1">
@@ -1888,24 +1932,18 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="D38" s="5">
         <v>5</v>
       </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="J38" s="1">
-        <v>1</v>
-      </c>
-      <c r="O38" s="1">
+      <c r="H38" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1914,21 +1952,24 @@
         <v>13</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D39" s="5">
-        <v>5</v>
-      </c>
-      <c r="E39" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F39" s="1">
         <v>1</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
       </c>
-      <c r="N39" s="1">
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="O39" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1937,18 +1978,24 @@
         <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D40" s="5">
         <v>2.5</v>
       </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-      <c r="N40" s="1">
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1957,21 +2004,21 @@
         <v>13</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D41" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-      <c r="L41" s="1">
-        <v>1</v>
-      </c>
-      <c r="N41" s="1">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1980,24 +2027,21 @@
         <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D42" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="G42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
       </c>
-      <c r="K42" s="1">
-        <v>1</v>
-      </c>
-      <c r="O42" s="1">
+      <c r="N42" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2006,18 +2050,15 @@
         <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="D43" s="5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G43" s="1">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1">
         <v>1</v>
       </c>
       <c r="N43" s="1">
@@ -2029,18 +2070,18 @@
         <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D44" s="5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
       </c>
-      <c r="J44" s="1">
+      <c r="L44" s="1">
         <v>1</v>
       </c>
       <c r="N44" s="1">
@@ -2052,64 +2093,70 @@
         <v>13</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D45" s="5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
       </c>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
       <c r="K45" s="1">
         <v>1</v>
       </c>
-      <c r="L45" s="1">
-        <v>1</v>
-      </c>
-      <c r="N45" s="1">
+      <c r="O45" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D46" s="5">
         <v>5</v>
       </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="L46" s="1">
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D47" s="5">
         <v>5</v>
       </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="L47" s="1">
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2118,76 +2165,64 @@
         <v>13</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D48" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1">
         <v>1</v>
       </c>
       <c r="K48" s="1">
         <v>1</v>
       </c>
-      <c r="O48" s="1">
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D49" s="5">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
       </c>
-      <c r="J49" s="1">
-        <v>1</v>
-      </c>
-      <c r="K49" s="1">
-        <v>1</v>
-      </c>
-      <c r="O49" s="1">
+      <c r="L49" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D50" s="5">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
       </c>
-      <c r="K50" s="1">
-        <v>1</v>
-      </c>
       <c r="L50" s="1">
-        <v>1</v>
-      </c>
-      <c r="O50" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2196,18 +2231,24 @@
         <v>13</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D51" s="5">
-        <v>5</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="L51" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="O51" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2216,18 +2257,24 @@
         <v>13</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D52" s="5">
-        <v>5</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="L52" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+      <c r="O52" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2236,18 +2283,24 @@
         <v>13</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="D53" s="5">
-        <v>5</v>
-      </c>
-      <c r="E53" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1">
         <v>1</v>
       </c>
       <c r="L53" s="1">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2256,10 +2309,10 @@
         <v>13</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D54" s="5">
         <v>5</v>
@@ -2268,9 +2321,6 @@
         <v>1</v>
       </c>
       <c r="L54" s="1">
-        <v>1</v>
-      </c>
-      <c r="O54" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2279,10 +2329,10 @@
         <v>13</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D55" s="5">
         <v>5</v>
@@ -2290,13 +2340,7 @@
       <c r="E55" s="1">
         <v>1</v>
       </c>
-      <c r="J55" s="1">
-        <v>1</v>
-      </c>
-      <c r="K55" s="1">
-        <v>1</v>
-      </c>
-      <c r="O55" s="1">
+      <c r="L55" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2305,10 +2349,10 @@
         <v>13</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D56" s="5">
         <v>5</v>
@@ -2316,27 +2360,24 @@
       <c r="E56" s="1">
         <v>1</v>
       </c>
-      <c r="K56" s="1">
-        <v>1</v>
-      </c>
-      <c r="O56" s="1">
+      <c r="L56" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D57" s="5">
         <v>5</v>
       </c>
-      <c r="H57" s="1">
+      <c r="E57" s="1">
         <v>1</v>
       </c>
       <c r="L57" s="1">
@@ -2351,21 +2392,24 @@
         <v>13</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D58" s="5">
         <v>5</v>
       </c>
-      <c r="H58" s="1">
-        <v>1</v>
-      </c>
-      <c r="L58" s="1">
-        <v>1</v>
-      </c>
-      <c r="N58" s="1">
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="O58" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2374,61 +2418,64 @@
         <v>13</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D59" s="5">
         <v>5</v>
       </c>
-      <c r="H59" s="1">
-        <v>1</v>
-      </c>
-      <c r="L59" s="1">
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="D60" s="5">
         <v>5</v>
       </c>
-      <c r="G60" s="1">
-        <v>1</v>
-      </c>
-      <c r="J60" s="1">
-        <v>1</v>
-      </c>
-      <c r="N60" s="1">
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D61" s="5">
         <v>5</v>
       </c>
-      <c r="G61" s="1">
-        <v>1</v>
-      </c>
-      <c r="J61" s="1">
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1">
         <v>1</v>
       </c>
       <c r="N61" s="1">
@@ -2437,27 +2484,21 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D62" s="5">
         <v>5</v>
       </c>
-      <c r="G62" s="1">
-        <v>1</v>
-      </c>
-      <c r="J62" s="1">
-        <v>1</v>
-      </c>
-      <c r="K62" s="1">
-        <v>1</v>
-      </c>
-      <c r="N62" s="1">
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2466,21 +2507,18 @@
         <v>11</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D63" s="5">
         <v>5</v>
       </c>
-      <c r="E63" s="1">
+      <c r="G63" s="1">
         <v>1</v>
       </c>
       <c r="J63" s="1">
-        <v>1</v>
-      </c>
-      <c r="K63" s="1">
         <v>1</v>
       </c>
       <c r="N63" s="1">
@@ -2492,18 +2530,18 @@
         <v>11</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D64" s="5">
         <v>5</v>
       </c>
-      <c r="E64" s="1">
-        <v>1</v>
-      </c>
-      <c r="K64" s="1">
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1">
         <v>1</v>
       </c>
       <c r="N64" s="1">
@@ -2515,15 +2553,18 @@
         <v>12</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D65" s="5">
         <v>5</v>
       </c>
-      <c r="E65" s="1">
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1">
         <v>1</v>
       </c>
       <c r="K65" s="1">
@@ -2535,27 +2576,27 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G66" s="1">
+        <v>111</v>
+      </c>
+      <c r="D66" s="5">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
         <v>1</v>
       </c>
       <c r="K66" s="1">
         <v>1</v>
       </c>
-      <c r="L66" s="1">
-        <v>1</v>
-      </c>
-      <c r="O66" s="1">
+      <c r="N66" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2564,64 +2605,70 @@
         <v>11</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1</v>
-      </c>
-      <c r="L67" s="1">
-        <v>1</v>
-      </c>
-      <c r="O67" s="1">
+        <v>103</v>
+      </c>
+      <c r="D67" s="5">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="N67" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G68" s="1">
+        <v>89</v>
+      </c>
+      <c r="D68" s="5">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1">
         <v>1</v>
       </c>
       <c r="K68" s="1">
         <v>1</v>
       </c>
-      <c r="O68" s="1">
+      <c r="N68" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D69" s="5">
-        <v>5</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1</v>
-      </c>
-      <c r="J69" s="1">
+        <v>113</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1">
+        <v>1</v>
+      </c>
+      <c r="O69" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2630,18 +2677,21 @@
         <v>11</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="5">
-        <v>5</v>
-      </c>
-      <c r="F70" s="1">
+        <v>114</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G70" s="1">
         <v>1</v>
       </c>
       <c r="L70" s="1">
+        <v>1</v>
+      </c>
+      <c r="O70" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2650,18 +2700,21 @@
         <v>11</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D71" s="5">
-        <v>5</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1</v>
-      </c>
-      <c r="L71" s="1">
+        <v>115</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="O71" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2670,21 +2723,18 @@
         <v>11</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>155</v>
+        <v>117</v>
+      </c>
+      <c r="D72" s="5">
+        <v>5</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
-      </c>
-      <c r="O72" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2693,44 +2743,38 @@
         <v>11</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>155</v>
+        <v>98</v>
+      </c>
+      <c r="D73" s="5">
+        <v>5</v>
       </c>
       <c r="F73" s="1">
         <v>1</v>
       </c>
-      <c r="J73" s="1">
-        <v>1</v>
-      </c>
-      <c r="O73" s="1">
+      <c r="L73" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>155</v>
+        <v>118</v>
+      </c>
+      <c r="D74" s="5">
+        <v>5</v>
       </c>
       <c r="F74" s="1">
         <v>1</v>
       </c>
-      <c r="K74" s="1">
-        <v>1</v>
-      </c>
-      <c r="N74" s="1">
+      <c r="L74" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2739,10 +2783,10 @@
         <v>11</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>155</v>
@@ -2751,6 +2795,9 @@
         <v>1</v>
       </c>
       <c r="J75" s="1">
+        <v>1</v>
+      </c>
+      <c r="O75" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2759,10 +2806,10 @@
         <v>11</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>155</v>
@@ -2770,24 +2817,33 @@
       <c r="F76" s="1">
         <v>1</v>
       </c>
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D77" s="5">
-        <v>5</v>
-      </c>
-      <c r="E77" s="1">
-        <v>1</v>
-      </c>
-      <c r="J77" s="1">
+        <v>121</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1">
+        <v>1</v>
+      </c>
+      <c r="N77" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2796,15 +2852,18 @@
         <v>11</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D78" s="5">
-        <v>5</v>
-      </c>
-      <c r="E78" s="1">
+        <v>123</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2813,18 +2872,15 @@
         <v>11</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" s="5">
-        <v>5</v>
-      </c>
-      <c r="E79" s="1">
-        <v>1</v>
-      </c>
-      <c r="N79" s="1">
+        <v>63</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F79" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2833,10 +2889,10 @@
         <v>11</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D80" s="5">
         <v>5</v>
@@ -2844,7 +2900,7 @@
       <c r="E80" s="1">
         <v>1</v>
       </c>
-      <c r="O80" s="1">
+      <c r="J80" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2853,18 +2909,15 @@
         <v>11</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="D81" s="5">
         <v>5</v>
       </c>
       <c r="E81" s="1">
-        <v>1</v>
-      </c>
-      <c r="N81" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2873,18 +2926,18 @@
         <v>11</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="D82" s="5">
         <v>5</v>
       </c>
-      <c r="H82" s="1">
-        <v>1</v>
-      </c>
-      <c r="O82" s="1">
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="N82" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2893,18 +2946,15 @@
         <v>11</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D83" s="5">
         <v>5</v>
       </c>
-      <c r="H83" s="1">
-        <v>1</v>
-      </c>
-      <c r="K83" s="1">
+      <c r="E83" s="1">
         <v>1</v>
       </c>
       <c r="O83" s="1">
@@ -2916,42 +2966,38 @@
         <v>11</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="D84" s="5">
         <v>5</v>
       </c>
-      <c r="H84" s="1">
-        <v>1</v>
-      </c>
-      <c r="O84" s="1">
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="N84" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="5" t="s">
-        <v>155</v>
+        <v>29</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" s="5">
+        <v>5</v>
       </c>
       <c r="H85" s="1">
         <v>1</v>
       </c>
-      <c r="J85" s="1">
-        <v>1</v>
-      </c>
       <c r="L85" s="1">
-        <v>1</v>
-      </c>
-      <c r="M85" s="1">
         <v>1</v>
       </c>
       <c r="O85" s="1">
@@ -2960,13 +3006,13 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D86" s="5">
         <v>5</v>
@@ -2974,31 +3020,22 @@
       <c r="H86" s="1">
         <v>1</v>
       </c>
-      <c r="J86" s="1">
-        <v>1</v>
-      </c>
       <c r="K86" s="1">
         <v>1</v>
       </c>
-      <c r="L86" s="1">
-        <v>1</v>
-      </c>
-      <c r="M86" s="1">
-        <v>1</v>
-      </c>
-      <c r="N86" s="1">
+      <c r="O86" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D87" s="5">
         <v>5</v>
@@ -3006,7 +3043,7 @@
       <c r="H87" s="1">
         <v>1</v>
       </c>
-      <c r="M87" s="1">
+      <c r="L87" s="1">
         <v>1</v>
       </c>
       <c r="O87" s="1">
@@ -3018,25 +3055,25 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="C88" s="2"/>
-      <c r="D88" s="5">
-        <v>5</v>
-      </c>
-      <c r="G88" s="1">
+      <c r="D88" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H88" s="1">
         <v>1</v>
       </c>
       <c r="J88" s="1">
         <v>1</v>
       </c>
-      <c r="K88" s="1">
+      <c r="L88" s="1">
         <v>1</v>
       </c>
       <c r="M88" s="1">
         <v>1</v>
       </c>
-      <c r="N88" s="1">
+      <c r="O88" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3045,44 +3082,47 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G89" s="1">
+        <v>132</v>
+      </c>
+      <c r="D89" s="5">
+        <v>5</v>
+      </c>
+      <c r="H89" s="1">
         <v>1</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
       </c>
+      <c r="K89" s="1">
+        <v>1</v>
+      </c>
+      <c r="L89" s="1">
+        <v>1</v>
+      </c>
       <c r="M89" s="1">
         <v>1</v>
       </c>
-      <c r="O89" s="1">
+      <c r="N89" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G90" s="1">
-        <v>1</v>
-      </c>
-      <c r="J90" s="1">
+        <v>133</v>
+      </c>
+      <c r="D90" s="5">
+        <v>5</v>
+      </c>
+      <c r="H90" s="1">
         <v>1</v>
       </c>
       <c r="M90" s="1">
@@ -3097,16 +3137,15 @@
         <v>8</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="D91" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G91" s="1">
-        <v>1</v>
-      </c>
-      <c r="J91" s="1">
+        <v>159</v>
+      </c>
+      <c r="H91" s="1">
         <v>1</v>
       </c>
       <c r="M91" s="1">
@@ -3121,22 +3160,25 @@
         <v>8</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="5">
         <v>5</v>
       </c>
-      <c r="F92" s="1">
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1">
         <v>1</v>
       </c>
       <c r="K92" s="1">
         <v>1</v>
       </c>
-      <c r="L92" s="1">
-        <v>1</v>
-      </c>
       <c r="M92" s="1">
+        <v>1</v>
+      </c>
+      <c r="N92" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3145,16 +3187,18 @@
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="5">
-        <v>5</v>
-      </c>
-      <c r="H93" s="1">
-        <v>1</v>
-      </c>
-      <c r="L93" s="1">
+        <v>135</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1">
         <v>1</v>
       </c>
       <c r="M93" s="1">
@@ -3169,13 +3213,18 @@
         <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="5">
-        <v>5</v>
-      </c>
-      <c r="F94" s="1">
+        <v>136</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+      <c r="J94" s="1">
         <v>1</v>
       </c>
       <c r="M94" s="1">
@@ -3190,19 +3239,16 @@
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E95" s="1">
+      <c r="G95" s="1">
         <v>1</v>
       </c>
       <c r="J95" s="1">
-        <v>1</v>
-      </c>
-      <c r="K95" s="1">
         <v>1</v>
       </c>
       <c r="M95" s="1">
@@ -3214,37 +3260,40 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="C96" s="2"/>
-      <c r="D96" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G96" s="1">
+      <c r="D96" s="5">
+        <v>5</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="K96" s="1">
+        <v>1</v>
+      </c>
+      <c r="L96" s="1">
         <v>1</v>
       </c>
       <c r="M96" s="1">
-        <v>1</v>
-      </c>
-      <c r="O96" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="5">
         <v>5</v>
       </c>
-      <c r="E97" s="1">
+      <c r="H97" s="1">
         <v>1</v>
       </c>
       <c r="L97" s="1">
@@ -3253,58 +3302,55 @@
       <c r="M97" s="1">
         <v>1</v>
       </c>
-      <c r="N97" s="1">
+      <c r="O97" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="5">
         <v>5</v>
       </c>
-      <c r="E98" s="1">
-        <v>1</v>
-      </c>
-      <c r="J98" s="1">
-        <v>1</v>
-      </c>
-      <c r="K98" s="1">
+      <c r="F98" s="1">
         <v>1</v>
       </c>
       <c r="M98" s="1">
         <v>1</v>
       </c>
-      <c r="N98" s="1">
+      <c r="O98" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
       </c>
-      <c r="L99" s="1">
+      <c r="J99" s="1">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1">
         <v>1</v>
       </c>
       <c r="M99" s="1">
         <v>1</v>
       </c>
-      <c r="O99" s="1">
+      <c r="N99" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3313,16 +3359,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="5">
-        <v>5</v>
-      </c>
-      <c r="E100" s="1">
-        <v>1</v>
-      </c>
-      <c r="L100" s="1">
+      <c r="D100" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G100" s="1">
         <v>1</v>
       </c>
       <c r="M100" s="1">
@@ -3337,19 +3380,15 @@
         <v>1</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C101" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="D101" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G101" s="1">
-        <v>1</v>
-      </c>
-      <c r="J101" s="1">
-        <v>1</v>
-      </c>
-      <c r="K101" s="1">
+        <v>157</v>
+      </c>
+      <c r="H101" s="1">
         <v>1</v>
       </c>
       <c r="M101" s="1">
@@ -3364,22 +3403,27 @@
         <v>1</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="5">
-        <v>5</v>
-      </c>
-      <c r="G102" s="1">
-        <v>1</v>
-      </c>
-      <c r="J102" s="1">
+        <v>163</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1</v>
+      </c>
+      <c r="K102" s="1">
+        <v>1</v>
+      </c>
+      <c r="L102" s="1">
         <v>1</v>
       </c>
       <c r="M102" s="1">
         <v>1</v>
       </c>
-      <c r="N102" s="1">
+      <c r="O102" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3388,22 +3432,24 @@
         <v>1</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="5">
-        <v>5</v>
-      </c>
-      <c r="G103" s="1">
-        <v>1</v>
-      </c>
-      <c r="K103" s="1">
+        <v>163</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1</v>
+      </c>
+      <c r="J103" s="1">
         <v>1</v>
       </c>
       <c r="M103" s="1">
         <v>1</v>
       </c>
-      <c r="O103" s="1">
+      <c r="N103" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3412,70 +3458,73 @@
         <v>1</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C104" s="2"/>
-      <c r="D104" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="I104" s="1">
-        <v>1</v>
-      </c>
-      <c r="J104" s="1">
-        <v>1</v>
-      </c>
-      <c r="K104" s="1">
+      <c r="D104" s="5">
+        <v>5</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="L104" s="1">
         <v>1</v>
       </c>
       <c r="M104" s="1">
         <v>1</v>
       </c>
-      <c r="O104" s="1">
+      <c r="N104" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="5">
         <v>5</v>
       </c>
-      <c r="F105" s="1">
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="J105" s="1">
+        <v>1</v>
+      </c>
+      <c r="K105" s="1">
         <v>1</v>
       </c>
       <c r="M105" s="1">
         <v>1</v>
       </c>
-      <c r="O105" s="1">
+      <c r="N105" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="C106" s="2"/>
-      <c r="D106" s="5">
-        <v>5</v>
-      </c>
-      <c r="F106" s="1">
-        <v>1</v>
-      </c>
-      <c r="J106" s="1">
+      <c r="D106" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="L106" s="1">
         <v>1</v>
       </c>
       <c r="M106" s="1">
         <v>1</v>
       </c>
-      <c r="N106" s="1">
+      <c r="O106" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3484,13 +3533,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="5">
         <v>5</v>
       </c>
-      <c r="F107" s="1">
+      <c r="E107" s="1">
         <v>1</v>
       </c>
       <c r="L107" s="1">
@@ -3508,30 +3557,210 @@
         <v>1</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1</v>
+      </c>
+      <c r="J108" s="1">
+        <v>1</v>
+      </c>
+      <c r="K108" s="1">
+        <v>1</v>
+      </c>
+      <c r="M108" s="1">
+        <v>1</v>
+      </c>
+      <c r="O108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="5">
+        <v>5</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1</v>
+      </c>
+      <c r="J109" s="1">
+        <v>1</v>
+      </c>
+      <c r="M109" s="1">
+        <v>1</v>
+      </c>
+      <c r="N109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="5">
+        <v>5</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+      <c r="K110" s="1">
+        <v>1</v>
+      </c>
+      <c r="M110" s="1">
+        <v>1</v>
+      </c>
+      <c r="O110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1</v>
+      </c>
+      <c r="J111" s="1">
+        <v>1</v>
+      </c>
+      <c r="K111" s="1">
+        <v>1</v>
+      </c>
+      <c r="M111" s="1">
+        <v>1</v>
+      </c>
+      <c r="O111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="5">
+        <v>5</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1</v>
+      </c>
+      <c r="M112" s="1">
+        <v>1</v>
+      </c>
+      <c r="O112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="5">
+        <v>5</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1</v>
+      </c>
+      <c r="J113" s="1">
+        <v>1</v>
+      </c>
+      <c r="M113" s="1">
+        <v>1</v>
+      </c>
+      <c r="N113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="5">
+        <v>5</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1</v>
+      </c>
+      <c r="L114" s="1">
+        <v>1</v>
+      </c>
+      <c r="M114" s="1">
+        <v>1</v>
+      </c>
+      <c r="O114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="5">
-        <v>5</v>
-      </c>
-      <c r="H108" s="1">
-        <v>1</v>
-      </c>
-      <c r="K108" s="1">
-        <v>1</v>
-      </c>
-      <c r="L108" s="1">
-        <v>1</v>
-      </c>
-      <c r="M108" s="1">
-        <v>1</v>
-      </c>
-      <c r="O108" s="1">
-        <v>1</v>
-      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="5">
+        <v>5</v>
+      </c>
+      <c r="H115" s="1">
+        <v>1</v>
+      </c>
+      <c r="K115" s="1">
+        <v>1</v>
+      </c>
+      <c r="L115" s="1">
+        <v>1</v>
+      </c>
+      <c r="M115" s="1">
+        <v>1</v>
+      </c>
+      <c r="O115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B118" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O108" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O115" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\work\tc\lagrange\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D624BE21-126D-4E84-AA8E-A732F84A0EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC047E33-67BE-4F61-AA23-C0339F18F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3394" yWindow="2606" windowWidth="21977" windowHeight="15908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11949" yWindow="1894" windowWidth="20897" windowHeight="14246" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保底" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="170">
   <si>
     <t>SC002</t>
   </si>
@@ -690,10 +690,6 @@
   </si>
   <si>
     <t>支援型(D)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1063,10 +1059,10 @@
   <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D95" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="O103" sqref="O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
@@ -1263,7 +1259,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="5" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -1308,7 +1304,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1329,7 +1325,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="5" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -3140,7 +3136,7 @@
         <v>30</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>159</v>
@@ -3279,6 +3275,9 @@
         <v>1</v>
       </c>
       <c r="M96" s="1">
+        <v>1</v>
+      </c>
+      <c r="N96" s="1">
         <v>1</v>
       </c>
     </row>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\work\tc\lagrange\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC047E33-67BE-4F61-AA23-C0339F18F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D01A9C-34D0-473A-87A3-0ED22044D86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11949" yWindow="1894" windowWidth="20897" windowHeight="14246" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1997" yWindow="3146" windowWidth="25963" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保底" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">保底!$A$1:$O$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">保底!$A$1:$O$117</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="171">
   <si>
     <t>SC002</t>
   </si>
@@ -698,6 +698,10 @@
   </si>
   <si>
     <t>高速型(C)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨海级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1056,13 +1060,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O118"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D95" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O103" sqref="O103"/>
+      <selection pane="bottomRight" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
@@ -3048,25 +3053,21 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D88" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H88" s="1">
+      <c r="E88" s="1">
         <v>1</v>
       </c>
       <c r="J88" s="1">
-        <v>1</v>
-      </c>
-      <c r="L88" s="1">
-        <v>1</v>
-      </c>
-      <c r="M88" s="1">
         <v>1</v>
       </c>
       <c r="O88" s="1">
@@ -3075,50 +3076,45 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D89" s="5">
-        <v>5</v>
-      </c>
-      <c r="H89" s="1">
+        <v>75</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89" s="1">
         <v>1</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
       </c>
-      <c r="K89" s="1">
-        <v>1</v>
-      </c>
-      <c r="L89" s="1">
-        <v>1</v>
-      </c>
-      <c r="M89" s="1">
-        <v>1</v>
-      </c>
-      <c r="N89" s="1">
+      <c r="O89" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D90" s="5">
-        <v>5</v>
+        <v>134</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="H90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1">
         <v>1</v>
       </c>
       <c r="M90" s="1">
@@ -3136,12 +3132,21 @@
         <v>30</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>159</v>
+        <v>132</v>
+      </c>
+      <c r="D91" s="5">
+        <v>5</v>
       </c>
       <c r="H91" s="1">
+        <v>1</v>
+      </c>
+      <c r="J91" s="1">
+        <v>1</v>
+      </c>
+      <c r="K91" s="1">
+        <v>1</v>
+      </c>
+      <c r="L91" s="1">
         <v>1</v>
       </c>
       <c r="M91" s="1">
@@ -3153,28 +3158,24 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D92" s="5">
         <v>5</v>
       </c>
-      <c r="G92" s="1">
-        <v>1</v>
-      </c>
-      <c r="J92" s="1">
-        <v>1</v>
-      </c>
-      <c r="K92" s="1">
+      <c r="H92" s="1">
         <v>1</v>
       </c>
       <c r="M92" s="1">
         <v>1</v>
       </c>
-      <c r="N92" s="1">
+      <c r="O92" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3183,24 +3184,21 @@
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G93" s="1">
-        <v>1</v>
-      </c>
-      <c r="J93" s="1">
+        <v>159</v>
+      </c>
+      <c r="H93" s="1">
         <v>1</v>
       </c>
       <c r="M93" s="1">
         <v>1</v>
       </c>
-      <c r="O93" s="1">
+      <c r="N93" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3209,13 +3207,11 @@
         <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>155</v>
+        <v>9</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="5">
+        <v>5</v>
       </c>
       <c r="G94" s="1">
         <v>1</v>
@@ -3223,10 +3219,13 @@
       <c r="J94" s="1">
         <v>1</v>
       </c>
+      <c r="K94" s="1">
+        <v>1</v>
+      </c>
       <c r="M94" s="1">
         <v>1</v>
       </c>
-      <c r="O94" s="1">
+      <c r="N94" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3235,11 +3234,13 @@
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="D95" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G95" s="1">
         <v>1</v>
@@ -3250,7 +3251,7 @@
       <c r="M95" s="1">
         <v>1</v>
       </c>
-      <c r="N95" s="1">
+      <c r="O95" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3259,25 +3260,24 @@
         <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="5">
-        <v>5</v>
-      </c>
-      <c r="F96" s="1">
-        <v>1</v>
-      </c>
-      <c r="K96" s="1">
-        <v>1</v>
-      </c>
-      <c r="L96" s="1">
+        <v>136</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="J96" s="1">
         <v>1</v>
       </c>
       <c r="M96" s="1">
         <v>1</v>
       </c>
-      <c r="N96" s="1">
+      <c r="O96" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3286,22 +3286,22 @@
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="5">
-        <v>5</v>
-      </c>
-      <c r="H97" s="1">
-        <v>1</v>
-      </c>
-      <c r="L97" s="1">
+      <c r="D97" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="J97" s="1">
         <v>1</v>
       </c>
       <c r="M97" s="1">
         <v>1</v>
       </c>
-      <c r="O97" s="1">
+      <c r="N97" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="5">
@@ -3319,10 +3319,16 @@
       <c r="F98" s="1">
         <v>1</v>
       </c>
+      <c r="K98" s="1">
+        <v>1</v>
+      </c>
+      <c r="L98" s="1">
+        <v>1</v>
+      </c>
       <c r="M98" s="1">
         <v>1</v>
       </c>
-      <c r="O98" s="1">
+      <c r="N98" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3331,40 +3337,37 @@
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E99" s="1">
-        <v>1</v>
-      </c>
-      <c r="J99" s="1">
-        <v>1</v>
-      </c>
-      <c r="K99" s="1">
+      <c r="D99" s="5">
+        <v>5</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1</v>
+      </c>
+      <c r="L99" s="1">
         <v>1</v>
       </c>
       <c r="M99" s="1">
         <v>1</v>
       </c>
-      <c r="N99" s="1">
+      <c r="O99" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G100" s="1">
+      <c r="D100" s="5">
+        <v>5</v>
+      </c>
+      <c r="F100" s="1">
         <v>1</v>
       </c>
       <c r="M100" s="1">
@@ -3376,24 +3379,28 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C101" s="2"/>
       <c r="D101" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H101" s="1">
+        <v>155</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="J101" s="1">
+        <v>1</v>
+      </c>
+      <c r="K101" s="1">
         <v>1</v>
       </c>
       <c r="M101" s="1">
         <v>1</v>
       </c>
-      <c r="O101" s="1">
+      <c r="N101" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3402,21 +3409,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>165</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C102" s="2"/>
       <c r="D102" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H102" s="1">
-        <v>1</v>
-      </c>
-      <c r="K102" s="1">
-        <v>1</v>
-      </c>
-      <c r="L102" s="1">
+        <v>155</v>
+      </c>
+      <c r="G102" s="1">
         <v>1</v>
       </c>
       <c r="M102" s="1">
@@ -3434,21 +3433,18 @@
         <v>163</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H103" s="1">
         <v>1</v>
       </c>
-      <c r="J103" s="1">
-        <v>1</v>
-      </c>
       <c r="M103" s="1">
         <v>1</v>
       </c>
-      <c r="N103" s="1">
+      <c r="O103" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3457,13 +3453,18 @@
         <v>1</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="5">
-        <v>5</v>
-      </c>
-      <c r="E104" s="1">
+        <v>163</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1</v>
+      </c>
+      <c r="K104" s="1">
         <v>1</v>
       </c>
       <c r="L104" s="1">
@@ -3472,28 +3473,27 @@
       <c r="M104" s="1">
         <v>1</v>
       </c>
-      <c r="N104" s="1">
+      <c r="O104" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="5">
-        <v>5</v>
-      </c>
-      <c r="E105" s="1">
+        <v>163</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H105" s="1">
         <v>1</v>
       </c>
       <c r="J105" s="1">
-        <v>1</v>
-      </c>
-      <c r="K105" s="1">
         <v>1</v>
       </c>
       <c r="M105" s="1">
@@ -3505,14 +3505,14 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C106" s="2"/>
-      <c r="D106" s="5" t="s">
-        <v>158</v>
+      <c r="D106" s="5">
+        <v>5</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -3523,16 +3523,16 @@
       <c r="M106" s="1">
         <v>1</v>
       </c>
-      <c r="O106" s="1">
+      <c r="N106" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="5">
@@ -3541,34 +3541,34 @@
       <c r="E107" s="1">
         <v>1</v>
       </c>
-      <c r="L107" s="1">
+      <c r="J107" s="1">
+        <v>1</v>
+      </c>
+      <c r="K107" s="1">
         <v>1</v>
       </c>
       <c r="M107" s="1">
         <v>1</v>
       </c>
-      <c r="O107" s="1">
+      <c r="N107" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G108" s="1">
-        <v>1</v>
-      </c>
-      <c r="J108" s="1">
-        <v>1</v>
-      </c>
-      <c r="K108" s="1">
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="L108" s="1">
         <v>1</v>
       </c>
       <c r="M108" s="1">
@@ -3583,22 +3583,22 @@
         <v>1</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="5">
         <v>5</v>
       </c>
-      <c r="G109" s="1">
-        <v>1</v>
-      </c>
-      <c r="J109" s="1">
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="L109" s="1">
         <v>1</v>
       </c>
       <c r="M109" s="1">
         <v>1</v>
       </c>
-      <c r="N109" s="1">
+      <c r="O109" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3607,13 +3607,16 @@
         <v>1</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C110" s="2"/>
-      <c r="D110" s="5">
-        <v>5</v>
+      <c r="D110" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="G110" s="1">
+        <v>1</v>
+      </c>
+      <c r="J110" s="1">
         <v>1</v>
       </c>
       <c r="K110" s="1">
@@ -3631,25 +3634,22 @@
         <v>1</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C111" s="2"/>
-      <c r="D111" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="I111" s="1">
+      <c r="D111" s="5">
+        <v>5</v>
+      </c>
+      <c r="G111" s="1">
         <v>1</v>
       </c>
       <c r="J111" s="1">
         <v>1</v>
       </c>
-      <c r="K111" s="1">
-        <v>1</v>
-      </c>
       <c r="M111" s="1">
         <v>1</v>
       </c>
-      <c r="O111" s="1">
+      <c r="N111" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3658,13 +3658,16 @@
         <v>1</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="5">
         <v>5</v>
       </c>
-      <c r="F112" s="1">
+      <c r="G112" s="1">
+        <v>1</v>
+      </c>
+      <c r="K112" s="1">
         <v>1</v>
       </c>
       <c r="M112" s="1">
@@ -3679,22 +3682,25 @@
         <v>1</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="5">
-        <v>5</v>
-      </c>
-      <c r="F113" s="1">
+      <c r="D113" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I113" s="1">
         <v>1</v>
       </c>
       <c r="J113" s="1">
         <v>1</v>
       </c>
+      <c r="K113" s="1">
+        <v>1</v>
+      </c>
       <c r="M113" s="1">
         <v>1</v>
       </c>
-      <c r="N113" s="1">
+      <c r="O113" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3703,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="5">
@@ -3712,9 +3718,6 @@
       <c r="F114" s="1">
         <v>1</v>
       </c>
-      <c r="L114" s="1">
-        <v>1</v>
-      </c>
       <c r="M114" s="1">
         <v>1</v>
       </c>
@@ -3727,39 +3730,87 @@
         <v>1</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="5">
         <v>5</v>
       </c>
-      <c r="H115" s="1">
-        <v>1</v>
-      </c>
-      <c r="K115" s="1">
-        <v>1</v>
-      </c>
-      <c r="L115" s="1">
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1">
         <v>1</v>
       </c>
       <c r="M115" s="1">
         <v>1</v>
       </c>
-      <c r="O115" s="1">
+      <c r="N115" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B116" s="2"/>
+      <c r="A116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="5">
+        <v>5</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1</v>
+      </c>
+      <c r="L116" s="1">
+        <v>1</v>
+      </c>
+      <c r="M116" s="1">
+        <v>1</v>
+      </c>
+      <c r="O116" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B117" s="2"/>
+      <c r="A117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="5">
+        <v>5</v>
+      </c>
+      <c r="H117" s="1">
+        <v>1</v>
+      </c>
+      <c r="K117" s="1">
+        <v>1</v>
+      </c>
+      <c r="L117" s="1">
+        <v>1</v>
+      </c>
+      <c r="M117" s="1">
+        <v>1</v>
+      </c>
+      <c r="O117" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B118" s="2"/>
     </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B120" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O115" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O117" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\work\tc\lagrange\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D01A9C-34D0-473A-87A3-0ED22044D86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F99627-BD1F-460D-8118-2039B077CB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1997" yWindow="3146" windowWidth="25963" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="29306" windowHeight="15909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保底" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">保底!$A$1:$O$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">保底!$A$1:$O$120</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="168">
   <si>
     <t>SC002</t>
   </si>
@@ -622,10 +633,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>概率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>支援舰</t>
   </si>
   <si>
@@ -641,34 +648,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>S-列维9号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>雷火之星</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>埃迪卡拉级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -693,15 +680,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>高速型(C)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>雨海级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR050</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型(B)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼雷型(C)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -709,6 +708,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -761,7 +764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,6 +782,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,13 +1070,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D90" sqref="D90"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
@@ -1076,10 +1085,14 @@
     <col min="2" max="2" width="16.3828125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.3828125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.3828125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="9" style="7"/>
+    <col min="17" max="17" width="9.3046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="6"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1090,7 +1103,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>33</v>
@@ -1105,7 +1118,7 @@
         <v>34</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>35</v>
@@ -1126,7 +1139,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1149,8 +1162,11 @@
       <c r="O2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="L3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,17 +1204,18 @@
       <c r="L4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="5" t="s">
-        <v>161</v>
+      <c r="D5" s="2">
+        <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -1209,8 +1229,11 @@
       <c r="O5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1234,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1254,8 +1277,11 @@
       <c r="O7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1263,8 +1289,8 @@
         <v>43</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="5" t="s">
-        <v>155</v>
+      <c r="D8" s="2">
+        <v>2.5</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -1278,8 +1304,10 @@
       <c r="O8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1299,38 +1327,42 @@
       <c r="O9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="5" t="s">
-        <v>155</v>
+      <c r="D11" s="2">
+        <v>2.5</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -1341,8 +1373,10 @@
       <c r="L11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1364,8 +1398,11 @@
       <c r="O12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1387,8 +1424,11 @@
       <c r="O13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1407,8 +1447,11 @@
       <c r="L14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1430,8 +1473,11 @@
       <c r="O15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1450,8 +1496,11 @@
       <c r="L16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1470,8 +1519,11 @@
       <c r="L17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1490,8 +1542,11 @@
       <c r="L18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1517,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1543,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1566,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1585,8 +1640,9 @@
       <c r="N22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1608,8 +1664,9 @@
       <c r="N23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1631,8 +1688,9 @@
       <c r="N24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1654,8 +1712,11 @@
       <c r="N25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25" s="1"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1677,8 +1738,11 @@
       <c r="N26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26" s="1"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1697,8 +1761,11 @@
       <c r="N27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1723,8 +1790,10 @@
       <c r="O28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28" s="1"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -1749,8 +1818,10 @@
       <c r="O29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29" s="1"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -1775,8 +1846,10 @@
       <c r="O30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -1801,8 +1874,10 @@
       <c r="N31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -1824,8 +1899,11 @@
       <c r="O32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -1841,8 +1919,11 @@
       <c r="H33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -1850,10 +1931,10 @@
         <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="D34" s="5">
+        <v>5</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
@@ -1861,8 +1942,11 @@
       <c r="L34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
@@ -1887,8 +1971,11 @@
       <c r="N35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -1910,8 +1997,11 @@
       <c r="O36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -1930,8 +2020,11 @@
       <c r="O37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -1947,8 +2040,11 @@
       <c r="H38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -1974,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -2000,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -2022,8 +2118,11 @@
       <c r="O41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -2045,8 +2144,11 @@
       <c r="N42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -2065,8 +2167,11 @@
       <c r="N43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -2088,8 +2193,11 @@
       <c r="N44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
@@ -2114,8 +2222,10 @@
       <c r="O45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
@@ -2137,8 +2247,11 @@
       <c r="N46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
@@ -2160,8 +2273,11 @@
       <c r="N47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -2186,8 +2302,10 @@
       <c r="N48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48" s="1"/>
+      <c r="Q48" s="7"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
@@ -2206,8 +2324,9 @@
       <c r="L49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>14</v>
       </c>
@@ -2226,8 +2345,9 @@
       <c r="L50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
@@ -2253,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
@@ -2279,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
@@ -2305,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
@@ -2324,8 +2444,11 @@
       <c r="L54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
@@ -2344,8 +2467,11 @@
       <c r="L55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -2364,8 +2490,11 @@
       <c r="L56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
@@ -2387,8 +2516,11 @@
       <c r="O57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
@@ -2413,8 +2545,10 @@
       <c r="O58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58" s="1"/>
+      <c r="Q58" s="4"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -2436,8 +2570,10 @@
       <c r="O59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59" s="1"/>
+      <c r="Q59" s="7"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
@@ -2459,8 +2595,11 @@
       <c r="O60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -2482,8 +2621,11 @@
       <c r="N61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -2502,8 +2644,11 @@
       <c r="L62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -2525,8 +2670,11 @@
       <c r="N63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63" s="1"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -2548,8 +2696,11 @@
       <c r="N64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64" s="1"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
@@ -2574,8 +2725,10 @@
       <c r="N65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65" s="1"/>
+      <c r="Q65" s="4"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -2600,8 +2753,10 @@
       <c r="N66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66" s="1"/>
+      <c r="Q66" s="4"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
@@ -2623,8 +2778,10 @@
       <c r="N67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67" s="1"/>
+      <c r="Q67" s="7"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
@@ -2646,8 +2803,10 @@
       <c r="N68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P68" s="1"/>
+      <c r="Q68" s="7"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>12</v>
       </c>
@@ -2657,8 +2816,8 @@
       <c r="C69" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>157</v>
+      <c r="D69" s="5">
+        <v>5</v>
       </c>
       <c r="G69" s="1">
         <v>1</v>
@@ -2672,8 +2831,10 @@
       <c r="O69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P69" s="1"/>
+      <c r="Q69" s="7"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>11</v>
       </c>
@@ -2683,8 +2844,8 @@
       <c r="C70" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>157</v>
+      <c r="D70" s="5">
+        <v>5</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
@@ -2695,8 +2856,11 @@
       <c r="O70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
@@ -2706,8 +2870,8 @@
       <c r="C71" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>155</v>
+      <c r="D71" s="2">
+        <v>2.5</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
@@ -2718,8 +2882,10 @@
       <c r="O71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P71" s="1"/>
+      <c r="Q71" s="7"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -2738,8 +2904,9 @@
       <c r="J72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R72" s="4"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
@@ -2758,8 +2925,9 @@
       <c r="L73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R73" s="1"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
@@ -2778,8 +2946,9 @@
       <c r="L74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R74" s="1"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -2789,8 +2958,8 @@
       <c r="C75" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>155</v>
+      <c r="D75" s="2">
+        <v>2.5</v>
       </c>
       <c r="F75" s="1">
         <v>1</v>
@@ -2801,8 +2970,9 @@
       <c r="O75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R75" s="4"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
@@ -2812,8 +2982,8 @@
       <c r="C76" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>155</v>
+      <c r="D76" s="2">
+        <v>2.5</v>
       </c>
       <c r="F76" s="1">
         <v>1</v>
@@ -2824,8 +2994,9 @@
       <c r="O76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R76" s="4"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -2835,8 +3006,8 @@
       <c r="C77" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>155</v>
+      <c r="D77" s="2">
+        <v>2.5</v>
       </c>
       <c r="F77" s="1">
         <v>1</v>
@@ -2848,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
@@ -2858,8 +3029,8 @@
       <c r="C78" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>155</v>
+      <c r="D78" s="2">
+        <v>2.5</v>
       </c>
       <c r="F78" s="1">
         <v>1</v>
@@ -2867,8 +3038,9 @@
       <c r="J78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R78" s="4"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -2878,14 +3050,15 @@
       <c r="C79" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>155</v>
+      <c r="D79" s="2">
+        <v>2.5</v>
       </c>
       <c r="F79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R79" s="1"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -2904,8 +3077,11 @@
       <c r="J80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P80" s="1"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -2921,8 +3097,11 @@
       <c r="E81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -2941,8 +3120,11 @@
       <c r="N82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
@@ -2961,8 +3143,11 @@
       <c r="O83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>11</v>
       </c>
@@ -2981,8 +3166,11 @@
       <c r="N84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
@@ -3004,8 +3192,11 @@
       <c r="O85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
@@ -3027,8 +3218,10 @@
       <c r="O86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P86" s="1"/>
+      <c r="Q86" s="7"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
@@ -3050,19 +3243,22 @@
       <c r="O87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>155</v>
+      <c r="D88" s="2">
+        <v>2.5</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -3073,19 +3269,22 @@
       <c r="O88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P88" s="1"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>155</v>
+      <c r="D89" s="2">
+        <v>2.5</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -3096,8 +3295,11 @@
       <c r="O89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P89" s="1"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -3105,8 +3307,8 @@
         <v>134</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="5" t="s">
-        <v>155</v>
+      <c r="D90" s="2">
+        <v>2.5</v>
       </c>
       <c r="H90" s="1">
         <v>1</v>
@@ -3123,8 +3325,11 @@
       <c r="O90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -3155,8 +3360,10 @@
       <c r="N91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>10</v>
       </c>
@@ -3178,8 +3385,11 @@
       <c r="O92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -3187,10 +3397,10 @@
         <v>30</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="D93" s="2">
+        <v>5</v>
       </c>
       <c r="H93" s="1">
         <v>1</v>
@@ -3201,8 +3411,11 @@
       <c r="N93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -3228,8 +3441,10 @@
       <c r="N94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P94" s="1"/>
+      <c r="Q94" s="4"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -3239,8 +3454,8 @@
       <c r="C95" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>157</v>
+      <c r="D95" s="2">
+        <v>5</v>
       </c>
       <c r="G95" s="1">
         <v>1</v>
@@ -3254,8 +3469,11 @@
       <c r="O95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P95" s="1"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -3265,8 +3483,8 @@
       <c r="C96" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>155</v>
+      <c r="D96" s="2">
+        <v>2.5</v>
       </c>
       <c r="G96" s="1">
         <v>1</v>
@@ -3280,8 +3498,11 @@
       <c r="O96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P96" s="1"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -3289,8 +3510,8 @@
         <v>138</v>
       </c>
       <c r="C97" s="2"/>
-      <c r="D97" s="5" t="s">
-        <v>155</v>
+      <c r="D97" s="2">
+        <v>2.5</v>
       </c>
       <c r="G97" s="1">
         <v>1</v>
@@ -3304,8 +3525,11 @@
       <c r="N97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P97" s="1"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
@@ -3332,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -3355,8 +3579,11 @@
       <c r="O99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>8</v>
       </c>
@@ -3376,17 +3603,18 @@
       <c r="O100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R100" s="1"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="5" t="s">
-        <v>155</v>
+      <c r="D101" s="2">
+        <v>2.5</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -3403,8 +3631,10 @@
       <c r="N101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P101" s="1"/>
+      <c r="Q101" s="4"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -3412,8 +3642,8 @@
         <v>6</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="5" t="s">
-        <v>155</v>
+      <c r="D102" s="2">
+        <v>2.5</v>
       </c>
       <c r="G102" s="1">
         <v>1</v>
@@ -3424,71 +3654,79 @@
       <c r="O102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D103" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D103" s="2">
+        <v>5</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1</v>
+      </c>
+      <c r="M103" s="1">
+        <v>1</v>
+      </c>
+      <c r="O103" s="1">
+        <v>1</v>
+      </c>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H103" s="1">
-        <v>1</v>
-      </c>
-      <c r="M103" s="1">
-        <v>1</v>
-      </c>
-      <c r="O103" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D104" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D104" s="2">
+        <v>5</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1</v>
+      </c>
+      <c r="K104" s="1">
+        <v>1</v>
+      </c>
+      <c r="L104" s="1">
+        <v>1</v>
+      </c>
+      <c r="M104" s="1">
+        <v>1</v>
+      </c>
+      <c r="O104" s="1">
+        <v>1</v>
+      </c>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="7"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H104" s="1">
-        <v>1</v>
-      </c>
-      <c r="K104" s="1">
-        <v>1</v>
-      </c>
-      <c r="L104" s="1">
-        <v>1</v>
-      </c>
-      <c r="M104" s="1">
-        <v>1</v>
-      </c>
-      <c r="O104" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
+      </c>
+      <c r="D105" s="2">
+        <v>2.5</v>
       </c>
       <c r="H105" s="1">
         <v>1</v>
@@ -3502,8 +3740,11 @@
       <c r="N105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
@@ -3526,8 +3767,11 @@
       <c r="N106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>4</v>
       </c>
@@ -3553,8 +3797,10 @@
       <c r="N107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P107" s="1"/>
+      <c r="Q107" s="4"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>4</v>
       </c>
@@ -3562,8 +3808,8 @@
         <v>142</v>
       </c>
       <c r="C108" s="2"/>
-      <c r="D108" s="5" t="s">
-        <v>158</v>
+      <c r="D108" s="2">
+        <v>2.5</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -3577,8 +3823,11 @@
       <c r="O108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>1</v>
       </c>
@@ -3601,8 +3850,11 @@
       <c r="O109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
@@ -3610,8 +3862,8 @@
         <v>144</v>
       </c>
       <c r="C110" s="2"/>
-      <c r="D110" s="5" t="s">
-        <v>158</v>
+      <c r="D110" s="2">
+        <v>2.5</v>
       </c>
       <c r="G110" s="1">
         <v>1</v>
@@ -3628,8 +3880,10 @@
       <c r="O110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P110" s="1"/>
+      <c r="Q110" s="4"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -3652,8 +3906,11 @@
       <c r="N111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P111" s="1"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
@@ -3676,17 +3933,19 @@
       <c r="O112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P112" s="1"/>
+      <c r="Q112" s="7"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="5" t="s">
-        <v>158</v>
+      <c r="D113" s="2">
+        <v>2.5</v>
       </c>
       <c r="I113" s="1">
         <v>1</v>
@@ -3703,8 +3962,10 @@
       <c r="O113" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P113" s="1"/>
+      <c r="Q113" s="4"/>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
@@ -3724,8 +3985,9 @@
       <c r="O114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R114" s="1"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -3748,8 +4010,9 @@
       <c r="N115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R115" s="4"/>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
@@ -3772,8 +4035,9 @@
       <c r="O116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="R116" s="1"/>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
@@ -3799,18 +4063,107 @@
       <c r="O117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B119" s="2"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B120" s="2"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="7"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D118" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="H118" s="1">
+        <v>1</v>
+      </c>
+      <c r="J118" s="1">
+        <v>1</v>
+      </c>
+      <c r="M118" s="1">
+        <v>1</v>
+      </c>
+      <c r="N118" s="1">
+        <v>1</v>
+      </c>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D119" s="2">
+        <v>5</v>
+      </c>
+      <c r="H119" s="1">
+        <v>1</v>
+      </c>
+      <c r="K119" s="1">
+        <v>1</v>
+      </c>
+      <c r="M119" s="1">
+        <v>1</v>
+      </c>
+      <c r="N119" s="1">
+        <v>1</v>
+      </c>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="7"/>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D120" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="H120" s="1">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1">
+        <v>1</v>
+      </c>
+      <c r="M120" s="1">
+        <v>1</v>
+      </c>
+      <c r="N120" s="1">
+        <v>1</v>
+      </c>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C121" s="2"/>
+      <c r="D121" s="5"/>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C122" s="2"/>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C128" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O117" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O120" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\work\tc\lagrange\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F99627-BD1F-460D-8118-2039B077CB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285BC922-5B24-40BB-B976-C4F594E02AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="29306" windowHeight="15909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1963" yWindow="1380" windowWidth="28054" windowHeight="16063" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保底" sheetId="1" r:id="rId1"/>
@@ -710,7 +710,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -786,7 +786,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1070,13 +1070,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R128"/>
+  <dimension ref="A1:S128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D48" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
@@ -1086,13 +1086,13 @@
     <col min="3" max="3" width="13.3828125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.3828125" style="4" customWidth="1"/>
     <col min="5" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="9" style="7"/>
+    <col min="16" max="16" width="9" style="6"/>
     <col min="17" max="17" width="9.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="6"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="18" max="19" width="9" style="6"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1162,11 +1162,9 @@
       <c r="O2" s="1">
         <v>1</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,11 +1181,9 @@
       <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1204,9 +1200,9 @@
       <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1229,11 +1225,9 @@
       <c r="O5" s="1">
         <v>1</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1256,8 +1250,9 @@
       <c r="O6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1277,11 +1272,9 @@
       <c r="O7" s="1">
         <v>1</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1304,10 +1297,9 @@
       <c r="O8" s="1">
         <v>1</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1327,11 +1319,9 @@
       <c r="O9" s="1">
         <v>1</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>150</v>
       </c>
@@ -1351,9 +1341,9 @@
       <c r="L10" s="1">
         <v>1</v>
       </c>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>150</v>
       </c>
@@ -1373,10 +1363,9 @@
       <c r="L11" s="1">
         <v>1</v>
       </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1398,11 +1387,9 @@
       <c r="O12" s="1">
         <v>1</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1424,11 +1411,9 @@
       <c r="O13" s="1">
         <v>1</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1447,11 +1432,9 @@
       <c r="L14" s="1">
         <v>1</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1473,11 +1456,9 @@
       <c r="O15" s="1">
         <v>1</v>
       </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1496,11 +1477,9 @@
       <c r="L16" s="1">
         <v>1</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1519,11 +1498,9 @@
       <c r="L17" s="1">
         <v>1</v>
       </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1542,11 +1519,9 @@
       <c r="L18" s="1">
         <v>1</v>
       </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1571,8 +1546,9 @@
       <c r="O19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1597,8 +1573,9 @@
       <c r="O20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1620,8 +1597,9 @@
       <c r="O21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1640,9 +1618,10 @@
       <c r="N22" s="1">
         <v>1</v>
       </c>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P22" s="7"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1664,9 +1643,10 @@
       <c r="N23" s="1">
         <v>1</v>
       </c>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P23" s="7"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1688,9 +1668,10 @@
       <c r="N24" s="1">
         <v>1</v>
       </c>
-      <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P24" s="7"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1712,11 +1693,10 @@
       <c r="N25" s="1">
         <v>1</v>
       </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P25" s="7"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1738,11 +1718,10 @@
       <c r="N26" s="1">
         <v>1</v>
       </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P26" s="7"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1761,11 +1740,10 @@
       <c r="N27" s="1">
         <v>1</v>
       </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P27" s="7"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1790,10 +1768,9 @@
       <c r="O28" s="1">
         <v>1</v>
       </c>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -1818,10 +1795,9 @@
       <c r="O29" s="1">
         <v>1</v>
       </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -1846,10 +1822,9 @@
       <c r="O30" s="1">
         <v>1</v>
       </c>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -1874,10 +1849,9 @@
       <c r="N31" s="1">
         <v>1</v>
       </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -1899,11 +1873,8 @@
       <c r="O32" s="1">
         <v>1</v>
       </c>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -1919,11 +1890,9 @@
       <c r="H33" s="1">
         <v>1</v>
       </c>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -1942,11 +1911,9 @@
       <c r="L34" s="1">
         <v>1</v>
       </c>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
@@ -1971,11 +1938,9 @@
       <c r="N35" s="1">
         <v>1</v>
       </c>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -1997,11 +1962,8 @@
       <c r="O36" s="1">
         <v>1</v>
       </c>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -2020,11 +1982,9 @@
       <c r="O37" s="1">
         <v>1</v>
       </c>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -2040,11 +2000,9 @@
       <c r="H38" s="1">
         <v>1</v>
       </c>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -2069,8 +2027,9 @@
       <c r="O39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -2095,8 +2054,9 @@
       <c r="O40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -2118,11 +2078,9 @@
       <c r="O41" s="1">
         <v>1</v>
       </c>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -2144,11 +2102,10 @@
       <c r="N42" s="1">
         <v>1</v>
       </c>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P42" s="7"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -2167,11 +2124,10 @@
       <c r="N43" s="1">
         <v>1</v>
       </c>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P43" s="7"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -2193,11 +2149,10 @@
       <c r="N44" s="1">
         <v>1</v>
       </c>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P44" s="7"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
@@ -2222,10 +2177,9 @@
       <c r="O45" s="1">
         <v>1</v>
       </c>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
@@ -2247,11 +2201,10 @@
       <c r="N46" s="1">
         <v>1</v>
       </c>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P46" s="7"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
@@ -2273,11 +2226,10 @@
       <c r="N47" s="1">
         <v>1</v>
       </c>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P47" s="7"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -2302,10 +2254,10 @@
       <c r="N48" s="1">
         <v>1</v>
       </c>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="7"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P48" s="7"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
@@ -2324,9 +2276,11 @@
       <c r="L49" s="1">
         <v>1</v>
       </c>
-      <c r="R49" s="1"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+    </row>
+    <row r="50" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>14</v>
       </c>
@@ -2345,9 +2299,11 @@
       <c r="L50" s="1">
         <v>1</v>
       </c>
-      <c r="R50" s="1"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+    </row>
+    <row r="51" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
@@ -2372,8 +2328,11 @@
       <c r="O51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+    </row>
+    <row r="52" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
@@ -2398,8 +2357,11 @@
       <c r="O52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+    </row>
+    <row r="53" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
@@ -2424,8 +2386,11 @@
       <c r="O53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+    </row>
+    <row r="54" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
@@ -2444,11 +2409,11 @@
       <c r="L54" s="1">
         <v>1</v>
       </c>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+    </row>
+    <row r="55" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
@@ -2467,11 +2432,11 @@
       <c r="L55" s="1">
         <v>1</v>
       </c>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+    </row>
+    <row r="56" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -2490,11 +2455,11 @@
       <c r="L56" s="1">
         <v>1</v>
       </c>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+    </row>
+    <row r="57" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
@@ -2516,11 +2481,11 @@
       <c r="O57" s="1">
         <v>1</v>
       </c>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+    </row>
+    <row r="58" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
@@ -2545,10 +2510,11 @@
       <c r="O58" s="1">
         <v>1</v>
       </c>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="4"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+    </row>
+    <row r="59" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -2570,10 +2536,11 @@
       <c r="O59" s="1">
         <v>1</v>
       </c>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="7"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+    </row>
+    <row r="60" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
@@ -2595,11 +2562,11 @@
       <c r="O60" s="1">
         <v>1</v>
       </c>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+    </row>
+    <row r="61" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -2621,11 +2588,11 @@
       <c r="N61" s="1">
         <v>1</v>
       </c>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P61" s="7"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+    </row>
+    <row r="62" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -2644,11 +2611,11 @@
       <c r="L62" s="1">
         <v>1</v>
       </c>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+    </row>
+    <row r="63" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -2670,11 +2637,11 @@
       <c r="N63" s="1">
         <v>1</v>
       </c>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P63" s="7"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+    </row>
+    <row r="64" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -2696,11 +2663,11 @@
       <c r="N64" s="1">
         <v>1</v>
       </c>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P64" s="7"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+    </row>
+    <row r="65" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
@@ -2725,10 +2692,11 @@
       <c r="N65" s="1">
         <v>1</v>
       </c>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="4"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P65" s="7"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+    </row>
+    <row r="66" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -2753,10 +2721,11 @@
       <c r="N66" s="1">
         <v>1</v>
       </c>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="4"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P66" s="7"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+    </row>
+    <row r="67" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
@@ -2778,10 +2747,11 @@
       <c r="N67" s="1">
         <v>1</v>
       </c>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="7"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P67" s="7"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+    </row>
+    <row r="68" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
@@ -2803,10 +2773,11 @@
       <c r="N68" s="1">
         <v>1</v>
       </c>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="7"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P68" s="7"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+    </row>
+    <row r="69" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>12</v>
       </c>
@@ -2831,10 +2802,11 @@
       <c r="O69" s="1">
         <v>1</v>
       </c>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="7"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+    </row>
+    <row r="70" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>11</v>
       </c>
@@ -2856,11 +2828,11 @@
       <c r="O70" s="1">
         <v>1</v>
       </c>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+    </row>
+    <row r="71" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
@@ -2882,10 +2854,11 @@
       <c r="O71" s="1">
         <v>1</v>
       </c>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="7"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+    </row>
+    <row r="72" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -2904,9 +2877,11 @@
       <c r="J72" s="1">
         <v>1</v>
       </c>
-      <c r="R72" s="4"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+    </row>
+    <row r="73" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
@@ -2925,9 +2900,11 @@
       <c r="L73" s="1">
         <v>1</v>
       </c>
-      <c r="R73" s="1"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+    </row>
+    <row r="74" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
@@ -2946,9 +2923,11 @@
       <c r="L74" s="1">
         <v>1</v>
       </c>
-      <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+    </row>
+    <row r="75" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -2970,9 +2949,11 @@
       <c r="O75" s="1">
         <v>1</v>
       </c>
-      <c r="R75" s="4"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+    </row>
+    <row r="76" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
@@ -2994,9 +2975,11 @@
       <c r="O76" s="1">
         <v>1</v>
       </c>
-      <c r="R76" s="4"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+    </row>
+    <row r="77" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -3018,8 +3001,11 @@
       <c r="N77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P77" s="7"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+    </row>
+    <row r="78" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
@@ -3038,9 +3024,11 @@
       <c r="J78" s="1">
         <v>1</v>
       </c>
-      <c r="R78" s="4"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+    </row>
+    <row r="79" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>11</v>
       </c>
@@ -3056,9 +3044,11 @@
       <c r="F79" s="1">
         <v>1</v>
       </c>
-      <c r="R79" s="1"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+    </row>
+    <row r="80" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -3077,11 +3067,11 @@
       <c r="J80" s="1">
         <v>1</v>
       </c>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -3097,11 +3087,9 @@
       <c r="E81" s="1">
         <v>1</v>
       </c>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S81" s="1"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -3120,11 +3108,10 @@
       <c r="N82" s="1">
         <v>1</v>
       </c>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P82" s="7"/>
+      <c r="S82" s="1"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
@@ -3143,11 +3130,9 @@
       <c r="O83" s="1">
         <v>1</v>
       </c>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>11</v>
       </c>
@@ -3166,11 +3151,10 @@
       <c r="N84" s="1">
         <v>1</v>
       </c>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P84" s="7"/>
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
@@ -3192,11 +3176,9 @@
       <c r="O85" s="1">
         <v>1</v>
       </c>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S85" s="1"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
@@ -3218,10 +3200,9 @@
       <c r="O86" s="1">
         <v>1</v>
       </c>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="7"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
@@ -3243,11 +3224,9 @@
       <c r="O87" s="1">
         <v>1</v>
       </c>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
@@ -3269,11 +3248,9 @@
       <c r="O88" s="1">
         <v>1</v>
       </c>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
@@ -3295,11 +3272,9 @@
       <c r="O89" s="1">
         <v>1</v>
       </c>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S89" s="1"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -3325,11 +3300,8 @@
       <c r="O90" s="1">
         <v>1</v>
       </c>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -3360,10 +3332,9 @@
       <c r="N91" s="1">
         <v>1</v>
       </c>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P91" s="7"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>10</v>
       </c>
@@ -3385,11 +3356,9 @@
       <c r="O92" s="1">
         <v>1</v>
       </c>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S92" s="1"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -3411,11 +3380,10 @@
       <c r="N93" s="1">
         <v>1</v>
       </c>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P93" s="7"/>
+      <c r="S93" s="1"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -3441,10 +3409,10 @@
       <c r="N94" s="1">
         <v>1</v>
       </c>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="4"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P94" s="7"/>
+      <c r="S94" s="1"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -3469,11 +3437,9 @@
       <c r="O95" s="1">
         <v>1</v>
       </c>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S95" s="1"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -3498,11 +3464,9 @@
       <c r="O96" s="1">
         <v>1</v>
       </c>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S96" s="1"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -3525,11 +3489,10 @@
       <c r="N97" s="1">
         <v>1</v>
       </c>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P97" s="7"/>
+      <c r="S97" s="1"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
@@ -3555,8 +3518,10 @@
       <c r="N98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P98" s="7"/>
+      <c r="S98" s="1"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -3579,11 +3544,9 @@
       <c r="O99" s="1">
         <v>1</v>
       </c>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S99" s="1"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>8</v>
       </c>
@@ -3603,9 +3566,9 @@
       <c r="O100" s="1">
         <v>1</v>
       </c>
-      <c r="R100" s="1"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S100" s="1"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>8</v>
       </c>
@@ -3631,10 +3594,10 @@
       <c r="N101" s="1">
         <v>1</v>
       </c>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="4"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P101" s="7"/>
+      <c r="S101" s="1"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -3654,11 +3617,9 @@
       <c r="O102" s="1">
         <v>1</v>
       </c>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S102" s="1"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
@@ -3680,11 +3641,9 @@
       <c r="O103" s="1">
         <v>1</v>
       </c>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S103" s="1"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
@@ -3712,10 +3671,9 @@
       <c r="O104" s="1">
         <v>1</v>
       </c>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="7"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S104" s="1"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -3740,11 +3698,9 @@
       <c r="N105" s="1">
         <v>1</v>
       </c>
-      <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P105" s="7"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
@@ -3767,11 +3723,10 @@
       <c r="N106" s="1">
         <v>1</v>
       </c>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P106" s="7"/>
+      <c r="S106" s="1"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>4</v>
       </c>
@@ -3797,10 +3752,10 @@
       <c r="N107" s="1">
         <v>1</v>
       </c>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="4"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P107" s="7"/>
+      <c r="S107" s="1"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>4</v>
       </c>
@@ -3823,11 +3778,9 @@
       <c r="O108" s="1">
         <v>1</v>
       </c>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S108" s="1"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>1</v>
       </c>
@@ -3850,11 +3803,9 @@
       <c r="O109" s="1">
         <v>1</v>
       </c>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S109" s="1"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
@@ -3880,10 +3831,9 @@
       <c r="O110" s="1">
         <v>1</v>
       </c>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="4"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S110" s="1"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -3906,11 +3856,10 @@
       <c r="N111" s="1">
         <v>1</v>
       </c>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="4"/>
-      <c r="R111" s="4"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P111" s="7"/>
+      <c r="S111" s="1"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
@@ -3933,10 +3882,9 @@
       <c r="O112" s="1">
         <v>1</v>
       </c>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="7"/>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S112" s="1"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
@@ -3962,10 +3910,9 @@
       <c r="O113" s="1">
         <v>1</v>
       </c>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="4"/>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S113" s="1"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
@@ -3985,9 +3932,9 @@
       <c r="O114" s="1">
         <v>1</v>
       </c>
-      <c r="R114" s="1"/>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S114" s="1"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -4010,9 +3957,10 @@
       <c r="N115" s="1">
         <v>1</v>
       </c>
-      <c r="R115" s="4"/>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P115" s="7"/>
+      <c r="S115" s="1"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
@@ -4035,9 +3983,9 @@
       <c r="O116" s="1">
         <v>1</v>
       </c>
-      <c r="R116" s="1"/>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S116" s="1"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
@@ -4063,10 +4011,9 @@
       <c r="O117" s="1">
         <v>1</v>
       </c>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="7"/>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S117" s="1"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
@@ -4077,7 +4024,7 @@
         <v>87</v>
       </c>
       <c r="D118" s="2">
-        <v>3.76</v>
+        <v>5</v>
       </c>
       <c r="H118" s="1">
         <v>1</v>
@@ -4091,11 +4038,9 @@
       <c r="N118" s="1">
         <v>1</v>
       </c>
-      <c r="P118" s="4"/>
-      <c r="Q118" s="4"/>
-      <c r="R118" s="4"/>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P118" s="7"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>1</v>
       </c>
@@ -4120,10 +4065,10 @@
       <c r="N119" s="1">
         <v>1</v>
       </c>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="7"/>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P119" s="7"/>
+      <c r="S119" s="1"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>1</v>
       </c>
@@ -4134,7 +4079,7 @@
         <v>166</v>
       </c>
       <c r="D120" s="2">
-        <v>3.76</v>
+        <v>2.5</v>
       </c>
       <c r="H120" s="1">
         <v>1</v>
@@ -4148,18 +4093,16 @@
       <c r="N120" s="1">
         <v>1</v>
       </c>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
-      <c r="R120" s="4"/>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P120" s="7"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C121" s="2"/>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C122" s="2"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C128" s="4"/>
     </row>
   </sheetData>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\work\tc\lagrange\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\work\tc\lagrange-research\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285BC922-5B24-40BB-B976-C4F594E02AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B6DEB3-E09E-4CE7-8B97-7E73E66ED523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1963" yWindow="1380" windowWidth="28054" windowHeight="16063" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1963" yWindow="531" windowWidth="27574" windowHeight="16449" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保底" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">保底!$A$1:$O$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">保底!$A$1:$O$122</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="169">
   <si>
     <t>SC002</t>
   </si>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>安东尼奥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -701,6 +697,14 @@
   </si>
   <si>
     <t>权重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游骑兵级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安东尼奥斯</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -708,11 +712,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="186" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,6 +737,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -759,12 +774,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,11 +804,24 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1070,13 +1101,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S128"/>
+  <dimension ref="A1:S130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D48" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F16" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1:P1048576"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
@@ -1084,70 +1115,71 @@
     <col min="1" max="1" width="10.61328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3828125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.3828125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3828125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.3828125" style="10" customWidth="1"/>
     <col min="5" max="15" width="9" style="1"/>
     <col min="16" max="16" width="9" style="6"/>
-    <col min="17" max="17" width="9.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9" style="6"/>
+    <col min="17" max="17" width="9.3046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="6"/>
+    <col min="19" max="19" width="9" style="9"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>167</v>
+      <c r="D1" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="5">
+      <c r="D2" s="11">
         <v>1</v>
       </c>
       <c r="G2" s="1">
@@ -1162,14 +1194,14 @@
       <c r="O2" s="1">
         <v>1</v>
       </c>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5">
@@ -1181,9 +1213,9 @@
       <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1200,14 +1232,14 @@
       <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
@@ -1225,14 +1257,14 @@
       <c r="O5" s="1">
         <v>1</v>
       </c>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="5">
@@ -1250,17 +1282,17 @@
       <c r="O6" s="1">
         <v>1</v>
       </c>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="5">
+      <c r="D7" s="11">
         <v>1</v>
       </c>
       <c r="G7" s="1">
@@ -1272,17 +1304,17 @@
       <c r="O7" s="1">
         <v>1</v>
       </c>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>2.5</v>
       </c>
       <c r="H8" s="1">
@@ -1297,14 +1329,14 @@
       <c r="O8" s="1">
         <v>1</v>
       </c>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="5">
@@ -1319,39 +1351,39 @@
       <c r="O9" s="1">
         <v>1</v>
       </c>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>2.5</v>
       </c>
       <c r="H11" s="1">
@@ -1363,17 +1395,17 @@
       <c r="L11" s="1">
         <v>1</v>
       </c>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D12" s="5">
         <v>2.5</v>
@@ -1387,17 +1419,17 @@
       <c r="O12" s="1">
         <v>1</v>
       </c>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="5">
         <v>2.5</v>
@@ -1411,17 +1443,17 @@
       <c r="O13" s="1">
         <v>1</v>
       </c>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D14" s="5">
         <v>2.5</v>
@@ -1432,17 +1464,17 @@
       <c r="L14" s="1">
         <v>1</v>
       </c>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5">
         <v>2.5</v>
@@ -1456,17 +1488,17 @@
       <c r="O15" s="1">
         <v>1</v>
       </c>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5">
         <v>5</v>
@@ -1477,17 +1509,17 @@
       <c r="L16" s="1">
         <v>1</v>
       </c>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="5">
         <v>5</v>
@@ -1498,17 +1530,17 @@
       <c r="L17" s="1">
         <v>1</v>
       </c>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="5">
         <v>5</v>
@@ -1519,17 +1551,17 @@
       <c r="L18" s="1">
         <v>1</v>
       </c>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D19" s="5">
         <v>2.5</v>
@@ -1546,17 +1578,17 @@
       <c r="O19" s="1">
         <v>1</v>
       </c>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="5">
         <v>2.5</v>
@@ -1573,17 +1605,17 @@
       <c r="O20" s="1">
         <v>1</v>
       </c>
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="5">
         <v>2.5</v>
@@ -1597,17 +1629,17 @@
       <c r="O21" s="1">
         <v>1</v>
       </c>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="5">
         <v>2.5</v>
@@ -1619,17 +1651,17 @@
         <v>1</v>
       </c>
       <c r="P22" s="7"/>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="5">
         <v>2.5</v>
@@ -1644,17 +1676,17 @@
         <v>1</v>
       </c>
       <c r="P23" s="7"/>
-      <c r="S23" s="1"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="5">
         <v>2.5</v>
@@ -1669,17 +1701,17 @@
         <v>1</v>
       </c>
       <c r="P24" s="7"/>
-      <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="5">
         <v>1.5</v>
@@ -1694,17 +1726,17 @@
         <v>1</v>
       </c>
       <c r="P25" s="7"/>
-      <c r="S25" s="1"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="5">
         <v>0.5</v>
@@ -1719,17 +1751,17 @@
         <v>1</v>
       </c>
       <c r="P26" s="7"/>
-      <c r="S26" s="1"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="5">
         <v>0.5</v>
@@ -1741,17 +1773,17 @@
         <v>1</v>
       </c>
       <c r="P27" s="7"/>
-      <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D28" s="5">
         <v>2.5</v>
@@ -1768,17 +1800,17 @@
       <c r="O28" s="1">
         <v>1</v>
       </c>
-      <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="5">
         <v>2.5</v>
@@ -1795,17 +1827,17 @@
       <c r="O29" s="1">
         <v>1</v>
       </c>
-      <c r="S29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="5">
         <v>2.5</v>
@@ -1822,18 +1854,18 @@
       <c r="O30" s="1">
         <v>1</v>
       </c>
-      <c r="S30" s="1"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D31" s="5">
         <v>5</v>
       </c>
@@ -1850,16 +1882,17 @@
         <v>1</v>
       </c>
       <c r="P31" s="7"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="5">
         <v>5</v>
@@ -1873,16 +1906,17 @@
       <c r="O32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="5">
         <v>5</v>
@@ -1890,17 +1924,17 @@
       <c r="H33" s="1">
         <v>1</v>
       </c>
-      <c r="S33" s="1"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D34" s="5">
         <v>5</v>
@@ -1911,17 +1945,17 @@
       <c r="L34" s="1">
         <v>1</v>
       </c>
-      <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="5">
         <v>5</v>
@@ -1939,16 +1973,17 @@
         <v>1</v>
       </c>
       <c r="P35" s="7"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
@@ -1962,16 +1997,17 @@
       <c r="O36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" s="5">
         <v>5</v>
@@ -1982,17 +2018,17 @@
       <c r="O37" s="1">
         <v>1</v>
       </c>
-      <c r="S37" s="1"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" s="5">
         <v>5</v>
@@ -2000,167 +2036,168 @@
       <c r="H38" s="1">
         <v>1</v>
       </c>
-      <c r="S38" s="1"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F39" s="1">
+        <v>71</v>
+      </c>
+      <c r="D39" s="11">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1">
         <v>1</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
       </c>
-      <c r="K39" s="1">
-        <v>1</v>
-      </c>
       <c r="O39" s="1">
         <v>1</v>
       </c>
-      <c r="S39" s="1"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R39" s="9"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F40" s="1">
+        <v>119</v>
+      </c>
+      <c r="D40" s="11">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1">
         <v>1</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
       </c>
-      <c r="K40" s="1">
-        <v>1</v>
-      </c>
       <c r="O40" s="1">
         <v>1</v>
       </c>
-      <c r="S40" s="1"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R40" s="9"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D41" s="5">
-        <v>5</v>
-      </c>
-      <c r="E41" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F41" s="1">
         <v>1</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
       </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
       <c r="O41" s="1">
         <v>1</v>
       </c>
-      <c r="S41" s="1"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D42" s="5">
-        <v>5</v>
-      </c>
-      <c r="E42" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F42" s="1">
         <v>1</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
       </c>
-      <c r="N42" s="1">
-        <v>1</v>
-      </c>
-      <c r="P42" s="7"/>
-      <c r="S42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D43" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-      <c r="N43" s="1">
-        <v>1</v>
-      </c>
-      <c r="P43" s="7"/>
-      <c r="S43" s="1"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D44" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-      <c r="L44" s="1">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
         <v>1</v>
       </c>
       <c r="N44" s="1">
         <v>1</v>
       </c>
       <c r="P44" s="7"/>
-      <c r="S44" s="1"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q44" s="6"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D45" s="5">
         <v>2.5</v>
@@ -2168,54 +2205,49 @@
       <c r="G45" s="1">
         <v>1</v>
       </c>
-      <c r="J45" s="1">
-        <v>1</v>
-      </c>
-      <c r="K45" s="1">
-        <v>1</v>
-      </c>
-      <c r="O45" s="1">
-        <v>1</v>
-      </c>
-      <c r="S45" s="1"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+      <c r="P45" s="7"/>
+      <c r="R45" s="9"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D46" s="5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
       </c>
-      <c r="J46" s="1">
+      <c r="L46" s="1">
         <v>1</v>
       </c>
       <c r="N46" s="1">
         <v>1</v>
       </c>
       <c r="P46" s="7"/>
-      <c r="S46" s="1"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R46" s="9"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="5">
-        <v>5</v>
+        <v>84</v>
+      </c>
+      <c r="D47" s="11">
+        <v>2.5</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -2223,153 +2255,143 @@
       <c r="J47" s="1">
         <v>1</v>
       </c>
-      <c r="N47" s="1">
-        <v>1</v>
-      </c>
-      <c r="P47" s="7"/>
-      <c r="S47" s="1"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+      <c r="R47" s="9"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="11">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
+      <c r="P48" s="7"/>
+      <c r="R48" s="9"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="11">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1</v>
+      </c>
+      <c r="P49" s="7"/>
+      <c r="R49" s="9"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="5">
+        <v>5</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+      <c r="P50" s="7"/>
+      <c r="R50" s="9"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="5">
-        <v>5</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-      <c r="K48" s="1">
-        <v>1</v>
-      </c>
-      <c r="L48" s="1">
-        <v>1</v>
-      </c>
-      <c r="N48" s="1">
-        <v>1</v>
-      </c>
-      <c r="P48" s="7"/>
-      <c r="S48" s="1"/>
-    </row>
-    <row r="49" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="C51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="5">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="5">
-        <v>5</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="L49" s="1">
-        <v>1</v>
-      </c>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-    </row>
-    <row r="50" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="5">
-        <v>5</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="L50" s="1">
-        <v>1</v>
-      </c>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-    </row>
-    <row r="51" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="J51" s="1">
-        <v>1</v>
-      </c>
-      <c r="K51" s="1">
-        <v>1</v>
-      </c>
-      <c r="O51" s="1">
-        <v>1</v>
-      </c>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-    </row>
-    <row r="52" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D52" s="5">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
       </c>
-      <c r="J52" s="1">
-        <v>1</v>
-      </c>
-      <c r="K52" s="1">
-        <v>1</v>
-      </c>
-      <c r="O52" s="1">
-        <v>1</v>
-      </c>
-      <c r="P52" s="6"/>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
       <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-    </row>
-    <row r="53" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D53" s="5">
         <v>2.5</v>
@@ -2377,75 +2399,81 @@
       <c r="F53" s="1">
         <v>1</v>
       </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
       <c r="K53" s="1">
         <v>1</v>
       </c>
-      <c r="L53" s="1">
-        <v>1</v>
-      </c>
       <c r="O53" s="1">
         <v>1</v>
       </c>
-      <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-    </row>
-    <row r="54" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D54" s="5">
-        <v>5</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="L54" s="1">
-        <v>1</v>
-      </c>
-      <c r="P54" s="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
       <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-    </row>
-    <row r="55" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D55" s="5">
-        <v>5</v>
-      </c>
-      <c r="E55" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1">
         <v>1</v>
       </c>
       <c r="L55" s="1">
         <v>1</v>
       </c>
-      <c r="P55" s="6"/>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
       <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-    </row>
-    <row r="56" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D56" s="5">
         <v>5</v>
       </c>
@@ -2455,19 +2483,17 @@
       <c r="L56" s="1">
         <v>1</v>
       </c>
-      <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-    </row>
-    <row r="57" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D57" s="5">
         <v>5</v>
@@ -2478,22 +2504,17 @@
       <c r="L57" s="1">
         <v>1</v>
       </c>
-      <c r="O57" s="1">
-        <v>1</v>
-      </c>
-      <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-    </row>
-    <row r="58" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D58" s="5">
         <v>5</v>
@@ -2501,137 +2522,127 @@
       <c r="E58" s="1">
         <v>1</v>
       </c>
-      <c r="J58" s="1">
-        <v>1</v>
-      </c>
-      <c r="K58" s="1">
-        <v>1</v>
-      </c>
-      <c r="O58" s="1">
-        <v>1</v>
-      </c>
-      <c r="P58" s="6"/>
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
       <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-    </row>
-    <row r="59" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D59" s="5">
         <v>5</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
       </c>
-      <c r="K59" s="1">
+      <c r="L59" s="1">
         <v>1</v>
       </c>
       <c r="O59" s="1">
         <v>1</v>
       </c>
-      <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-    </row>
-    <row r="60" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D60" s="5">
         <v>5</v>
       </c>
-      <c r="H60" s="1">
-        <v>1</v>
-      </c>
-      <c r="L60" s="1">
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1">
         <v>1</v>
       </c>
       <c r="O60" s="1">
         <v>1</v>
       </c>
-      <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-    </row>
-    <row r="61" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D61" s="5">
         <v>5</v>
       </c>
-      <c r="H61" s="1">
-        <v>1</v>
-      </c>
-      <c r="L61" s="1">
-        <v>1</v>
-      </c>
-      <c r="N61" s="1">
-        <v>1</v>
-      </c>
-      <c r="P61" s="7"/>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
       <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-    </row>
-    <row r="62" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="5">
+        <v>5</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="O62" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="6"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D62" s="5">
-        <v>5</v>
-      </c>
-      <c r="H62" s="1">
-        <v>1</v>
-      </c>
-      <c r="L62" s="1">
-        <v>1</v>
-      </c>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-    </row>
-    <row r="63" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B63" s="2" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D63" s="5">
         <v>5</v>
       </c>
-      <c r="G63" s="1">
-        <v>1</v>
-      </c>
-      <c r="J63" s="1">
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1">
         <v>1</v>
       </c>
       <c r="N63" s="1">
@@ -2639,45 +2650,39 @@
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-    </row>
-    <row r="64" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="5">
+        <v>5</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="6"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D64" s="5">
-        <v>5</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1</v>
-      </c>
-      <c r="J64" s="1">
-        <v>1</v>
-      </c>
-      <c r="N64" s="1">
-        <v>1</v>
-      </c>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-    </row>
-    <row r="65" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" s="5">
+      <c r="D65" s="11">
         <v>5</v>
       </c>
       <c r="G65" s="1">
@@ -2686,85 +2691,82 @@
       <c r="J65" s="1">
         <v>1</v>
       </c>
-      <c r="K65" s="1">
-        <v>1</v>
-      </c>
       <c r="N65" s="1">
         <v>1</v>
       </c>
       <c r="P65" s="7"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-    </row>
-    <row r="66" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R65" s="9"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D66" s="5">
-        <v>5</v>
-      </c>
-      <c r="E66" s="1">
+        <v>106</v>
+      </c>
+      <c r="D66" s="11">
+        <v>5</v>
+      </c>
+      <c r="G66" s="1">
         <v>1</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
       </c>
-      <c r="K66" s="1">
-        <v>1</v>
-      </c>
       <c r="N66" s="1">
         <v>1</v>
       </c>
       <c r="P66" s="7"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-    </row>
-    <row r="67" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R66" s="9"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="11">
+        <v>5</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="N67" s="1">
+        <v>1</v>
+      </c>
+      <c r="P67" s="7"/>
+      <c r="R67" s="9"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D67" s="5">
-        <v>5</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1</v>
-      </c>
-      <c r="K67" s="1">
-        <v>1</v>
-      </c>
-      <c r="N67" s="1">
-        <v>1</v>
-      </c>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-    </row>
-    <row r="68" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D68" s="5">
         <v>5</v>
       </c>
       <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="J68" s="1">
         <v>1</v>
       </c>
       <c r="K68" s="1">
@@ -2775,75 +2777,69 @@
       </c>
       <c r="P68" s="7"/>
       <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-    </row>
-    <row r="69" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="5">
+        <v>5</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="N69" s="1">
+        <v>1</v>
+      </c>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="6"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="5">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+      <c r="N70" s="1">
+        <v>1</v>
+      </c>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="6"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D69" s="5">
-        <v>5</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1</v>
-      </c>
-      <c r="K69" s="1">
-        <v>1</v>
-      </c>
-      <c r="L69" s="1">
-        <v>1</v>
-      </c>
-      <c r="O69" s="1">
-        <v>1</v>
-      </c>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-    </row>
-    <row r="70" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" s="5">
-        <v>5</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1</v>
-      </c>
-      <c r="L70" s="1">
-        <v>1</v>
-      </c>
-      <c r="O70" s="1">
-        <v>1</v>
-      </c>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-    </row>
-    <row r="71" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D71" s="2">
-        <v>2.5</v>
+      <c r="D71" s="5">
+        <v>5</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
@@ -2851,143 +2847,134 @@
       <c r="K71" s="1">
         <v>1</v>
       </c>
+      <c r="L71" s="1">
+        <v>1</v>
+      </c>
       <c r="O71" s="1">
         <v>1</v>
       </c>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-    </row>
-    <row r="72" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R71" s="9"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D72" s="5">
         <v>5</v>
       </c>
-      <c r="F72" s="1">
-        <v>1</v>
-      </c>
-      <c r="J72" s="1">
-        <v>1</v>
-      </c>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-    </row>
-    <row r="73" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1">
+        <v>1</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
+      <c r="R72" s="9"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" s="5">
-        <v>5</v>
-      </c>
-      <c r="F73" s="1">
-        <v>1</v>
-      </c>
-      <c r="L73" s="1">
-        <v>1</v>
-      </c>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-    </row>
-    <row r="74" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+      <c r="R73" s="9"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="D74" s="5">
         <v>5</v>
       </c>
       <c r="F74" s="1">
         <v>1</v>
       </c>
-      <c r="L74" s="1">
-        <v>1</v>
-      </c>
-      <c r="P74" s="6"/>
+      <c r="J74" s="1">
+        <v>1</v>
+      </c>
       <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-    </row>
-    <row r="75" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" s="2">
-        <v>2.5</v>
+        <v>97</v>
+      </c>
+      <c r="D75" s="5">
+        <v>5</v>
       </c>
       <c r="F75" s="1">
         <v>1</v>
       </c>
-      <c r="J75" s="1">
-        <v>1</v>
-      </c>
-      <c r="O75" s="1">
-        <v>1</v>
-      </c>
-      <c r="P75" s="6"/>
+      <c r="L75" s="1">
+        <v>1</v>
+      </c>
       <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-    </row>
-    <row r="76" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D76" s="2">
-        <v>2.5</v>
+        <v>117</v>
+      </c>
+      <c r="D76" s="5">
+        <v>5</v>
       </c>
       <c r="F76" s="1">
         <v>1</v>
       </c>
-      <c r="J76" s="1">
-        <v>1</v>
-      </c>
-      <c r="O76" s="1">
-        <v>1</v>
-      </c>
-      <c r="P76" s="6"/>
+      <c r="L76" s="1">
+        <v>1</v>
+      </c>
       <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-    </row>
-    <row r="77" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="D77" s="2">
         <v>2.5</v>
@@ -2995,25 +2982,23 @@
       <c r="F77" s="1">
         <v>1</v>
       </c>
-      <c r="K77" s="1">
-        <v>1</v>
-      </c>
-      <c r="N77" s="1">
-        <v>1</v>
-      </c>
-      <c r="P77" s="7"/>
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+      <c r="O77" s="1">
+        <v>1</v>
+      </c>
       <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-    </row>
-    <row r="78" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D78" s="2">
         <v>2.5</v>
@@ -3024,19 +3009,20 @@
       <c r="J78" s="1">
         <v>1</v>
       </c>
-      <c r="P78" s="6"/>
+      <c r="O78" s="1">
+        <v>1</v>
+      </c>
       <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-    </row>
-    <row r="79" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="D79" s="2">
         <v>2.5</v>
@@ -3044,60 +3030,63 @@
       <c r="F79" s="1">
         <v>1</v>
       </c>
-      <c r="P79" s="6"/>
+      <c r="K79" s="1">
+        <v>1</v>
+      </c>
+      <c r="N79" s="1">
+        <v>1</v>
+      </c>
+      <c r="P79" s="7"/>
       <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-    </row>
-    <row r="80" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" s="5">
-        <v>5</v>
-      </c>
-      <c r="E80" s="1">
+        <v>122</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F80" s="1">
         <v>1</v>
       </c>
       <c r="J80" s="1">
         <v>1</v>
       </c>
-      <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D81" s="5">
-        <v>5</v>
-      </c>
-      <c r="E81" s="1">
-        <v>1</v>
-      </c>
-      <c r="S81" s="1"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="6"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="D82" s="5">
         <v>5</v>
@@ -3105,21 +3094,20 @@
       <c r="E82" s="1">
         <v>1</v>
       </c>
-      <c r="N82" s="1">
-        <v>1</v>
-      </c>
-      <c r="P82" s="7"/>
-      <c r="S82" s="1"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J82" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="6"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D83" s="5">
         <v>5</v>
@@ -3127,20 +3115,17 @@
       <c r="E83" s="1">
         <v>1</v>
       </c>
-      <c r="O83" s="1">
-        <v>1</v>
-      </c>
-      <c r="S83" s="1"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q83" s="6"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D84" s="5">
         <v>5</v>
@@ -3152,65 +3137,60 @@
         <v>1</v>
       </c>
       <c r="P84" s="7"/>
-      <c r="S84" s="1"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q84" s="6"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D85" s="5">
         <v>5</v>
       </c>
-      <c r="H85" s="1">
-        <v>1</v>
-      </c>
-      <c r="L85" s="1">
+      <c r="E85" s="1">
         <v>1</v>
       </c>
       <c r="O85" s="1">
         <v>1</v>
       </c>
-      <c r="S85" s="1"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q85" s="6"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="D86" s="5">
         <v>5</v>
       </c>
-      <c r="H86" s="1">
-        <v>1</v>
-      </c>
-      <c r="K86" s="1">
-        <v>1</v>
-      </c>
-      <c r="O86" s="1">
-        <v>1</v>
-      </c>
-      <c r="S86" s="1"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="N86" s="1">
+        <v>1</v>
+      </c>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="6"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D87" s="5">
         <v>5</v>
@@ -3224,233 +3204,225 @@
       <c r="O87" s="1">
         <v>1</v>
       </c>
-      <c r="S87" s="1"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q87" s="6"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D88" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E88" s="1">
-        <v>1</v>
-      </c>
-      <c r="J88" s="1">
+        <v>129</v>
+      </c>
+      <c r="D88" s="5">
+        <v>5</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
+      <c r="K88" s="1">
         <v>1</v>
       </c>
       <c r="O88" s="1">
         <v>1</v>
       </c>
-      <c r="S88" s="1"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q88" s="6"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D89" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E89" s="1">
-        <v>1</v>
-      </c>
-      <c r="J89" s="1">
+        <v>130</v>
+      </c>
+      <c r="D89" s="5">
+        <v>5</v>
+      </c>
+      <c r="H89" s="1">
+        <v>1</v>
+      </c>
+      <c r="L89" s="1">
         <v>1</v>
       </c>
       <c r="O89" s="1">
         <v>1</v>
       </c>
-      <c r="S89" s="1"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q89" s="6"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D90" s="2">
         <v>2.5</v>
       </c>
-      <c r="H90" s="1">
+      <c r="E90" s="1">
         <v>1</v>
       </c>
       <c r="J90" s="1">
         <v>1</v>
       </c>
-      <c r="L90" s="1">
-        <v>1</v>
-      </c>
-      <c r="M90" s="1">
-        <v>1</v>
-      </c>
       <c r="O90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q90" s="6"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="J91" s="1">
+        <v>1</v>
+      </c>
+      <c r="O91" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="6"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D91" s="5">
-        <v>5</v>
-      </c>
-      <c r="H91" s="1">
-        <v>1</v>
-      </c>
-      <c r="J91" s="1">
-        <v>1</v>
-      </c>
-      <c r="K91" s="1">
-        <v>1</v>
-      </c>
-      <c r="L91" s="1">
-        <v>1</v>
-      </c>
-      <c r="M91" s="1">
-        <v>1</v>
-      </c>
-      <c r="N91" s="1">
-        <v>1</v>
-      </c>
-      <c r="P91" s="7"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B92" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C92" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D92" s="5">
-        <v>5</v>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2">
+        <v>2.5</v>
       </c>
       <c r="H92" s="1">
         <v>1</v>
       </c>
+      <c r="J92" s="1">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1">
+        <v>1</v>
+      </c>
       <c r="M92" s="1">
         <v>1</v>
       </c>
       <c r="O92" s="1">
         <v>1</v>
       </c>
-      <c r="S92" s="1"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q92" s="6"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="5">
+        <v>5</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1">
+        <v>1</v>
+      </c>
+      <c r="K93" s="1">
+        <v>1</v>
+      </c>
+      <c r="L93" s="1">
+        <v>1</v>
+      </c>
+      <c r="M93" s="1">
+        <v>1</v>
+      </c>
+      <c r="N93" s="1">
+        <v>1</v>
+      </c>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="6"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D93" s="2">
-        <v>5</v>
-      </c>
-      <c r="H93" s="1">
-        <v>1</v>
-      </c>
-      <c r="M93" s="1">
-        <v>1</v>
-      </c>
-      <c r="N93" s="1">
-        <v>1</v>
-      </c>
-      <c r="P93" s="7"/>
-      <c r="S93" s="1"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D94" s="5">
         <v>5</v>
       </c>
-      <c r="G94" s="1">
-        <v>1</v>
-      </c>
-      <c r="J94" s="1">
-        <v>1</v>
-      </c>
-      <c r="K94" s="1">
+      <c r="H94" s="1">
         <v>1</v>
       </c>
       <c r="M94" s="1">
         <v>1</v>
       </c>
-      <c r="N94" s="1">
-        <v>1</v>
-      </c>
-      <c r="P94" s="7"/>
-      <c r="S94" s="1"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O94" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="6"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D95" s="2">
         <v>5</v>
       </c>
-      <c r="G95" s="1">
-        <v>1</v>
-      </c>
-      <c r="J95" s="1">
+      <c r="H95" s="1">
         <v>1</v>
       </c>
       <c r="M95" s="1">
         <v>1</v>
       </c>
-      <c r="O95" s="1">
-        <v>1</v>
-      </c>
-      <c r="S95" s="1"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N95" s="1">
+        <v>1</v>
+      </c>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="6"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D96" s="2">
-        <v>2.5</v>
+        <v>9</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="11">
+        <v>5</v>
       </c>
       <c r="G96" s="1">
         <v>1</v>
@@ -3458,24 +3430,30 @@
       <c r="J96" s="1">
         <v>1</v>
       </c>
+      <c r="K96" s="1">
+        <v>1</v>
+      </c>
       <c r="M96" s="1">
         <v>1</v>
       </c>
-      <c r="O96" s="1">
-        <v>1</v>
-      </c>
-      <c r="S96" s="1"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N96" s="1">
+        <v>1</v>
+      </c>
+      <c r="P96" s="7"/>
+      <c r="R96" s="9"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2">
-        <v>2.5</v>
+        <v>134</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D97" s="11">
+        <v>5</v>
       </c>
       <c r="G97" s="1">
         <v>1</v>
@@ -3486,72 +3464,70 @@
       <c r="M97" s="1">
         <v>1</v>
       </c>
-      <c r="N97" s="1">
-        <v>1</v>
-      </c>
-      <c r="P97" s="7"/>
-      <c r="S97" s="1"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O97" s="1">
+        <v>1</v>
+      </c>
+      <c r="R97" s="9"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="5">
-        <v>5</v>
-      </c>
-      <c r="F98" s="1">
-        <v>1</v>
-      </c>
-      <c r="K98" s="1">
-        <v>1</v>
-      </c>
-      <c r="L98" s="1">
+        <v>135</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="J98" s="1">
         <v>1</v>
       </c>
       <c r="M98" s="1">
         <v>1</v>
       </c>
-      <c r="N98" s="1">
-        <v>1</v>
-      </c>
-      <c r="P98" s="7"/>
-      <c r="S98" s="1"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O98" s="1">
+        <v>1</v>
+      </c>
+      <c r="R98" s="9"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="5">
-        <v>5</v>
-      </c>
-      <c r="H99" s="1">
-        <v>1</v>
-      </c>
-      <c r="L99" s="1">
+      <c r="D99" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="J99" s="1">
         <v>1</v>
       </c>
       <c r="M99" s="1">
         <v>1</v>
       </c>
-      <c r="O99" s="1">
-        <v>1</v>
-      </c>
-      <c r="S99" s="1"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N99" s="1">
+        <v>1</v>
+      </c>
+      <c r="P99" s="7"/>
+      <c r="R99" s="9"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="5">
@@ -3560,232 +3536,233 @@
       <c r="F100" s="1">
         <v>1</v>
       </c>
+      <c r="K100" s="1">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1">
+        <v>1</v>
+      </c>
       <c r="M100" s="1">
         <v>1</v>
       </c>
-      <c r="O100" s="1">
-        <v>1</v>
-      </c>
-      <c r="S100" s="1"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N100" s="1">
+        <v>1</v>
+      </c>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="6"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="2">
+      <c r="D101" s="5">
+        <v>5</v>
+      </c>
+      <c r="H101" s="1">
+        <v>1</v>
+      </c>
+      <c r="L101" s="1">
+        <v>1</v>
+      </c>
+      <c r="M101" s="1">
+        <v>1</v>
+      </c>
+      <c r="O101" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="6"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="5">
+        <v>5</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="M102" s="1">
+        <v>1</v>
+      </c>
+      <c r="O102" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="6"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2">
         <v>2.5</v>
       </c>
-      <c r="E101" s="1">
-        <v>1</v>
-      </c>
-      <c r="J101" s="1">
-        <v>1</v>
-      </c>
-      <c r="K101" s="1">
-        <v>1</v>
-      </c>
-      <c r="M101" s="1">
-        <v>1</v>
-      </c>
-      <c r="N101" s="1">
-        <v>1</v>
-      </c>
-      <c r="P101" s="7"/>
-      <c r="S101" s="1"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B102" s="2" t="s">
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
+        <v>1</v>
+      </c>
+      <c r="M103" s="1">
+        <v>1</v>
+      </c>
+      <c r="N103" s="1">
+        <v>1</v>
+      </c>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="6"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2">
+      <c r="C104" s="2"/>
+      <c r="D104" s="2">
         <v>2.5</v>
       </c>
-      <c r="G102" s="1">
-        <v>1</v>
-      </c>
-      <c r="M102" s="1">
-        <v>1</v>
-      </c>
-      <c r="O102" s="1">
-        <v>1</v>
-      </c>
-      <c r="S102" s="1"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103" s="2" t="s">
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="M104" s="1">
+        <v>1</v>
+      </c>
+      <c r="O104" s="1">
+        <v>1</v>
+      </c>
+      <c r="R104" s="9"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D105" s="2">
+        <v>5</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1</v>
+      </c>
+      <c r="M105" s="1">
+        <v>1</v>
+      </c>
+      <c r="O105" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="6"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D103" s="2">
-        <v>5</v>
-      </c>
-      <c r="H103" s="1">
-        <v>1</v>
-      </c>
-      <c r="M103" s="1">
-        <v>1</v>
-      </c>
-      <c r="O103" s="1">
-        <v>1</v>
-      </c>
-      <c r="S103" s="1"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C104" s="2" t="s">
+      <c r="D106" s="2">
+        <v>5</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1</v>
+      </c>
+      <c r="K106" s="1">
+        <v>1</v>
+      </c>
+      <c r="L106" s="1">
+        <v>1</v>
+      </c>
+      <c r="M106" s="1">
+        <v>1</v>
+      </c>
+      <c r="O106" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="6"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D104" s="2">
-        <v>5</v>
-      </c>
-      <c r="H104" s="1">
-        <v>1</v>
-      </c>
-      <c r="K104" s="1">
-        <v>1</v>
-      </c>
-      <c r="L104" s="1">
-        <v>1</v>
-      </c>
-      <c r="M104" s="1">
-        <v>1</v>
-      </c>
-      <c r="O104" s="1">
-        <v>1</v>
-      </c>
-      <c r="S104" s="1"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D105" s="2">
+      <c r="D107" s="2">
         <v>2.5</v>
       </c>
-      <c r="H105" s="1">
-        <v>1</v>
-      </c>
-      <c r="J105" s="1">
-        <v>1</v>
-      </c>
-      <c r="M105" s="1">
-        <v>1</v>
-      </c>
-      <c r="N105" s="1">
-        <v>1</v>
-      </c>
-      <c r="P105" s="7"/>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="5">
-        <v>5</v>
-      </c>
-      <c r="E106" s="1">
-        <v>1</v>
-      </c>
-      <c r="L106" s="1">
-        <v>1</v>
-      </c>
-      <c r="M106" s="1">
-        <v>1</v>
-      </c>
-      <c r="N106" s="1">
-        <v>1</v>
-      </c>
-      <c r="P106" s="7"/>
-      <c r="S106" s="1"/>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="H107" s="1">
+        <v>1</v>
+      </c>
+      <c r="J107" s="1">
+        <v>1</v>
+      </c>
+      <c r="M107" s="1">
+        <v>1</v>
+      </c>
+      <c r="N107" s="1">
+        <v>1</v>
+      </c>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="6"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="5">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="L108" s="1">
+        <v>1</v>
+      </c>
+      <c r="M108" s="1">
+        <v>1</v>
+      </c>
+      <c r="N108" s="1">
+        <v>1</v>
+      </c>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="6"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="5">
-        <v>5</v>
-      </c>
-      <c r="E107" s="1">
-        <v>1</v>
-      </c>
-      <c r="J107" s="1">
-        <v>1</v>
-      </c>
-      <c r="K107" s="1">
-        <v>1</v>
-      </c>
-      <c r="M107" s="1">
-        <v>1</v>
-      </c>
-      <c r="N107" s="1">
-        <v>1</v>
-      </c>
-      <c r="P107" s="7"/>
-      <c r="S107" s="1"/>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E108" s="1">
-        <v>1</v>
-      </c>
-      <c r="L108" s="1">
-        <v>1</v>
-      </c>
-      <c r="M108" s="1">
-        <v>1</v>
-      </c>
-      <c r="O108" s="1">
-        <v>1</v>
-      </c>
-      <c r="S108" s="1"/>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B109" s="2" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="5">
@@ -3794,35 +3771,36 @@
       <c r="E109" s="1">
         <v>1</v>
       </c>
-      <c r="L109" s="1">
+      <c r="J109" s="1">
+        <v>1</v>
+      </c>
+      <c r="K109" s="1">
         <v>1</v>
       </c>
       <c r="M109" s="1">
         <v>1</v>
       </c>
-      <c r="O109" s="1">
-        <v>1</v>
-      </c>
-      <c r="S109" s="1"/>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N109" s="1">
+        <v>1</v>
+      </c>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="6"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2">
         <v>2.5</v>
       </c>
-      <c r="G110" s="1">
-        <v>1</v>
-      </c>
-      <c r="J110" s="1">
-        <v>1</v>
-      </c>
-      <c r="K110" s="1">
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="L110" s="1">
         <v>1</v>
       </c>
       <c r="M110" s="1">
@@ -3831,48 +3809,50 @@
       <c r="O110" s="1">
         <v>1</v>
       </c>
-      <c r="S110" s="1"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q110" s="6"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="5">
         <v>5</v>
       </c>
-      <c r="G111" s="1">
-        <v>1</v>
-      </c>
-      <c r="J111" s="1">
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="L111" s="1">
         <v>1</v>
       </c>
       <c r="M111" s="1">
         <v>1</v>
       </c>
-      <c r="N111" s="1">
-        <v>1</v>
-      </c>
-      <c r="P111" s="7"/>
-      <c r="S111" s="1"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O111" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="6"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C112" s="2"/>
-      <c r="D112" s="5">
-        <v>5</v>
+      <c r="D112" s="11">
+        <v>2.5</v>
       </c>
       <c r="G112" s="1">
         <v>1</v>
       </c>
+      <c r="J112" s="1">
+        <v>1</v>
+      </c>
       <c r="K112" s="1">
         <v>1</v>
       </c>
@@ -3882,48 +3862,49 @@
       <c r="O112" s="1">
         <v>1</v>
       </c>
-      <c r="S112" s="1"/>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R112" s="9"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="I113" s="1">
+      <c r="D113" s="11">
+        <v>5</v>
+      </c>
+      <c r="G113" s="1">
         <v>1</v>
       </c>
       <c r="J113" s="1">
         <v>1</v>
       </c>
-      <c r="K113" s="1">
-        <v>1</v>
-      </c>
       <c r="M113" s="1">
         <v>1</v>
       </c>
-      <c r="O113" s="1">
-        <v>1</v>
-      </c>
-      <c r="S113" s="1"/>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N113" s="1">
+        <v>1</v>
+      </c>
+      <c r="P113" s="7"/>
+      <c r="R113" s="9"/>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="5">
         <v>5</v>
       </c>
-      <c r="F114" s="1">
+      <c r="G114" s="1">
+        <v>1</v>
+      </c>
+      <c r="K114" s="1">
         <v>1</v>
       </c>
       <c r="M114" s="1">
@@ -3932,40 +3913,42 @@
       <c r="O114" s="1">
         <v>1</v>
       </c>
-      <c r="S114" s="1"/>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R114" s="9"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="C115" s="2"/>
-      <c r="D115" s="5">
-        <v>5</v>
-      </c>
-      <c r="F115" s="1">
+      <c r="D115" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I115" s="1">
         <v>1</v>
       </c>
       <c r="J115" s="1">
         <v>1</v>
       </c>
+      <c r="K115" s="1">
+        <v>1</v>
+      </c>
       <c r="M115" s="1">
         <v>1</v>
       </c>
-      <c r="N115" s="1">
-        <v>1</v>
-      </c>
-      <c r="P115" s="7"/>
-      <c r="S115" s="1"/>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O115" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="6"/>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="5">
@@ -3974,139 +3957,189 @@
       <c r="F116" s="1">
         <v>1</v>
       </c>
-      <c r="L116" s="1">
-        <v>1</v>
-      </c>
       <c r="M116" s="1">
         <v>1</v>
       </c>
       <c r="O116" s="1">
         <v>1</v>
       </c>
-      <c r="S116" s="1"/>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q116" s="6"/>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="5">
         <v>5</v>
       </c>
-      <c r="H117" s="1">
-        <v>1</v>
-      </c>
-      <c r="K117" s="1">
-        <v>1</v>
-      </c>
-      <c r="L117" s="1">
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+      <c r="J117" s="1">
         <v>1</v>
       </c>
       <c r="M117" s="1">
         <v>1</v>
       </c>
-      <c r="O117" s="1">
-        <v>1</v>
-      </c>
-      <c r="S117" s="1"/>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N117" s="1">
+        <v>1</v>
+      </c>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="6"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="5">
+        <v>5</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="L118" s="1">
+        <v>1</v>
+      </c>
+      <c r="M118" s="1">
+        <v>1</v>
+      </c>
+      <c r="O118" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="6"/>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="5">
+        <v>5</v>
+      </c>
+      <c r="H119" s="1">
+        <v>1</v>
+      </c>
+      <c r="K119" s="1">
+        <v>1</v>
+      </c>
+      <c r="L119" s="1">
+        <v>1</v>
+      </c>
+      <c r="M119" s="1">
+        <v>1</v>
+      </c>
+      <c r="O119" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="6"/>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D120" s="2">
+        <v>5</v>
+      </c>
+      <c r="H120" s="1">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1">
+        <v>1</v>
+      </c>
+      <c r="M120" s="1">
+        <v>1</v>
+      </c>
+      <c r="N120" s="1">
+        <v>1</v>
+      </c>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="6"/>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D118" s="2">
-        <v>5</v>
-      </c>
-      <c r="H118" s="1">
-        <v>1</v>
-      </c>
-      <c r="J118" s="1">
-        <v>1</v>
-      </c>
-      <c r="M118" s="1">
-        <v>1</v>
-      </c>
-      <c r="N118" s="1">
-        <v>1</v>
-      </c>
-      <c r="P118" s="7"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C119" s="2" t="s">
+      <c r="D121" s="2">
+        <v>5</v>
+      </c>
+      <c r="H121" s="1">
+        <v>1</v>
+      </c>
+      <c r="K121" s="1">
+        <v>1</v>
+      </c>
+      <c r="M121" s="1">
+        <v>1</v>
+      </c>
+      <c r="N121" s="1">
+        <v>1</v>
+      </c>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="6"/>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D119" s="2">
-        <v>5</v>
-      </c>
-      <c r="H119" s="1">
-        <v>1</v>
-      </c>
-      <c r="K119" s="1">
-        <v>1</v>
-      </c>
-      <c r="M119" s="1">
-        <v>1</v>
-      </c>
-      <c r="N119" s="1">
-        <v>1</v>
-      </c>
-      <c r="P119" s="7"/>
-      <c r="S119" s="1"/>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D120" s="2">
+      <c r="D122" s="2">
         <v>2.5</v>
       </c>
-      <c r="H120" s="1">
-        <v>1</v>
-      </c>
-      <c r="J120" s="1">
-        <v>1</v>
-      </c>
-      <c r="M120" s="1">
-        <v>1</v>
-      </c>
-      <c r="N120" s="1">
-        <v>1</v>
-      </c>
-      <c r="P120" s="7"/>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C121" s="2"/>
-      <c r="D121" s="5"/>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C122" s="2"/>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C128" s="4"/>
+      <c r="H122" s="1">
+        <v>1</v>
+      </c>
+      <c r="J122" s="1">
+        <v>1</v>
+      </c>
+      <c r="M122" s="1">
+        <v>1</v>
+      </c>
+      <c r="N122" s="1">
+        <v>1</v>
+      </c>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="6"/>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C123" s="2"/>
+      <c r="D123" s="11"/>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C124" s="2"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O120" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O122" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\work\tc\lagrange-research\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B6DEB3-E09E-4CE7-8B97-7E73E66ED523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAD20D1-86BF-4EFC-8950-49CEF035295B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1963" yWindow="531" windowWidth="27574" windowHeight="16449" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="754" yWindow="754" windowWidth="24943" windowHeight="14469" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保底" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="173">
   <si>
     <t>SC002</t>
   </si>
@@ -705,6 +705,22 @@
   </si>
   <si>
     <t>安东尼奥斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔波普</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接型(B)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒苍穹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -712,14 +728,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
-    <numFmt numFmtId="186" formatCode="0.0_);[Red]\(0.0\)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,14 +749,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -774,15 +778,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,25 +805,12 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1101,30 +1089,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S130"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F16" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D102" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomRight" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3"/>
   <cols>
     <col min="1" max="1" width="10.61328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3828125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.3828125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3828125" style="10" customWidth="1"/>
-    <col min="5" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="9" style="6"/>
-    <col min="17" max="17" width="9.3046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="6"/>
-    <col min="19" max="19" width="9" style="9"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="13.3828125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1134,7 +1117,7 @@
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>166</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1171,7 +1154,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,7 +1162,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="11">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="G2" s="1">
@@ -1194,9 +1177,8 @@
       <c r="O2" s="1">
         <v>1</v>
       </c>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1213,9 +1195,8 @@
       <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,276 +1213,262 @@
       <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
       </c>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
       <c r="O7" s="1">
         <v>1</v>
       </c>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
         <v>1</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
       </c>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
+      <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
         <v>1</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
       </c>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D13" s="5">
         <v>2.5</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>1</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
       </c>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5">
         <v>2.5</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D16" s="5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -1509,9 +1476,11 @@
       <c r="L16" s="1">
         <v>1</v>
       </c>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1519,7 +1488,7 @@
         <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="5">
         <v>5</v>
@@ -1530,9 +1499,8 @@
       <c r="L17" s="1">
         <v>1</v>
       </c>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1540,7 +1508,7 @@
         <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="5">
         <v>5</v>
@@ -1551,36 +1519,28 @@
       <c r="L18" s="1">
         <v>1</v>
       </c>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1588,7 +1548,7 @@
         <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="5">
         <v>2.5</v>
@@ -1605,9 +1565,8 @@
       <c r="O20" s="1">
         <v>1</v>
       </c>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1615,70 +1574,68 @@
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="D22" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1</v>
-      </c>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D23" s="5">
         <v>2.5</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="L23" s="1">
-        <v>1</v>
-      </c>
       <c r="N23" s="1">
         <v>1</v>
       </c>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1686,7 +1643,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="5">
         <v>2.5</v>
@@ -1694,29 +1651,27 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="J24" s="1">
+      <c r="L24" s="1">
         <v>1</v>
       </c>
       <c r="N24" s="1">
         <v>1</v>
       </c>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="J25" s="1">
@@ -1725,10 +1680,8 @@
       <c r="N25" s="1">
         <v>1</v>
       </c>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1736,10 +1689,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="5">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1750,10 +1703,8 @@
       <c r="N26" s="1">
         <v>1</v>
       </c>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1761,7 +1712,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="5">
         <v>0.5</v>
@@ -1769,48 +1720,42 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
       <c r="N27" s="1">
         <v>1</v>
       </c>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="5">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="O28" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D29" s="5">
         <v>2.5</v>
@@ -1827,17 +1772,16 @@
       <c r="O29" s="1">
         <v>1</v>
       </c>
-      <c r="Q29" s="6"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D30" s="5">
         <v>2.5</v>
@@ -1854,22 +1798,21 @@
       <c r="O30" s="1">
         <v>1</v>
       </c>
-      <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" s="5">
-        <v>5</v>
-      </c>
-      <c r="H31" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="J31" s="1">
@@ -1878,13 +1821,11 @@
       <c r="K31" s="1">
         <v>1</v>
       </c>
-      <c r="N31" s="1">
-        <v>1</v>
-      </c>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="6"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -1892,7 +1833,7 @@
         <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="5">
         <v>5</v>
@@ -1903,12 +1844,14 @@
       <c r="J32" s="1">
         <v>1</v>
       </c>
-      <c r="O32" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="6"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -1916,7 +1859,7 @@
         <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="5">
         <v>5</v>
@@ -1924,17 +1867,22 @@
       <c r="H33" s="1">
         <v>1</v>
       </c>
-      <c r="Q33" s="6"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="D34" s="5">
         <v>5</v>
@@ -1942,20 +1890,16 @@
       <c r="H34" s="1">
         <v>1</v>
       </c>
-      <c r="L34" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="6"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="D35" s="5">
         <v>5</v>
@@ -1963,27 +1907,19 @@
       <c r="H35" s="1">
         <v>1</v>
       </c>
-      <c r="J35" s="1">
-        <v>1</v>
-      </c>
       <c r="L35" s="1">
         <v>1</v>
       </c>
-      <c r="N35" s="1">
-        <v>1</v>
-      </c>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="6"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
@@ -1994,12 +1930,14 @@
       <c r="J36" s="1">
         <v>1</v>
       </c>
-      <c r="O36" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="6"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -2007,7 +1945,7 @@
         <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="5">
         <v>5</v>
@@ -2015,20 +1953,22 @@
       <c r="H37" s="1">
         <v>1</v>
       </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
       <c r="O37" s="1">
         <v>1</v>
       </c>
-      <c r="Q37" s="6"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="5">
         <v>5</v>
@@ -2036,33 +1976,28 @@
       <c r="H38" s="1">
         <v>1</v>
       </c>
-      <c r="Q38" s="6"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="11">
-        <v>3</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1">
-        <v>1</v>
-      </c>
-      <c r="O39" s="1">
-        <v>1</v>
-      </c>
-      <c r="R39" s="9"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="D39" s="5">
+        <v>5</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
@@ -2070,58 +2005,53 @@
         <v>167</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="7">
         <v>3</v>
       </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1">
-        <v>1</v>
-      </c>
-      <c r="O40" s="1">
-        <v>1</v>
-      </c>
-      <c r="R40" s="9"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>1</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
       </c>
-      <c r="K41" s="1">
-        <v>1</v>
-      </c>
       <c r="O41" s="1">
         <v>1</v>
       </c>
-      <c r="Q41" s="6"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D42" s="5">
         <v>2.5</v>
@@ -2138,41 +2068,42 @@
       <c r="O42" s="1">
         <v>1</v>
       </c>
-      <c r="Q42" s="6"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D43" s="5">
-        <v>5</v>
-      </c>
-      <c r="E43" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F43" s="1">
         <v>1</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
       </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
       <c r="O43" s="1">
         <v>1</v>
       </c>
-      <c r="Q43" s="6"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D44" s="5">
         <v>5</v>
@@ -2183,35 +2114,34 @@
       <c r="J44" s="1">
         <v>1</v>
       </c>
-      <c r="N44" s="1">
-        <v>1</v>
-      </c>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="6"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D45" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="G45" s="1">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
         <v>1</v>
       </c>
       <c r="N45" s="1">
         <v>1</v>
       </c>
-      <c r="P45" s="7"/>
-      <c r="R45" s="9"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
@@ -2219,7 +2149,7 @@
         <v>26</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D46" s="5">
         <v>2.5</v>
@@ -2227,16 +2157,11 @@
       <c r="G46" s="1">
         <v>1</v>
       </c>
-      <c r="L46" s="1">
-        <v>1</v>
-      </c>
       <c r="N46" s="1">
         <v>1</v>
       </c>
-      <c r="P46" s="7"/>
-      <c r="R46" s="9"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
@@ -2244,37 +2169,33 @@
         <v>26</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="11">
+        <v>83</v>
+      </c>
+      <c r="D47" s="5">
         <v>2.5</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
       </c>
-      <c r="J47" s="1">
-        <v>1</v>
-      </c>
-      <c r="K47" s="1">
-        <v>1</v>
-      </c>
-      <c r="O47" s="1">
-        <v>1</v>
-      </c>
-      <c r="R47" s="9"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="11">
-        <v>5</v>
+        <v>84</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2.5</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -2282,13 +2203,14 @@
       <c r="J48" s="1">
         <v>1</v>
       </c>
-      <c r="N48" s="1">
-        <v>1</v>
-      </c>
-      <c r="P48" s="7"/>
-      <c r="R48" s="9"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
@@ -2296,9 +2218,9 @@
         <v>85</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="11">
+        <v>86</v>
+      </c>
+      <c r="D49" s="7">
         <v>5</v>
       </c>
       <c r="G49" s="1">
@@ -2310,10 +2232,8 @@
       <c r="N49" s="1">
         <v>1</v>
       </c>
-      <c r="P49" s="7"/>
-      <c r="R49" s="9"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -2321,48 +2241,48 @@
         <v>85</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="7">
+        <v>5</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="5">
-        <v>5</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-      <c r="K50" s="1">
-        <v>1</v>
-      </c>
-      <c r="L50" s="1">
-        <v>1</v>
-      </c>
-      <c r="N50" s="1">
-        <v>1</v>
-      </c>
-      <c r="P50" s="7"/>
-      <c r="R50" s="9"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D51" s="5">
         <v>5</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
         <v>1</v>
       </c>
       <c r="L51" s="1">
         <v>1</v>
       </c>
-      <c r="Q51" s="6"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
@@ -2370,47 +2290,39 @@
         <v>89</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="5">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="5">
-        <v>5</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="L52" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="6"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D53" s="5">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F53" s="1">
         <v>1</v>
       </c>
-      <c r="J53" s="1">
-        <v>1</v>
-      </c>
-      <c r="K53" s="1">
-        <v>1</v>
-      </c>
-      <c r="O53" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="6"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
@@ -2418,7 +2330,7 @@
         <v>92</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54" s="5">
         <v>2.5</v>
@@ -2435,9 +2347,8 @@
       <c r="O54" s="1">
         <v>1</v>
       </c>
-      <c r="Q54" s="6"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
@@ -2445,7 +2356,7 @@
         <v>92</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="D55" s="5">
         <v>2.5</v>
@@ -2453,39 +2364,43 @@
       <c r="F55" s="1">
         <v>1</v>
       </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
       <c r="K55" s="1">
         <v>1</v>
       </c>
-      <c r="L55" s="1">
-        <v>1</v>
-      </c>
       <c r="O55" s="1">
         <v>1</v>
       </c>
-      <c r="Q55" s="6"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="D56" s="5">
-        <v>5</v>
-      </c>
-      <c r="E56" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1">
         <v>1</v>
       </c>
       <c r="L56" s="1">
         <v>1</v>
       </c>
-      <c r="Q56" s="6"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
@@ -2493,7 +2408,7 @@
         <v>95</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D57" s="5">
         <v>5</v>
@@ -2504,9 +2419,8 @@
       <c r="L57" s="1">
         <v>1</v>
       </c>
-      <c r="Q57" s="6"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
@@ -2514,7 +2428,7 @@
         <v>95</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58" s="5">
         <v>5</v>
@@ -2525,17 +2439,16 @@
       <c r="L58" s="1">
         <v>1</v>
       </c>
-      <c r="Q58" s="6"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D59" s="5">
         <v>5</v>
@@ -2546,12 +2459,8 @@
       <c r="L59" s="1">
         <v>1</v>
       </c>
-      <c r="O59" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="6"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
@@ -2559,7 +2468,7 @@
         <v>99</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D60" s="5">
         <v>5</v>
@@ -2567,18 +2476,14 @@
       <c r="E60" s="1">
         <v>1</v>
       </c>
-      <c r="J60" s="1">
-        <v>1</v>
-      </c>
-      <c r="K60" s="1">
+      <c r="L60" s="1">
         <v>1</v>
       </c>
       <c r="O60" s="1">
         <v>1</v>
       </c>
-      <c r="Q60" s="6"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -2586,55 +2491,56 @@
         <v>99</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="5">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="5">
-        <v>5</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1</v>
-      </c>
-      <c r="K61" s="1">
-        <v>1</v>
-      </c>
-      <c r="O61" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="6"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="D62" s="5">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="O62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="5">
-        <v>5</v>
-      </c>
-      <c r="H62" s="1">
-        <v>1</v>
-      </c>
-      <c r="L62" s="1">
-        <v>1</v>
-      </c>
-      <c r="O62" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="6"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D63" s="5">
         <v>5</v>
@@ -2645,13 +2551,11 @@
       <c r="L63" s="1">
         <v>1</v>
       </c>
-      <c r="N63" s="1">
-        <v>1</v>
-      </c>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="6"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
@@ -2659,45 +2563,42 @@
         <v>27</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="5">
+        <v>5</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="N64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D64" s="5">
-        <v>5</v>
-      </c>
-      <c r="H64" s="1">
-        <v>1</v>
-      </c>
-      <c r="L64" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="6"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D65" s="11">
-        <v>5</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1</v>
-      </c>
-      <c r="J65" s="1">
-        <v>1</v>
-      </c>
-      <c r="N65" s="1">
-        <v>1</v>
-      </c>
-      <c r="P65" s="7"/>
-      <c r="R65" s="9"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D65" s="5">
+        <v>5</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -2705,9 +2606,9 @@
         <v>104</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" s="11">
+        <v>105</v>
+      </c>
+      <c r="D66" s="7">
         <v>5</v>
       </c>
       <c r="G66" s="1">
@@ -2719,51 +2620,44 @@
       <c r="N66" s="1">
         <v>1</v>
       </c>
-      <c r="P66" s="7"/>
-      <c r="R66" s="9"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="7">
+        <v>5</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1</v>
+      </c>
+      <c r="N67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D67" s="11">
-        <v>5</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1</v>
-      </c>
-      <c r="J67" s="1">
-        <v>1</v>
-      </c>
-      <c r="K67" s="1">
-        <v>1</v>
-      </c>
-      <c r="N67" s="1">
-        <v>1</v>
-      </c>
-      <c r="P67" s="7"/>
-      <c r="R67" s="9"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" s="5">
-        <v>5</v>
-      </c>
-      <c r="E68" s="1">
+      <c r="D68" s="7">
+        <v>5</v>
+      </c>
+      <c r="G68" s="1">
         <v>1</v>
       </c>
       <c r="J68" s="1">
@@ -2775,44 +2669,43 @@
       <c r="N68" s="1">
         <v>1</v>
       </c>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="6"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="5">
+        <v>5</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="N69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D69" s="5">
-        <v>5</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1</v>
-      </c>
-      <c r="K69" s="1">
-        <v>1</v>
-      </c>
-      <c r="N69" s="1">
-        <v>1</v>
-      </c>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="6"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D70" s="5">
         <v>5</v>
       </c>
@@ -2825,45 +2718,39 @@
       <c r="N70" s="1">
         <v>1</v>
       </c>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="6"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D71" s="5">
         <v>5</v>
       </c>
-      <c r="G71" s="1">
+      <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="K71" s="1">
         <v>1</v>
       </c>
-      <c r="L71" s="1">
-        <v>1</v>
-      </c>
-      <c r="O71" s="1">
-        <v>1</v>
-      </c>
-      <c r="R71" s="9"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D72" s="5">
         <v>5</v>
@@ -2871,15 +2758,17 @@
       <c r="G72" s="1">
         <v>1</v>
       </c>
+      <c r="K72" s="1">
+        <v>1</v>
+      </c>
       <c r="L72" s="1">
         <v>1</v>
       </c>
       <c r="O72" s="1">
         <v>1</v>
       </c>
-      <c r="R72" s="9"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
@@ -2887,44 +2776,45 @@
         <v>111</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D73" s="2">
-        <v>2.5</v>
+        <v>113</v>
+      </c>
+      <c r="D73" s="5">
+        <v>5</v>
       </c>
       <c r="G73" s="1">
         <v>1</v>
       </c>
-      <c r="K73" s="1">
+      <c r="L73" s="1">
         <v>1</v>
       </c>
       <c r="O73" s="1">
         <v>1</v>
       </c>
-      <c r="R73" s="9"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" s="5">
-        <v>5</v>
-      </c>
-      <c r="F74" s="1">
-        <v>1</v>
-      </c>
-      <c r="J74" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="6"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="D74" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1</v>
+      </c>
+      <c r="O74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -2932,7 +2822,7 @@
         <v>115</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D75" s="5">
         <v>5</v>
@@ -2940,12 +2830,11 @@
       <c r="F75" s="1">
         <v>1</v>
       </c>
-      <c r="L75" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="6"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
@@ -2953,7 +2842,7 @@
         <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D76" s="5">
         <v>5</v>
@@ -2964,33 +2853,28 @@
       <c r="L76" s="1">
         <v>1</v>
       </c>
-      <c r="Q76" s="6"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D77" s="2">
-        <v>2.5</v>
+        <v>117</v>
+      </c>
+      <c r="D77" s="5">
+        <v>5</v>
       </c>
       <c r="F77" s="1">
         <v>1</v>
       </c>
-      <c r="J77" s="1">
-        <v>1</v>
-      </c>
-      <c r="O77" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="6"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
@@ -2998,7 +2882,7 @@
         <v>118</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="D78" s="2">
         <v>2.5</v>
@@ -3012,55 +2896,54 @@
       <c r="O78" s="1">
         <v>1</v>
       </c>
-      <c r="Q78" s="6"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="J79" s="1">
+        <v>1</v>
+      </c>
+      <c r="O79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D79" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F79" s="1">
-        <v>1</v>
-      </c>
-      <c r="K79" s="1">
-        <v>1</v>
-      </c>
-      <c r="N79" s="1">
-        <v>1</v>
-      </c>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="6"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D80" s="2">
         <v>2.5</v>
       </c>
       <c r="F80" s="1">
         <v>1</v>
       </c>
-      <c r="J80" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="6"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K80" s="1">
+        <v>1</v>
+      </c>
+      <c r="N80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -3068,7 +2951,7 @@
         <v>121</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="D81" s="2">
         <v>2.5</v>
@@ -3076,30 +2959,31 @@
       <c r="F81" s="1">
         <v>1</v>
       </c>
-      <c r="Q81" s="6"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D82" s="5">
-        <v>5</v>
-      </c>
-      <c r="E82" s="1">
-        <v>1</v>
-      </c>
-      <c r="J82" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="6"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="L82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
@@ -3107,7 +2991,7 @@
         <v>125</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D83" s="5">
         <v>5</v>
@@ -3115,17 +2999,19 @@
       <c r="E83" s="1">
         <v>1</v>
       </c>
-      <c r="Q83" s="6"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="D84" s="5">
         <v>5</v>
@@ -3133,13 +3019,8 @@
       <c r="E84" s="1">
         <v>1</v>
       </c>
-      <c r="N84" s="1">
-        <v>1</v>
-      </c>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="6"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
@@ -3147,7 +3028,7 @@
         <v>126</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="D85" s="5">
         <v>5</v>
@@ -3155,12 +3036,14 @@
       <c r="E85" s="1">
         <v>1</v>
       </c>
-      <c r="O85" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="6"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L85" s="1">
+        <v>1</v>
+      </c>
+      <c r="N85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
@@ -3168,7 +3051,7 @@
         <v>126</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="D86" s="5">
         <v>5</v>
@@ -3176,37 +3059,34 @@
       <c r="E86" s="1">
         <v>1</v>
       </c>
-      <c r="N86" s="1">
-        <v>1</v>
-      </c>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="6"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="D87" s="5">
         <v>5</v>
       </c>
-      <c r="H87" s="1">
+      <c r="E87" s="1">
         <v>1</v>
       </c>
       <c r="L87" s="1">
         <v>1</v>
       </c>
-      <c r="O87" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q87" s="6"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="1" t="s">
         <v>11</v>
       </c>
@@ -3214,7 +3094,7 @@
         <v>28</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D88" s="5">
         <v>5</v>
@@ -3222,15 +3102,14 @@
       <c r="H88" s="1">
         <v>1</v>
       </c>
-      <c r="K88" s="1">
+      <c r="L88" s="1">
         <v>1</v>
       </c>
       <c r="O88" s="1">
         <v>1</v>
       </c>
-      <c r="Q88" s="6"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
@@ -3238,7 +3117,7 @@
         <v>28</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D89" s="5">
         <v>5</v>
@@ -3246,39 +3125,37 @@
       <c r="H89" s="1">
         <v>1</v>
       </c>
-      <c r="L89" s="1">
+      <c r="K89" s="1">
         <v>1</v>
       </c>
       <c r="O89" s="1">
         <v>1</v>
       </c>
-      <c r="Q89" s="6"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D90" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E90" s="1">
-        <v>1</v>
-      </c>
-      <c r="J90" s="1">
+        <v>130</v>
+      </c>
+      <c r="D90" s="5">
+        <v>5</v>
+      </c>
+      <c r="H90" s="1">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1">
         <v>1</v>
       </c>
       <c r="O90" s="1">
         <v>1</v>
       </c>
-      <c r="Q90" s="6"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
@@ -3286,70 +3163,58 @@
         <v>162</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="J91" s="1">
+        <v>1</v>
+      </c>
+      <c r="O91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E91" s="1">
-        <v>1</v>
-      </c>
-      <c r="J91" s="1">
-        <v>1</v>
-      </c>
-      <c r="O91" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="6"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C92" s="2"/>
       <c r="D92" s="2">
         <v>2.5</v>
       </c>
-      <c r="H92" s="1">
+      <c r="E92" s="1">
         <v>1</v>
       </c>
       <c r="J92" s="1">
         <v>1</v>
       </c>
-      <c r="L92" s="1">
-        <v>1</v>
-      </c>
-      <c r="M92" s="1">
-        <v>1</v>
-      </c>
       <c r="O92" s="1">
         <v>1</v>
       </c>
-      <c r="Q92" s="6"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" s="5">
-        <v>5</v>
-      </c>
-      <c r="H93" s="1">
-        <v>1</v>
-      </c>
-      <c r="J93" s="1">
-        <v>1</v>
-      </c>
-      <c r="K93" s="1">
+        <v>128</v>
+      </c>
+      <c r="D93" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E93" s="1">
         <v>1</v>
       </c>
       <c r="L93" s="1">
@@ -3358,73 +3223,71 @@
       <c r="M93" s="1">
         <v>1</v>
       </c>
-      <c r="N93" s="1">
-        <v>1</v>
-      </c>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="6"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D94" s="5">
-        <v>5</v>
-      </c>
-      <c r="H94" s="1">
+        <v>170</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="L94" s="1">
         <v>1</v>
       </c>
       <c r="M94" s="1">
         <v>1</v>
       </c>
-      <c r="O94" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q94" s="6"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" s="2">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H95" s="1">
         <v>1</v>
       </c>
+      <c r="J95" s="1">
+        <v>1</v>
+      </c>
+      <c r="L95" s="1">
+        <v>1</v>
+      </c>
       <c r="M95" s="1">
         <v>1</v>
       </c>
-      <c r="N95" s="1">
-        <v>1</v>
-      </c>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="6"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="11">
-        <v>5</v>
-      </c>
-      <c r="G96" s="1">
+        <v>29</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D96" s="5">
+        <v>5</v>
+      </c>
+      <c r="H96" s="1">
         <v>1</v>
       </c>
       <c r="J96" s="1">
@@ -3433,32 +3296,30 @@
       <c r="K96" s="1">
         <v>1</v>
       </c>
+      <c r="L96" s="1">
+        <v>1</v>
+      </c>
       <c r="M96" s="1">
         <v>1</v>
       </c>
       <c r="N96" s="1">
         <v>1</v>
       </c>
-      <c r="P96" s="7"/>
-      <c r="R96" s="9"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D97" s="11">
-        <v>5</v>
-      </c>
-      <c r="G97" s="1">
-        <v>1</v>
-      </c>
-      <c r="J97" s="1">
+        <v>132</v>
+      </c>
+      <c r="D97" s="5">
+        <v>5</v>
+      </c>
+      <c r="H97" s="1">
         <v>1</v>
       </c>
       <c r="M97" s="1">
@@ -3467,45 +3328,40 @@
       <c r="O97" s="1">
         <v>1</v>
       </c>
-      <c r="R97" s="9"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D98" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="G98" s="1">
-        <v>1</v>
-      </c>
-      <c r="J98" s="1">
+        <v>161</v>
+      </c>
+      <c r="D98" s="2">
+        <v>5</v>
+      </c>
+      <c r="H98" s="1">
         <v>1</v>
       </c>
       <c r="M98" s="1">
         <v>1</v>
       </c>
-      <c r="O98" s="1">
-        <v>1</v>
-      </c>
-      <c r="R98" s="9"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="11">
-        <v>2.5</v>
+      <c r="D99" s="7">
+        <v>5</v>
       </c>
       <c r="G99" s="1">
         <v>1</v>
@@ -3513,59 +3369,59 @@
       <c r="J99" s="1">
         <v>1</v>
       </c>
+      <c r="K99" s="1">
+        <v>1</v>
+      </c>
       <c r="M99" s="1">
         <v>1</v>
       </c>
       <c r="N99" s="1">
         <v>1</v>
       </c>
-      <c r="P99" s="7"/>
-      <c r="R99" s="9"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="5">
-        <v>5</v>
-      </c>
-      <c r="F100" s="1">
-        <v>1</v>
-      </c>
-      <c r="K100" s="1">
-        <v>1</v>
-      </c>
-      <c r="L100" s="1">
+        <v>134</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D100" s="7">
+        <v>5</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="J100" s="1">
         <v>1</v>
       </c>
       <c r="M100" s="1">
         <v>1</v>
       </c>
-      <c r="N100" s="1">
-        <v>1</v>
-      </c>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="6"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="5">
-        <v>5</v>
-      </c>
-      <c r="H101" s="1">
-        <v>1</v>
-      </c>
-      <c r="L101" s="1">
+        <v>135</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D101" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="J101" s="1">
         <v>1</v>
       </c>
       <c r="M101" s="1">
@@ -3574,249 +3430,235 @@
       <c r="O101" s="1">
         <v>1</v>
       </c>
-      <c r="Q101" s="6"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="C102" s="2"/>
-      <c r="D102" s="5">
-        <v>5</v>
-      </c>
-      <c r="F102" s="1">
+      <c r="D102" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="J102" s="1">
         <v>1</v>
       </c>
       <c r="M102" s="1">
         <v>1</v>
       </c>
-      <c r="O102" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q102" s="6"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="5">
+        <v>5</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
+        <v>1</v>
+      </c>
+      <c r="L103" s="1">
+        <v>1</v>
+      </c>
+      <c r="M103" s="1">
+        <v>1</v>
+      </c>
+      <c r="N103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="5">
+        <v>5</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1</v>
+      </c>
+      <c r="L104" s="1">
+        <v>1</v>
+      </c>
+      <c r="M104" s="1">
+        <v>1</v>
+      </c>
+      <c r="O104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="5">
+        <v>5</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+      <c r="M105" s="1">
+        <v>1</v>
+      </c>
+      <c r="O105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E103" s="1">
-        <v>1</v>
-      </c>
-      <c r="J103" s="1">
-        <v>1</v>
-      </c>
-      <c r="K103" s="1">
-        <v>1</v>
-      </c>
-      <c r="M103" s="1">
-        <v>1</v>
-      </c>
-      <c r="N103" s="1">
-        <v>1</v>
-      </c>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="6"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B104" s="2" t="s">
+      <c r="C106" s="2"/>
+      <c r="D106" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="J106" s="1">
+        <v>1</v>
+      </c>
+      <c r="K106" s="1">
+        <v>1</v>
+      </c>
+      <c r="M106" s="1">
+        <v>1</v>
+      </c>
+      <c r="N106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="G104" s="1">
-        <v>1</v>
-      </c>
-      <c r="M104" s="1">
-        <v>1</v>
-      </c>
-      <c r="O104" s="1">
-        <v>1</v>
-      </c>
-      <c r="R104" s="9"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B105" s="2" t="s">
+      <c r="C107" s="2"/>
+      <c r="D107" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1</v>
+      </c>
+      <c r="M107" s="1">
+        <v>1</v>
+      </c>
+      <c r="O107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D105" s="2">
-        <v>5</v>
-      </c>
-      <c r="H105" s="1">
-        <v>1</v>
-      </c>
-      <c r="M105" s="1">
-        <v>1</v>
-      </c>
-      <c r="O105" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q105" s="6"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="2" t="s">
+      <c r="D108" s="2">
+        <v>5</v>
+      </c>
+      <c r="H108" s="1">
+        <v>1</v>
+      </c>
+      <c r="M108" s="1">
+        <v>1</v>
+      </c>
+      <c r="O108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D106" s="2">
-        <v>5</v>
-      </c>
-      <c r="H106" s="1">
-        <v>1</v>
-      </c>
-      <c r="K106" s="1">
-        <v>1</v>
-      </c>
-      <c r="L106" s="1">
-        <v>1</v>
-      </c>
-      <c r="M106" s="1">
-        <v>1</v>
-      </c>
-      <c r="O106" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="6"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" s="2" t="s">
+      <c r="D109" s="2">
+        <v>5</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1</v>
+      </c>
+      <c r="K109" s="1">
+        <v>1</v>
+      </c>
+      <c r="L109" s="1">
+        <v>1</v>
+      </c>
+      <c r="M109" s="1">
+        <v>1</v>
+      </c>
+      <c r="O109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D107" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="H107" s="1">
-        <v>1</v>
-      </c>
-      <c r="J107" s="1">
-        <v>1</v>
-      </c>
-      <c r="M107" s="1">
-        <v>1</v>
-      </c>
-      <c r="N107" s="1">
-        <v>1</v>
-      </c>
-      <c r="P107" s="7"/>
-      <c r="Q107" s="6"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B108" s="2" t="s">
+      <c r="D110" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H110" s="1">
+        <v>1</v>
+      </c>
+      <c r="J110" s="1">
+        <v>1</v>
+      </c>
+      <c r="M110" s="1">
+        <v>1</v>
+      </c>
+      <c r="N110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="5">
-        <v>5</v>
-      </c>
-      <c r="E108" s="1">
-        <v>1</v>
-      </c>
-      <c r="L108" s="1">
-        <v>1</v>
-      </c>
-      <c r="M108" s="1">
-        <v>1</v>
-      </c>
-      <c r="N108" s="1">
-        <v>1</v>
-      </c>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="6"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="5">
-        <v>5</v>
-      </c>
-      <c r="E109" s="1">
-        <v>1</v>
-      </c>
-      <c r="J109" s="1">
-        <v>1</v>
-      </c>
-      <c r="K109" s="1">
-        <v>1</v>
-      </c>
-      <c r="M109" s="1">
-        <v>1</v>
-      </c>
-      <c r="N109" s="1">
-        <v>1</v>
-      </c>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="6"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E110" s="1">
-        <v>1</v>
-      </c>
-      <c r="L110" s="1">
-        <v>1</v>
-      </c>
-      <c r="M110" s="1">
-        <v>1</v>
-      </c>
-      <c r="O110" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="6"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="5">
@@ -3831,23 +3673,22 @@
       <c r="M111" s="1">
         <v>1</v>
       </c>
-      <c r="O111" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q111" s="6"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="C112" s="2"/>
-      <c r="D112" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="G112" s="1">
+      <c r="D112" s="5">
+        <v>5</v>
+      </c>
+      <c r="E112" s="1">
         <v>1</v>
       </c>
       <c r="J112" s="1">
@@ -3859,52 +3700,49 @@
       <c r="M112" s="1">
         <v>1</v>
       </c>
-      <c r="O112" s="1">
-        <v>1</v>
-      </c>
-      <c r="R112" s="9"/>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C113" s="2"/>
-      <c r="D113" s="11">
-        <v>5</v>
-      </c>
-      <c r="G113" s="1">
-        <v>1</v>
-      </c>
-      <c r="J113" s="1">
+      <c r="D113" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="L113" s="1">
         <v>1</v>
       </c>
       <c r="M113" s="1">
         <v>1</v>
       </c>
-      <c r="N113" s="1">
-        <v>1</v>
-      </c>
-      <c r="P113" s="7"/>
-      <c r="R113" s="9"/>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="5">
         <v>5</v>
       </c>
-      <c r="G114" s="1">
-        <v>1</v>
-      </c>
-      <c r="K114" s="1">
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="L114" s="1">
         <v>1</v>
       </c>
       <c r="M114" s="1">
@@ -3913,20 +3751,19 @@
       <c r="O114" s="1">
         <v>1</v>
       </c>
-      <c r="R114" s="9"/>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C115" s="2"/>
-      <c r="D115" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="I115" s="1">
+      <c r="D115" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="G115" s="1">
         <v>1</v>
       </c>
       <c r="J115" s="1">
@@ -3941,71 +3778,73 @@
       <c r="O115" s="1">
         <v>1</v>
       </c>
-      <c r="Q115" s="6"/>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C116" s="2"/>
-      <c r="D116" s="5">
-        <v>5</v>
-      </c>
-      <c r="F116" s="1">
+      <c r="D116" s="7">
+        <v>5</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1</v>
+      </c>
+      <c r="J116" s="1">
         <v>1</v>
       </c>
       <c r="M116" s="1">
         <v>1</v>
       </c>
-      <c r="O116" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q116" s="6"/>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="N116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="5">
         <v>5</v>
       </c>
-      <c r="F117" s="1">
-        <v>1</v>
-      </c>
-      <c r="J117" s="1">
+      <c r="G117" s="1">
+        <v>1</v>
+      </c>
+      <c r="K117" s="1">
         <v>1</v>
       </c>
       <c r="M117" s="1">
         <v>1</v>
       </c>
-      <c r="N117" s="1">
-        <v>1</v>
-      </c>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="6"/>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="C118" s="2"/>
-      <c r="D118" s="5">
-        <v>5</v>
-      </c>
-      <c r="F118" s="1">
-        <v>1</v>
-      </c>
-      <c r="L118" s="1">
+      <c r="D118" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I118" s="1">
+        <v>1</v>
+      </c>
+      <c r="J118" s="1">
+        <v>1</v>
+      </c>
+      <c r="K118" s="1">
         <v>1</v>
       </c>
       <c r="M118" s="1">
@@ -4014,26 +3853,19 @@
       <c r="O118" s="1">
         <v>1</v>
       </c>
-      <c r="Q118" s="6"/>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="5">
         <v>5</v>
       </c>
-      <c r="H119" s="1">
-        <v>1</v>
-      </c>
-      <c r="K119" s="1">
-        <v>1</v>
-      </c>
-      <c r="L119" s="1">
+      <c r="F119" s="1">
         <v>1</v>
       </c>
       <c r="M119" s="1">
@@ -4042,101 +3874,169 @@
       <c r="O119" s="1">
         <v>1</v>
       </c>
-      <c r="Q119" s="6"/>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="5">
+        <v>5</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1">
+        <v>1</v>
+      </c>
+      <c r="M120" s="1">
+        <v>1</v>
+      </c>
+      <c r="N120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="5">
+        <v>5</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="L121" s="1">
+        <v>1</v>
+      </c>
+      <c r="M121" s="1">
+        <v>1</v>
+      </c>
+      <c r="O121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="5">
+        <v>5</v>
+      </c>
+      <c r="H122" s="1">
+        <v>1</v>
+      </c>
+      <c r="K122" s="1">
+        <v>1</v>
+      </c>
+      <c r="L122" s="1">
+        <v>1</v>
+      </c>
+      <c r="M122" s="1">
+        <v>1</v>
+      </c>
+      <c r="O122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D120" s="2">
-        <v>5</v>
-      </c>
-      <c r="H120" s="1">
-        <v>1</v>
-      </c>
-      <c r="J120" s="1">
-        <v>1</v>
-      </c>
-      <c r="M120" s="1">
-        <v>1</v>
-      </c>
-      <c r="N120" s="1">
-        <v>1</v>
-      </c>
-      <c r="P120" s="7"/>
-      <c r="Q120" s="6"/>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B121" s="2" t="s">
+      <c r="D123" s="2">
+        <v>5</v>
+      </c>
+      <c r="H123" s="1">
+        <v>1</v>
+      </c>
+      <c r="J123" s="1">
+        <v>1</v>
+      </c>
+      <c r="M123" s="1">
+        <v>1</v>
+      </c>
+      <c r="N123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D121" s="2">
-        <v>5</v>
-      </c>
-      <c r="H121" s="1">
-        <v>1</v>
-      </c>
-      <c r="K121" s="1">
-        <v>1</v>
-      </c>
-      <c r="M121" s="1">
-        <v>1</v>
-      </c>
-      <c r="N121" s="1">
-        <v>1</v>
-      </c>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="6"/>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" s="2" t="s">
+      <c r="D124" s="2">
+        <v>5</v>
+      </c>
+      <c r="H124" s="1">
+        <v>1</v>
+      </c>
+      <c r="K124" s="1">
+        <v>1</v>
+      </c>
+      <c r="M124" s="1">
+        <v>1</v>
+      </c>
+      <c r="N124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D122" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="H122" s="1">
-        <v>1</v>
-      </c>
-      <c r="J122" s="1">
-        <v>1</v>
-      </c>
-      <c r="M122" s="1">
-        <v>1</v>
-      </c>
-      <c r="N122" s="1">
-        <v>1</v>
-      </c>
-      <c r="P122" s="7"/>
-      <c r="Q122" s="6"/>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C123" s="2"/>
-      <c r="D123" s="11"/>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C124" s="2"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C130" s="4"/>
+      <c r="D125" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H125" s="1">
+        <v>1</v>
+      </c>
+      <c r="J125" s="1">
+        <v>1</v>
+      </c>
+      <c r="M125" s="1">
+        <v>1</v>
+      </c>
+      <c r="N125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="C126" s="2"/>
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="C127" s="2"/>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O122" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\work\tc\lagrange-research\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAD20D1-86BF-4EFC-8950-49CEF035295B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D206E134-AC23-440F-85E4-12E9466499C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="754" yWindow="754" windowWidth="24943" windowHeight="14469" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保底" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">保底!$A$1:$O$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">保底!$A$1:$O$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="182">
   <si>
     <t>SC002</t>
   </si>
@@ -721,6 +721,42 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼蜥级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型(A)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击型(B)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特种型(C)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普鲁图斯之盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦普尔1号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预警型(B)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干扰型(A)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -783,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,9 +830,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1092,10 +1125,10 @@
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D102" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C122" sqref="C122"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3"/>
@@ -1103,7 +1136,7 @@
     <col min="1" max="1" width="10.61328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3828125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.3828125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3828125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.3828125" style="5" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1117,7 +1150,7 @@
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>166</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1162,7 +1195,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="1">
@@ -1186,7 +1219,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="H3" s="1">
@@ -1204,7 +1237,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="1">
@@ -1222,7 +1255,7 @@
         <v>171</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>172</v>
       </c>
       <c r="E5" s="1">
@@ -1267,7 +1300,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="1">
@@ -1291,7 +1324,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="G8" s="1">
@@ -1312,7 +1345,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>2.5</v>
       </c>
       <c r="H9" s="1">
@@ -1336,7 +1369,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="E10" s="1">
@@ -1351,14 +1384,14 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="5">
-        <v>1</v>
+      <c r="D11" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1366,7 +1399,10 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="L11" s="1">
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1375,16 +1411,16 @@
         <v>149</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="1">
@@ -1393,44 +1429,42 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="E13" s="1">
+        <v>150</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
         <v>1</v>
       </c>
       <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="5">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4">
         <v>2.5</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>1</v>
       </c>
       <c r="O14" s="1">
@@ -1442,61 +1476,64 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="5">
+        <v>49</v>
+      </c>
+      <c r="D16" s="4">
         <v>2.5</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2.5</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
       </c>
       <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1508,9 +1545,9 @@
         <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="5">
+        <v>51</v>
+      </c>
+      <c r="D18" s="4">
         <v>5</v>
       </c>
       <c r="G18" s="1">
@@ -1528,9 +1565,9 @@
         <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="5">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4">
         <v>5</v>
       </c>
       <c r="G19" s="1">
@@ -1545,24 +1582,18 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1">
+        <v>53</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1574,9 +1605,9 @@
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="5">
+        <v>56</v>
+      </c>
+      <c r="D21" s="4">
         <v>2.5</v>
       </c>
       <c r="F21" s="1">
@@ -1600,12 +1631,15 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="5">
+        <v>57</v>
+      </c>
+      <c r="D22" s="4">
         <v>2.5</v>
       </c>
       <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
         <v>1</v>
       </c>
       <c r="K22" s="1">
@@ -1617,41 +1651,41 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="5">
+        <v>58</v>
+      </c>
+      <c r="D23" s="4">
         <v>2.5</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="N23" s="1">
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="5">
+        <v>61</v>
+      </c>
+      <c r="D24" s="4">
         <v>2.5</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1">
         <v>1</v>
       </c>
       <c r="N24" s="1">
@@ -1666,15 +1700,15 @@
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="5">
+        <v>62</v>
+      </c>
+      <c r="D25" s="4">
         <v>2.5</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="J25" s="1">
+      <c r="L25" s="1">
         <v>1</v>
       </c>
       <c r="N25" s="1">
@@ -1686,15 +1720,15 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E26" s="1">
+        <v>63</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="J26" s="1">
@@ -1712,10 +1746,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0.5</v>
+        <v>64</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.5</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1735,12 +1769,15 @@
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="5">
+        <v>65</v>
+      </c>
+      <c r="D28" s="4">
         <v>0.5</v>
       </c>
       <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
         <v>1</v>
       </c>
       <c r="N28" s="1">
@@ -1752,38 +1789,32 @@
         <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="5">
-        <v>2.5</v>
+        <v>66</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.5</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
-      <c r="O29" s="1">
+      <c r="N29" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="5">
+        <v>68</v>
+      </c>
+      <c r="D30" s="4">
         <v>2.5</v>
       </c>
       <c r="E30" s="1">
@@ -1801,15 +1832,15 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="5">
+        <v>65</v>
+      </c>
+      <c r="D31" s="4">
         <v>2.5</v>
       </c>
       <c r="E31" s="1">
@@ -1830,15 +1861,15 @@
         <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="5">
-        <v>5</v>
-      </c>
-      <c r="H32" s="1">
+        <v>69</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="J32" s="1">
@@ -1847,7 +1878,7 @@
       <c r="K32" s="1">
         <v>1</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1859,9 +1890,9 @@
         <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="5">
+        <v>71</v>
+      </c>
+      <c r="D33" s="4">
         <v>5</v>
       </c>
       <c r="H33" s="1">
@@ -1870,7 +1901,10 @@
       <c r="J33" s="1">
         <v>1</v>
       </c>
-      <c r="O33" s="1">
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1882,32 +1916,35 @@
         <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="5">
+        <v>72</v>
+      </c>
+      <c r="D34" s="4">
         <v>5</v>
       </c>
       <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="5">
+        <v>73</v>
+      </c>
+      <c r="D35" s="4">
         <v>5</v>
       </c>
       <c r="H35" s="1">
-        <v>1</v>
-      </c>
-      <c r="L35" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1916,38 +1953,32 @@
         <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="5">
+        <v>160</v>
+      </c>
+      <c r="D36" s="4">
         <v>5</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
       </c>
-      <c r="J36" s="1">
-        <v>1</v>
-      </c>
       <c r="L36" s="1">
-        <v>1</v>
-      </c>
-      <c r="N36" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="5">
+        <v>71</v>
+      </c>
+      <c r="D37" s="4">
         <v>5</v>
       </c>
       <c r="H37" s="1">
@@ -1956,7 +1987,10 @@
       <c r="J37" s="1">
         <v>1</v>
       </c>
-      <c r="O37" s="1">
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1968,12 +2002,15 @@
         <v>25</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="5">
+        <v>74</v>
+      </c>
+      <c r="D38" s="4">
         <v>5</v>
       </c>
       <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
         <v>1</v>
       </c>
       <c r="O38" s="1">
@@ -1982,18 +2019,21 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="5">
+        <v>75</v>
+      </c>
+      <c r="D39" s="4">
         <v>5</v>
       </c>
       <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="O39" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2002,21 +2042,15 @@
         <v>15</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="7">
-        <v>3</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1">
-        <v>1</v>
-      </c>
-      <c r="O40" s="1">
+        <v>76</v>
+      </c>
+      <c r="D40" s="4">
+        <v>5</v>
+      </c>
+      <c r="H40" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2028,9 +2062,9 @@
         <v>167</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="7">
+        <v>71</v>
+      </c>
+      <c r="D41" s="6">
         <v>3</v>
       </c>
       <c r="G41" s="1">
@@ -2045,24 +2079,21 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F42" s="1">
+        <v>119</v>
+      </c>
+      <c r="D42" s="6">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1">
         <v>1</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1">
         <v>1</v>
       </c>
       <c r="O42" s="1">
@@ -2074,12 +2105,12 @@
         <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="5">
+        <v>61</v>
+      </c>
+      <c r="D43" s="4">
         <v>2.5</v>
       </c>
       <c r="F43" s="1">
@@ -2100,18 +2131,21 @@
         <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="5">
-        <v>5</v>
-      </c>
-      <c r="E44" s="1">
+        <v>79</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F44" s="1">
         <v>1</v>
       </c>
       <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
         <v>1</v>
       </c>
       <c r="O44" s="1">
@@ -2123,12 +2157,12 @@
         <v>13</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="5">
+        <v>45</v>
+      </c>
+      <c r="D45" s="4">
         <v>5</v>
       </c>
       <c r="E45" s="1">
@@ -2137,7 +2171,7 @@
       <c r="J45" s="1">
         <v>1</v>
       </c>
-      <c r="N45" s="1">
+      <c r="O45" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2146,15 +2180,18 @@
         <v>13</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="G46" s="1">
+        <v>80</v>
+      </c>
+      <c r="D46" s="4">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
         <v>1</v>
       </c>
       <c r="N46" s="1">
@@ -2169,15 +2206,12 @@
         <v>26</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="5">
+        <v>49</v>
+      </c>
+      <c r="D47" s="4">
         <v>2.5</v>
       </c>
       <c r="G47" s="1">
-        <v>1</v>
-      </c>
-      <c r="L47" s="1">
         <v>1</v>
       </c>
       <c r="N47" s="1">
@@ -2192,21 +2226,18 @@
         <v>26</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="7">
+        <v>83</v>
+      </c>
+      <c r="D48" s="4">
         <v>2.5</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
       </c>
-      <c r="J48" s="1">
-        <v>1</v>
-      </c>
-      <c r="K48" s="1">
-        <v>1</v>
-      </c>
-      <c r="O48" s="1">
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2215,13 +2246,13 @@
         <v>13</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="7">
-        <v>5</v>
+        <v>84</v>
+      </c>
+      <c r="D49" s="6">
+        <v>2.5</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -2229,7 +2260,10 @@
       <c r="J49" s="1">
         <v>1</v>
       </c>
-      <c r="N49" s="1">
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2241,9 +2275,9 @@
         <v>85</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="7">
+        <v>86</v>
+      </c>
+      <c r="D50" s="6">
         <v>5</v>
       </c>
       <c r="G50" s="1">
@@ -2264,18 +2298,15 @@
         <v>85</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="5">
+        <v>87</v>
+      </c>
+      <c r="D51" s="6">
         <v>5</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
       </c>
-      <c r="K51" s="1">
-        <v>1</v>
-      </c>
-      <c r="L51" s="1">
+      <c r="J51" s="1">
         <v>1</v>
       </c>
       <c r="N51" s="1">
@@ -2284,21 +2315,27 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" s="5">
-        <v>5</v>
-      </c>
-      <c r="F52" s="1">
+        <v>88</v>
+      </c>
+      <c r="D52" s="4">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1">
         <v>1</v>
       </c>
       <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2310,9 +2347,9 @@
         <v>89</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="5">
+        <v>90</v>
+      </c>
+      <c r="D53" s="4">
         <v>5</v>
       </c>
       <c r="F53" s="1">
@@ -2324,27 +2361,21 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="5">
-        <v>2.5</v>
+        <v>91</v>
+      </c>
+      <c r="D54" s="4">
+        <v>5</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
       </c>
-      <c r="J54" s="1">
-        <v>1</v>
-      </c>
-      <c r="K54" s="1">
-        <v>1</v>
-      </c>
-      <c r="O54" s="1">
+      <c r="L54" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2356,9 +2387,9 @@
         <v>92</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="5">
+        <v>93</v>
+      </c>
+      <c r="D55" s="4">
         <v>2.5</v>
       </c>
       <c r="F55" s="1">
@@ -2382,18 +2413,18 @@
         <v>92</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="5">
+        <v>94</v>
+      </c>
+      <c r="D56" s="4">
         <v>2.5</v>
       </c>
       <c r="F56" s="1">
         <v>1</v>
       </c>
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
       <c r="K56" s="1">
-        <v>1</v>
-      </c>
-      <c r="L56" s="1">
         <v>1</v>
       </c>
       <c r="O56" s="1">
@@ -2405,18 +2436,24 @@
         <v>13</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="5">
-        <v>5</v>
-      </c>
-      <c r="E57" s="1">
+        <v>58</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1">
         <v>1</v>
       </c>
       <c r="L57" s="1">
+        <v>1</v>
+      </c>
+      <c r="O57" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2428,9 +2465,9 @@
         <v>95</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="5">
+        <v>96</v>
+      </c>
+      <c r="D58" s="4">
         <v>5</v>
       </c>
       <c r="E58" s="1">
@@ -2448,9 +2485,9 @@
         <v>95</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D59" s="5">
+        <v>97</v>
+      </c>
+      <c r="D59" s="4">
         <v>5</v>
       </c>
       <c r="E59" s="1">
@@ -2465,21 +2502,18 @@
         <v>13</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="5">
+        <v>98</v>
+      </c>
+      <c r="D60" s="4">
         <v>5</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
       </c>
       <c r="L60" s="1">
-        <v>1</v>
-      </c>
-      <c r="O60" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2491,18 +2525,15 @@
         <v>99</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="5">
+        <v>100</v>
+      </c>
+      <c r="D61" s="4">
         <v>5</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
       </c>
-      <c r="J61" s="1">
-        <v>1</v>
-      </c>
-      <c r="K61" s="1">
+      <c r="L61" s="1">
         <v>1</v>
       </c>
       <c r="O61" s="1">
@@ -2517,12 +2548,15 @@
         <v>99</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" s="5">
+        <v>57</v>
+      </c>
+      <c r="D62" s="4">
         <v>5</v>
       </c>
       <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1">
         <v>1</v>
       </c>
       <c r="K62" s="1">
@@ -2534,21 +2568,21 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="5">
-        <v>5</v>
-      </c>
-      <c r="H63" s="1">
-        <v>1</v>
-      </c>
-      <c r="L63" s="1">
+        <v>101</v>
+      </c>
+      <c r="D63" s="4">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
         <v>1</v>
       </c>
       <c r="O63" s="1">
@@ -2557,15 +2591,15 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" s="5">
+        <v>61</v>
+      </c>
+      <c r="D64" s="4">
         <v>5</v>
       </c>
       <c r="H64" s="1">
@@ -2574,7 +2608,7 @@
       <c r="L64" s="1">
         <v>1</v>
       </c>
-      <c r="N64" s="1">
+      <c r="O64" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2586,38 +2620,38 @@
         <v>27</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" s="5">
+        <v>102</v>
+      </c>
+      <c r="D65" s="4">
         <v>5</v>
       </c>
       <c r="H65" s="1">
         <v>1</v>
       </c>
       <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="N65" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D66" s="7">
-        <v>5</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1</v>
-      </c>
-      <c r="J66" s="1">
-        <v>1</v>
-      </c>
-      <c r="N66" s="1">
+        <v>103</v>
+      </c>
+      <c r="D66" s="4">
+        <v>5</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2629,9 +2663,9 @@
         <v>104</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D67" s="7">
+        <v>105</v>
+      </c>
+      <c r="D67" s="6">
         <v>5</v>
       </c>
       <c r="G67" s="1">
@@ -2646,24 +2680,21 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D68" s="7">
+        <v>106</v>
+      </c>
+      <c r="D68" s="6">
         <v>5</v>
       </c>
       <c r="G68" s="1">
         <v>1</v>
       </c>
       <c r="J68" s="1">
-        <v>1</v>
-      </c>
-      <c r="K68" s="1">
         <v>1</v>
       </c>
       <c r="N68" s="1">
@@ -2672,18 +2703,18 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D69" s="5">
-        <v>5</v>
-      </c>
-      <c r="E69" s="1">
+        <v>107</v>
+      </c>
+      <c r="D69" s="6">
+        <v>5</v>
+      </c>
+      <c r="G69" s="1">
         <v>1</v>
       </c>
       <c r="J69" s="1">
@@ -2701,15 +2732,18 @@
         <v>11</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D70" s="5">
+        <v>110</v>
+      </c>
+      <c r="D70" s="4">
         <v>5</v>
       </c>
       <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1">
         <v>1</v>
       </c>
       <c r="K70" s="1">
@@ -2721,15 +2755,15 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" s="5">
+        <v>102</v>
+      </c>
+      <c r="D71" s="4">
         <v>5</v>
       </c>
       <c r="E71" s="1">
@@ -2747,41 +2781,41 @@
         <v>12</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D72" s="5">
-        <v>5</v>
-      </c>
-      <c r="G72" s="1">
+        <v>88</v>
+      </c>
+      <c r="D72" s="4">
+        <v>5</v>
+      </c>
+      <c r="E72" s="1">
         <v>1</v>
       </c>
       <c r="K72" s="1">
         <v>1</v>
       </c>
-      <c r="L72" s="1">
-        <v>1</v>
-      </c>
-      <c r="O72" s="1">
+      <c r="N72" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D73" s="5">
+        <v>112</v>
+      </c>
+      <c r="D73" s="4">
         <v>5</v>
       </c>
       <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
         <v>1</v>
       </c>
       <c r="L73" s="1">
@@ -2799,15 +2833,15 @@
         <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D74" s="2">
-        <v>2.5</v>
+        <v>113</v>
+      </c>
+      <c r="D74" s="4">
+        <v>5</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
       </c>
-      <c r="K74" s="1">
+      <c r="L74" s="1">
         <v>1</v>
       </c>
       <c r="O74" s="1">
@@ -2819,18 +2853,21 @@
         <v>11</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75" s="5">
-        <v>5</v>
-      </c>
-      <c r="F75" s="1">
-        <v>1</v>
-      </c>
-      <c r="J75" s="1">
+        <v>114</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1</v>
+      </c>
+      <c r="O75" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2842,15 +2879,15 @@
         <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" s="5">
+        <v>116</v>
+      </c>
+      <c r="D76" s="4">
         <v>5</v>
       </c>
       <c r="F76" s="1">
         <v>1</v>
       </c>
-      <c r="L76" s="1">
+      <c r="J76" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2862,9 +2899,9 @@
         <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D77" s="5">
+        <v>97</v>
+      </c>
+      <c r="D77" s="4">
         <v>5</v>
       </c>
       <c r="F77" s="1">
@@ -2879,21 +2916,18 @@
         <v>11</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D78" s="2">
-        <v>2.5</v>
+        <v>117</v>
+      </c>
+      <c r="D78" s="4">
+        <v>5</v>
       </c>
       <c r="F78" s="1">
         <v>1</v>
       </c>
-      <c r="J78" s="1">
-        <v>1</v>
-      </c>
-      <c r="O78" s="1">
+      <c r="L78" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2905,7 +2939,7 @@
         <v>118</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="D79" s="2">
         <v>2.5</v>
@@ -2922,13 +2956,13 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D80" s="2">
         <v>2.5</v>
@@ -2936,22 +2970,22 @@
       <c r="F80" s="1">
         <v>1</v>
       </c>
-      <c r="K80" s="1">
-        <v>1</v>
-      </c>
-      <c r="N80" s="1">
+      <c r="J80" s="1">
+        <v>1</v>
+      </c>
+      <c r="O80" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D81" s="2">
         <v>2.5</v>
@@ -2959,7 +2993,10 @@
       <c r="F81" s="1">
         <v>1</v>
       </c>
-      <c r="J81" s="1">
+      <c r="K81" s="1">
+        <v>1</v>
+      </c>
+      <c r="N81" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2971,7 +3008,7 @@
         <v>121</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="D82" s="2">
         <v>2.5</v>
@@ -2979,7 +3016,7 @@
       <c r="F82" s="1">
         <v>1</v>
       </c>
-      <c r="L82" s="1">
+      <c r="J82" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2988,18 +3025,18 @@
         <v>11</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D83" s="5">
-        <v>5</v>
-      </c>
-      <c r="E83" s="1">
-        <v>1</v>
-      </c>
-      <c r="J83" s="1">
+        <v>62</v>
+      </c>
+      <c r="D83" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="L83" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3011,12 +3048,15 @@
         <v>125</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D84" s="5">
+        <v>123</v>
+      </c>
+      <c r="D84" s="4">
         <v>5</v>
       </c>
       <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="J84" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3025,21 +3065,15 @@
         <v>11</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D85" s="5">
+        <v>124</v>
+      </c>
+      <c r="D85" s="4">
         <v>5</v>
       </c>
       <c r="E85" s="1">
-        <v>1</v>
-      </c>
-      <c r="L85" s="1">
-        <v>1</v>
-      </c>
-      <c r="N85" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3051,15 +3085,18 @@
         <v>126</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D86" s="5">
+        <v>71</v>
+      </c>
+      <c r="D86" s="4">
         <v>5</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
       </c>
-      <c r="O86" s="1">
+      <c r="L86" s="1">
+        <v>1</v>
+      </c>
+      <c r="N86" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3071,18 +3108,15 @@
         <v>126</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D87" s="5">
+        <v>127</v>
+      </c>
+      <c r="D87" s="4">
         <v>5</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
       </c>
-      <c r="L87" s="1">
-        <v>1</v>
-      </c>
-      <c r="N87" s="1">
+      <c r="O87" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3091,21 +3125,21 @@
         <v>11</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D88" s="5">
-        <v>5</v>
-      </c>
-      <c r="H88" s="1">
+        <v>88</v>
+      </c>
+      <c r="D88" s="4">
+        <v>5</v>
+      </c>
+      <c r="E88" s="1">
         <v>1</v>
       </c>
       <c r="L88" s="1">
         <v>1</v>
       </c>
-      <c r="O88" s="1">
+      <c r="N88" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3117,15 +3151,15 @@
         <v>28</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D89" s="5">
+        <v>128</v>
+      </c>
+      <c r="D89" s="4">
         <v>5</v>
       </c>
       <c r="H89" s="1">
         <v>1</v>
       </c>
-      <c r="K89" s="1">
+      <c r="L89" s="1">
         <v>1</v>
       </c>
       <c r="O89" s="1">
@@ -3140,15 +3174,15 @@
         <v>28</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D90" s="5">
+        <v>129</v>
+      </c>
+      <c r="D90" s="4">
         <v>5</v>
       </c>
       <c r="H90" s="1">
         <v>1</v>
       </c>
-      <c r="L90" s="1">
+      <c r="K90" s="1">
         <v>1</v>
       </c>
       <c r="O90" s="1">
@@ -3160,18 +3194,18 @@
         <v>11</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D91" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E91" s="1">
-        <v>1</v>
-      </c>
-      <c r="J91" s="1">
+        <v>130</v>
+      </c>
+      <c r="D91" s="4">
+        <v>5</v>
+      </c>
+      <c r="H91" s="1">
+        <v>1</v>
+      </c>
+      <c r="L91" s="1">
         <v>1</v>
       </c>
       <c r="O91" s="1">
@@ -3186,7 +3220,7 @@
         <v>162</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D92" s="2">
         <v>2.5</v>
@@ -3203,13 +3237,13 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D93" s="2">
         <v>2.5</v>
@@ -3217,115 +3251,90 @@
       <c r="E93" s="1">
         <v>1</v>
       </c>
-      <c r="L93" s="1">
-        <v>1</v>
-      </c>
-      <c r="M93" s="1">
+      <c r="J93" s="1">
+        <v>1</v>
+      </c>
+      <c r="O93" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D94" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E94" s="1">
-        <v>1</v>
-      </c>
-      <c r="L94" s="1">
-        <v>1</v>
-      </c>
-      <c r="M94" s="1">
+        <v>5</v>
+      </c>
+      <c r="F94" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="D95" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="H95" s="1">
+        <v>5</v>
+      </c>
+      <c r="F95" s="1">
         <v>1</v>
       </c>
       <c r="J95" s="1">
-        <v>1</v>
-      </c>
-      <c r="L95" s="1">
-        <v>1</v>
-      </c>
-      <c r="M95" s="1">
-        <v>1</v>
-      </c>
-      <c r="O95" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D96" s="5">
-        <v>5</v>
-      </c>
-      <c r="H96" s="1">
+        <v>176</v>
+      </c>
+      <c r="D96" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F96" s="1">
         <v>1</v>
       </c>
       <c r="J96" s="1">
-        <v>1</v>
-      </c>
-      <c r="K96" s="1">
-        <v>1</v>
-      </c>
-      <c r="L96" s="1">
-        <v>1</v>
-      </c>
-      <c r="M96" s="1">
-        <v>1</v>
-      </c>
-      <c r="N96" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D97" s="5">
-        <v>5</v>
-      </c>
-      <c r="H97" s="1">
+        <v>128</v>
+      </c>
+      <c r="D97" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="L97" s="1">
         <v>1</v>
       </c>
       <c r="M97" s="1">
-        <v>1</v>
-      </c>
-      <c r="O97" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3334,21 +3343,21 @@
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D98" s="2">
-        <v>5</v>
-      </c>
-      <c r="H98" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="L98" s="1">
         <v>1</v>
       </c>
       <c r="M98" s="1">
-        <v>1</v>
-      </c>
-      <c r="N98" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3357,25 +3366,25 @@
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="7">
-        <v>5</v>
-      </c>
-      <c r="G99" s="1">
+      <c r="D99" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H99" s="1">
         <v>1</v>
       </c>
       <c r="J99" s="1">
         <v>1</v>
       </c>
-      <c r="K99" s="1">
+      <c r="L99" s="1">
         <v>1</v>
       </c>
       <c r="M99" s="1">
         <v>1</v>
       </c>
-      <c r="N99" s="1">
+      <c r="O99" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3384,44 +3393,47 @@
         <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D100" s="7">
-        <v>5</v>
-      </c>
-      <c r="G100" s="1">
+        <v>131</v>
+      </c>
+      <c r="D100" s="4">
+        <v>5</v>
+      </c>
+      <c r="H100" s="1">
         <v>1</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
       </c>
+      <c r="K100" s="1">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1">
+        <v>1</v>
+      </c>
       <c r="M100" s="1">
         <v>1</v>
       </c>
-      <c r="O100" s="1">
+      <c r="N100" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D101" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="G101" s="1">
-        <v>1</v>
-      </c>
-      <c r="J101" s="1">
+        <v>132</v>
+      </c>
+      <c r="D101" s="4">
+        <v>5</v>
+      </c>
+      <c r="H101" s="1">
         <v>1</v>
       </c>
       <c r="M101" s="1">
@@ -3436,16 +3448,15 @@
         <v>8</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="G102" s="1">
-        <v>1</v>
-      </c>
-      <c r="J102" s="1">
+        <v>29</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D102" s="2">
+        <v>5</v>
+      </c>
+      <c r="H102" s="1">
         <v>1</v>
       </c>
       <c r="M102" s="1">
@@ -3460,19 +3471,19 @@
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="C103" s="2"/>
-      <c r="D103" s="5">
-        <v>5</v>
-      </c>
-      <c r="F103" s="1">
+      <c r="D103" s="6">
+        <v>5</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="J103" s="1">
         <v>1</v>
       </c>
       <c r="K103" s="1">
-        <v>1</v>
-      </c>
-      <c r="L103" s="1">
         <v>1</v>
       </c>
       <c r="M103" s="1">
@@ -3487,16 +3498,18 @@
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="5">
-        <v>5</v>
-      </c>
-      <c r="H104" s="1">
-        <v>1</v>
-      </c>
-      <c r="L104" s="1">
+        <v>134</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D104" s="6">
+        <v>5</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="J104" s="1">
         <v>1</v>
       </c>
       <c r="M104" s="1">
@@ -3511,13 +3524,18 @@
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="5">
-        <v>5</v>
-      </c>
-      <c r="F105" s="1">
+        <v>135</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D105" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1</v>
+      </c>
+      <c r="J105" s="1">
         <v>1</v>
       </c>
       <c r="M105" s="1">
@@ -3532,19 +3550,16 @@
         <v>8</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2"/>
-      <c r="D106" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="E106" s="1">
+      <c r="D106" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G106" s="1">
         <v>1</v>
       </c>
       <c r="J106" s="1">
-        <v>1</v>
-      </c>
-      <c r="K106" s="1">
         <v>1</v>
       </c>
       <c r="M106" s="1">
@@ -3556,39 +3571,46 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="C107" s="2"/>
-      <c r="D107" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="G107" s="1">
+      <c r="D107" s="4">
+        <v>5</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="K107" s="1">
+        <v>1</v>
+      </c>
+      <c r="L107" s="1">
         <v>1</v>
       </c>
       <c r="M107" s="1">
         <v>1</v>
       </c>
-      <c r="O107" s="1">
+      <c r="N107" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D108" s="2">
+        <v>139</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="4">
         <v>5</v>
       </c>
       <c r="H108" s="1">
+        <v>1</v>
+      </c>
+      <c r="L108" s="1">
         <v>1</v>
       </c>
       <c r="M108" s="1">
@@ -3600,24 +3622,16 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D109" s="2">
-        <v>5</v>
-      </c>
-      <c r="H109" s="1">
-        <v>1</v>
-      </c>
-      <c r="K109" s="1">
-        <v>1</v>
-      </c>
-      <c r="L109" s="1">
+        <v>7</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="4">
+        <v>5</v>
+      </c>
+      <c r="F109" s="1">
         <v>1</v>
       </c>
       <c r="M109" s="1">
@@ -3629,21 +3643,22 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>159</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C110" s="2"/>
       <c r="D110" s="2">
         <v>2.5</v>
       </c>
-      <c r="H110" s="1">
+      <c r="E110" s="1">
         <v>1</v>
       </c>
       <c r="J110" s="1">
+        <v>1</v>
+      </c>
+      <c r="K110" s="1">
         <v>1</v>
       </c>
       <c r="M110" s="1">
@@ -3655,70 +3670,56 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="5">
-        <v>5</v>
-      </c>
-      <c r="E111" s="1">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D111" s="2">
+        <v>5</v>
       </c>
       <c r="L111" s="1">
         <v>1</v>
       </c>
       <c r="M111" s="1">
-        <v>1</v>
-      </c>
-      <c r="N111" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="5">
-        <v>5</v>
-      </c>
-      <c r="E112" s="1">
-        <v>1</v>
-      </c>
-      <c r="J112" s="1">
-        <v>1</v>
-      </c>
-      <c r="K112" s="1">
+        <v>179</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D112" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L112" s="1">
         <v>1</v>
       </c>
       <c r="M112" s="1">
-        <v>1</v>
-      </c>
-      <c r="N112" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2">
         <v>2.5</v>
       </c>
-      <c r="E113" s="1">
-        <v>1</v>
-      </c>
-      <c r="L113" s="1">
+      <c r="G113" s="1">
         <v>1</v>
       </c>
       <c r="M113" s="1">
@@ -3733,16 +3734,15 @@
         <v>1</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="5">
-        <v>5</v>
-      </c>
-      <c r="E114" s="1">
-        <v>1</v>
-      </c>
-      <c r="L114" s="1">
+        <v>156</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D114" s="2">
+        <v>5</v>
+      </c>
+      <c r="H114" s="1">
         <v>1</v>
       </c>
       <c r="M114" s="1">
@@ -3757,19 +3757,21 @@
         <v>1</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="G115" s="1">
-        <v>1</v>
-      </c>
-      <c r="J115" s="1">
+        <v>156</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D115" s="2">
+        <v>5</v>
+      </c>
+      <c r="H115" s="1">
         <v>1</v>
       </c>
       <c r="K115" s="1">
+        <v>1</v>
+      </c>
+      <c r="L115" s="1">
         <v>1</v>
       </c>
       <c r="M115" s="1">
@@ -3784,13 +3786,15 @@
         <v>1</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="7">
-        <v>5</v>
-      </c>
-      <c r="G116" s="1">
+        <v>156</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D116" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H116" s="1">
         <v>1</v>
       </c>
       <c r="J116" s="1">
@@ -3808,37 +3812,37 @@
         <v>1</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2"/>
-      <c r="D117" s="5">
-        <v>5</v>
-      </c>
-      <c r="G117" s="1">
-        <v>1</v>
-      </c>
-      <c r="K117" s="1">
+      <c r="D117" s="4">
+        <v>5</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+      <c r="L117" s="1">
         <v>1</v>
       </c>
       <c r="M117" s="1">
         <v>1</v>
       </c>
-      <c r="O117" s="1">
+      <c r="N117" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="C118" s="2"/>
-      <c r="D118" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="I118" s="1">
+      <c r="D118" s="4">
+        <v>5</v>
+      </c>
+      <c r="E118" s="1">
         <v>1</v>
       </c>
       <c r="J118" s="1">
@@ -3850,22 +3854,25 @@
       <c r="M118" s="1">
         <v>1</v>
       </c>
-      <c r="O118" s="1">
+      <c r="N118" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C119" s="2"/>
-      <c r="D119" s="5">
-        <v>5</v>
-      </c>
-      <c r="F119" s="1">
+      <c r="D119" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+      <c r="L119" s="1">
         <v>1</v>
       </c>
       <c r="M119" s="1">
@@ -3880,22 +3887,22 @@
         <v>1</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="C120" s="2"/>
-      <c r="D120" s="5">
-        <v>5</v>
-      </c>
-      <c r="F120" s="1">
-        <v>1</v>
-      </c>
-      <c r="J120" s="1">
+      <c r="D120" s="4">
+        <v>5</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="L120" s="1">
         <v>1</v>
       </c>
       <c r="M120" s="1">
         <v>1</v>
       </c>
-      <c r="N120" s="1">
+      <c r="O120" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3904,16 +3911,19 @@
         <v>1</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="C121" s="2"/>
-      <c r="D121" s="5">
-        <v>5</v>
-      </c>
-      <c r="F121" s="1">
-        <v>1</v>
-      </c>
-      <c r="L121" s="1">
+      <c r="D121" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1</v>
+      </c>
+      <c r="J121" s="1">
+        <v>1</v>
+      </c>
+      <c r="K121" s="1">
         <v>1</v>
       </c>
       <c r="M121" s="1">
@@ -3928,25 +3938,22 @@
         <v>1</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="C122" s="2"/>
-      <c r="D122" s="5">
-        <v>5</v>
-      </c>
-      <c r="H122" s="1">
-        <v>1</v>
-      </c>
-      <c r="K122" s="1">
-        <v>1</v>
-      </c>
-      <c r="L122" s="1">
+      <c r="D122" s="6">
+        <v>5</v>
+      </c>
+      <c r="G122" s="1">
+        <v>1</v>
+      </c>
+      <c r="J122" s="1">
         <v>1</v>
       </c>
       <c r="M122" s="1">
         <v>1</v>
       </c>
-      <c r="O122" s="1">
+      <c r="N122" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3955,24 +3962,22 @@
         <v>1</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D123" s="2">
-        <v>5</v>
-      </c>
-      <c r="H123" s="1">
-        <v>1</v>
-      </c>
-      <c r="J123" s="1">
+        <v>145</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="4">
+        <v>5</v>
+      </c>
+      <c r="G123" s="1">
+        <v>1</v>
+      </c>
+      <c r="K123" s="1">
         <v>1</v>
       </c>
       <c r="M123" s="1">
         <v>1</v>
       </c>
-      <c r="N123" s="1">
+      <c r="O123" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3981,15 +3986,16 @@
         <v>1</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C124" s="2"/>
       <c r="D124" s="2">
-        <v>5</v>
-      </c>
-      <c r="H124" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I124" s="1">
+        <v>1</v>
+      </c>
+      <c r="J124" s="1">
         <v>1</v>
       </c>
       <c r="K124" s="1">
@@ -3998,7 +4004,7 @@
       <c r="M124" s="1">
         <v>1</v>
       </c>
-      <c r="N124" s="1">
+      <c r="O124" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4007,39 +4013,184 @@
         <v>1</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="4">
+        <v>5</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1</v>
+      </c>
+      <c r="M125" s="1">
+        <v>1</v>
+      </c>
+      <c r="O125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" s="4">
+        <v>5</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1</v>
+      </c>
+      <c r="J126" s="1">
+        <v>1</v>
+      </c>
+      <c r="M126" s="1">
+        <v>1</v>
+      </c>
+      <c r="N126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="4">
+        <v>5</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="L127" s="1">
+        <v>1</v>
+      </c>
+      <c r="M127" s="1">
+        <v>1</v>
+      </c>
+      <c r="O127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="4">
+        <v>5</v>
+      </c>
+      <c r="H128" s="1">
+        <v>1</v>
+      </c>
+      <c r="K128" s="1">
+        <v>1</v>
+      </c>
+      <c r="L128" s="1">
+        <v>1</v>
+      </c>
+      <c r="M128" s="1">
+        <v>1</v>
+      </c>
+      <c r="O128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D129" s="2">
+        <v>5</v>
+      </c>
+      <c r="H129" s="1">
+        <v>1</v>
+      </c>
+      <c r="J129" s="1">
+        <v>1</v>
+      </c>
+      <c r="M129" s="1">
+        <v>1</v>
+      </c>
+      <c r="N129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D130" s="2">
+        <v>5</v>
+      </c>
+      <c r="H130" s="1">
+        <v>1</v>
+      </c>
+      <c r="K130" s="1">
+        <v>1</v>
+      </c>
+      <c r="M130" s="1">
+        <v>1</v>
+      </c>
+      <c r="N130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D125" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="H125" s="1">
-        <v>1</v>
-      </c>
-      <c r="J125" s="1">
-        <v>1</v>
-      </c>
-      <c r="M125" s="1">
-        <v>1</v>
-      </c>
-      <c r="N125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="C126" s="2"/>
-      <c r="D126" s="7"/>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="C127" s="2"/>
-    </row>
-    <row r="133" spans="3:3">
-      <c r="C133" s="4"/>
+      <c r="D131" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H131" s="1">
+        <v>1</v>
+      </c>
+      <c r="J131" s="1">
+        <v>1</v>
+      </c>
+      <c r="M131" s="1">
+        <v>1</v>
+      </c>
+      <c r="N131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="C132" s="2"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="C133" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O122" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\work\tc\lagrange-research\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D206E134-AC23-440F-85E4-12E9466499C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4215A5-1F04-403D-8031-951BFE90471B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1125,10 +1125,10 @@
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.3"/>
@@ -3681,6 +3681,9 @@
       <c r="D111" s="2">
         <v>5</v>
       </c>
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
       <c r="L111" s="1">
         <v>1</v>
       </c>
@@ -3700,6 +3703,9 @@
       </c>
       <c r="D112" s="2">
         <v>2.5</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
       </c>
       <c r="L112" s="1">
         <v>1</v>
